--- a/xls/itemsConfig.xlsx
+++ b/xls/itemsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="437">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1319,13 +1319,53 @@
   </si>
   <si>
     <t>李云在碎片</t>
+  </si>
+  <si>
+    <t>低级交流书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级交流书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级交流书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级球员传承道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级球员传承道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级球员传承道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7500经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12500经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1387,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1356,7 +1403,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1364,14 +1411,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1677,10 +1752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J174" sqref="J174"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2614,7 @@
       <c r="E33" s="2">
         <v>999</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>103</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -2565,7 +2640,7 @@
       <c r="E34" s="2">
         <v>999</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>101</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -2591,7 +2666,7 @@
       <c r="E35" s="2">
         <v>999</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>102</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2617,8 +2692,8 @@
       <c r="E36" s="2">
         <v>999</v>
       </c>
-      <c r="F36" s="2">
-        <v>108</v>
+      <c r="F36" s="3">
+        <v>110</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>46</v>
@@ -2643,7 +2718,7 @@
       <c r="E37" s="2">
         <v>999</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>104</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -2669,7 +2744,7 @@
       <c r="E38" s="2">
         <v>999</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>105</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2695,8 +2770,8 @@
       <c r="E39" s="2">
         <v>999</v>
       </c>
-      <c r="F39" s="2">
-        <v>106</v>
+      <c r="F39" s="4">
+        <v>108</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>51</v>
@@ -2721,8 +2796,8 @@
       <c r="E40" s="2">
         <v>999</v>
       </c>
-      <c r="F40" s="2">
-        <v>107</v>
+      <c r="F40" s="4">
+        <v>109</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>52</v>
@@ -2747,8 +2822,8 @@
       <c r="E41" s="2">
         <v>999</v>
       </c>
-      <c r="F41" s="2">
-        <v>109</v>
+      <c r="F41" s="3">
+        <v>111</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>53</v>
@@ -2773,8 +2848,8 @@
       <c r="E42" s="2">
         <v>999</v>
       </c>
-      <c r="F42" s="2">
-        <v>110</v>
+      <c r="F42" s="3">
+        <v>112</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>53</v>
@@ -2799,8 +2874,8 @@
       <c r="E43" s="2">
         <v>999</v>
       </c>
-      <c r="F43" s="2">
-        <v>111</v>
+      <c r="F43" s="3">
+        <v>113</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>53</v>
@@ -2825,8 +2900,8 @@
       <c r="E44" s="2">
         <v>999</v>
       </c>
-      <c r="F44" s="2">
-        <v>112</v>
+      <c r="F44" s="3">
+        <v>114</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>53</v>
@@ -2851,8 +2926,8 @@
       <c r="E45" s="2">
         <v>999</v>
       </c>
-      <c r="F45" s="2">
-        <v>113</v>
+      <c r="F45" s="3">
+        <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>253</v>
@@ -2877,8 +2952,8 @@
       <c r="E46" s="2">
         <v>999</v>
       </c>
-      <c r="F46" s="2">
-        <v>114</v>
+      <c r="F46" s="3">
+        <v>116</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>253</v>
@@ -2903,8 +2978,8 @@
       <c r="E47" s="2">
         <v>999</v>
       </c>
-      <c r="F47" s="2">
-        <v>115</v>
+      <c r="F47" s="3">
+        <v>117</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>253</v>
@@ -2929,8 +3004,8 @@
       <c r="E48" s="2">
         <v>999</v>
       </c>
-      <c r="F48" s="2">
-        <v>116</v>
+      <c r="F48" s="3">
+        <v>118</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>253</v>
@@ -2955,8 +3030,8 @@
       <c r="E49" s="2">
         <v>999</v>
       </c>
-      <c r="F49" s="2">
-        <v>117</v>
+      <c r="F49" s="3">
+        <v>119</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>55</v>
@@ -2981,8 +3056,8 @@
       <c r="E50" s="2">
         <v>999</v>
       </c>
-      <c r="F50" s="2">
-        <v>118</v>
+      <c r="F50" s="3">
+        <v>120</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>55</v>
@@ -3007,8 +3082,8 @@
       <c r="E51" s="2">
         <v>999</v>
       </c>
-      <c r="F51" s="2">
-        <v>119</v>
+      <c r="F51" s="3">
+        <v>121</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>55</v>
@@ -3033,8 +3108,8 @@
       <c r="E52" s="2">
         <v>999</v>
       </c>
-      <c r="F52" s="2">
-        <v>120</v>
+      <c r="F52" s="3">
+        <v>122</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>55</v>
@@ -3059,8 +3134,8 @@
       <c r="E53" s="2">
         <v>999</v>
       </c>
-      <c r="F53" s="2">
-        <v>121</v>
+      <c r="F53" s="3">
+        <v>123</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>60</v>
@@ -3085,8 +3160,8 @@
       <c r="E54" s="2">
         <v>999</v>
       </c>
-      <c r="F54" s="2">
-        <v>122</v>
+      <c r="F54" s="3">
+        <v>124</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>254</v>
@@ -3111,8 +3186,8 @@
       <c r="E55" s="2">
         <v>999</v>
       </c>
-      <c r="F55" s="2">
-        <v>123</v>
+      <c r="F55" s="3">
+        <v>125</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>62</v>
@@ -3137,8 +3212,8 @@
       <c r="E56" s="2">
         <v>999</v>
       </c>
-      <c r="F56" s="2">
-        <v>124</v>
+      <c r="F56" s="3">
+        <v>126</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>64</v>
@@ -3163,8 +3238,8 @@
       <c r="E57" s="2">
         <v>999</v>
       </c>
-      <c r="F57" s="2">
-        <v>125</v>
+      <c r="F57" s="3">
+        <v>127</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>66</v>
@@ -3189,8 +3264,8 @@
       <c r="E58" s="2">
         <v>999</v>
       </c>
-      <c r="F58" s="2">
-        <v>126</v>
+      <c r="F58" s="3">
+        <v>128</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>255</v>
@@ -3215,8 +3290,8 @@
       <c r="E59" s="2">
         <v>999</v>
       </c>
-      <c r="F59" s="2">
-        <v>127</v>
+      <c r="F59" s="3">
+        <v>129</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>256</v>
@@ -3227,13 +3302,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>103001</v>
+        <v>102028</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>23</v>
@@ -3241,11 +3316,11 @@
       <c r="E60" s="2">
         <v>999</v>
       </c>
-      <c r="F60" s="2">
-        <v>801</v>
+      <c r="F60" s="3">
+        <v>130</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="H60" s="2">
         <v>1000</v>
@@ -3253,13 +3328,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>103002</v>
+        <v>102029</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>23</v>
@@ -3267,25 +3342,25 @@
       <c r="E61" s="2">
         <v>999</v>
       </c>
-      <c r="F61" s="2">
-        <v>802</v>
+      <c r="F61" s="3">
+        <v>131</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>258</v>
+        <v>431</v>
       </c>
       <c r="H61" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>103003</v>
+        <v>102030</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>113</v>
+        <v>429</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>23</v>
@@ -3293,74 +3368,74 @@
       <c r="E62" s="2">
         <v>999</v>
       </c>
-      <c r="F62" s="2">
-        <v>803</v>
+      <c r="F62" s="3">
+        <v>132</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>259</v>
+        <v>432</v>
       </c>
       <c r="H62" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>103004</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="2">
-        <v>999</v>
-      </c>
-      <c r="F63" s="2">
-        <v>804</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H63" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>103005</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="2">
-        <v>999</v>
-      </c>
-      <c r="F64" s="2">
-        <v>805</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H64" s="2">
-        <v>1000</v>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>102031</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="5">
+        <v>999</v>
+      </c>
+      <c r="F63" s="6">
+        <v>106</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H63" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>102032</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="5">
+        <v>999</v>
+      </c>
+      <c r="F64" s="6">
+        <v>107</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2000</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>103006</v>
+        <v>103001</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
@@ -3372,10 +3447,10 @@
         <v>999</v>
       </c>
       <c r="F65" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H65" s="2">
         <v>1000</v>
@@ -3383,10 +3458,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>103007</v>
+        <v>103002</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
@@ -3398,10 +3473,10 @@
         <v>999</v>
       </c>
       <c r="F66" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H66" s="2">
         <v>1000</v>
@@ -3409,10 +3484,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>103008</v>
+        <v>103003</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
@@ -3424,10 +3499,10 @@
         <v>999</v>
       </c>
       <c r="F67" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H67" s="2">
         <v>1000</v>
@@ -3435,10 +3510,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>103009</v>
+        <v>103004</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>7</v>
@@ -3450,10 +3525,10 @@
         <v>999</v>
       </c>
       <c r="F68" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H68" s="2">
         <v>1000</v>
@@ -3461,10 +3536,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>103101</v>
+        <v>103005</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
@@ -3476,10 +3551,10 @@
         <v>999</v>
       </c>
       <c r="F69" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H69" s="2">
         <v>1000</v>
@@ -3487,10 +3562,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>103102</v>
+        <v>103006</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
@@ -3502,10 +3577,10 @@
         <v>999</v>
       </c>
       <c r="F70" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H70" s="2">
         <v>1000</v>
@@ -3513,10 +3588,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>103103</v>
+        <v>103007</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>7</v>
@@ -3528,10 +3603,10 @@
         <v>999</v>
       </c>
       <c r="F71" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H71" s="2">
         <v>1000</v>
@@ -3539,10 +3614,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>103104</v>
+        <v>103008</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
@@ -3554,10 +3629,10 @@
         <v>999</v>
       </c>
       <c r="F72" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H72" s="2">
         <v>1000</v>
@@ -3565,10 +3640,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>103105</v>
+        <v>103009</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>7</v>
@@ -3580,10 +3655,10 @@
         <v>999</v>
       </c>
       <c r="F73" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H73" s="2">
         <v>1000</v>
@@ -3591,10 +3666,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>103106</v>
+        <v>103101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>7</v>
@@ -3606,10 +3681,10 @@
         <v>999</v>
       </c>
       <c r="F74" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H74" s="2">
         <v>1000</v>
@@ -3617,10 +3692,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>103107</v>
+        <v>103102</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>7</v>
@@ -3632,10 +3707,10 @@
         <v>999</v>
       </c>
       <c r="F75" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H75" s="2">
         <v>1000</v>
@@ -3643,10 +3718,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>103108</v>
+        <v>103103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>7</v>
@@ -3658,10 +3733,10 @@
         <v>999</v>
       </c>
       <c r="F76" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H76" s="2">
         <v>1000</v>
@@ -3669,10 +3744,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>103109</v>
+        <v>103104</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -3684,10 +3759,10 @@
         <v>999</v>
       </c>
       <c r="F77" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H77" s="2">
         <v>1000</v>
@@ -3695,10 +3770,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>103201</v>
+        <v>103105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
@@ -3710,10 +3785,10 @@
         <v>999</v>
       </c>
       <c r="F78" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H78" s="2">
         <v>1000</v>
@@ -3721,10 +3796,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>103202</v>
+        <v>103106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
@@ -3736,10 +3811,10 @@
         <v>999</v>
       </c>
       <c r="F79" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H79" s="2">
         <v>1000</v>
@@ -3747,10 +3822,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>103203</v>
+        <v>103107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -3762,10 +3837,10 @@
         <v>999</v>
       </c>
       <c r="F80" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H80" s="2">
         <v>1000</v>
@@ -3773,10 +3848,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>103204</v>
+        <v>103108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
@@ -3788,10 +3863,10 @@
         <v>999</v>
       </c>
       <c r="F81" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H81" s="2">
         <v>1000</v>
@@ -3799,10 +3874,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>103205</v>
+        <v>103109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
@@ -3814,10 +3889,10 @@
         <v>999</v>
       </c>
       <c r="F82" s="2">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H82" s="2">
         <v>1000</v>
@@ -3825,10 +3900,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>103206</v>
+        <v>103201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
@@ -3840,10 +3915,10 @@
         <v>999</v>
       </c>
       <c r="F83" s="2">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H83" s="2">
         <v>1000</v>
@@ -3851,10 +3926,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>103207</v>
+        <v>103202</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
@@ -3866,10 +3941,10 @@
         <v>999</v>
       </c>
       <c r="F84" s="2">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H84" s="2">
         <v>1000</v>
@@ -3877,10 +3952,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>103208</v>
+        <v>103203</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>7</v>
@@ -3892,10 +3967,10 @@
         <v>999</v>
       </c>
       <c r="F85" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H85" s="2">
         <v>1000</v>
@@ -3903,10 +3978,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>103209</v>
+        <v>103204</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
@@ -3918,10 +3993,10 @@
         <v>999</v>
       </c>
       <c r="F86" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H86" s="2">
         <v>1000</v>
@@ -3929,10 +4004,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>103301</v>
+        <v>103205</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
@@ -3944,10 +4019,10 @@
         <v>999</v>
       </c>
       <c r="F87" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H87" s="2">
         <v>1000</v>
@@ -3955,10 +4030,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>103302</v>
+        <v>103206</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>7</v>
@@ -3970,10 +4045,10 @@
         <v>999</v>
       </c>
       <c r="F88" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H88" s="2">
         <v>1000</v>
@@ -3981,10 +4056,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>103303</v>
+        <v>103207</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>7</v>
@@ -3996,10 +4071,10 @@
         <v>999</v>
       </c>
       <c r="F89" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H89" s="2">
         <v>1000</v>
@@ -4007,10 +4082,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>103304</v>
+        <v>103208</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
@@ -4022,10 +4097,10 @@
         <v>999</v>
       </c>
       <c r="F90" s="2">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H90" s="2">
         <v>1000</v>
@@ -4033,10 +4108,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>103305</v>
+        <v>103209</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>7</v>
@@ -4048,10 +4123,10 @@
         <v>999</v>
       </c>
       <c r="F91" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H91" s="2">
         <v>1000</v>
@@ -4059,10 +4134,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>103306</v>
+        <v>103301</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>7</v>
@@ -4074,10 +4149,10 @@
         <v>999</v>
       </c>
       <c r="F92" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H92" s="2">
         <v>1000</v>
@@ -4085,10 +4160,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>103307</v>
+        <v>103302</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
@@ -4100,10 +4175,10 @@
         <v>999</v>
       </c>
       <c r="F93" s="2">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H93" s="2">
         <v>1000</v>
@@ -4111,10 +4186,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>103308</v>
+        <v>103303</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
@@ -4126,10 +4201,10 @@
         <v>999</v>
       </c>
       <c r="F94" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H94" s="2">
         <v>1000</v>
@@ -4137,10 +4212,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>103309</v>
+        <v>103304</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
@@ -4152,10 +4227,10 @@
         <v>999</v>
       </c>
       <c r="F95" s="2">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H95" s="2">
         <v>1000</v>
@@ -4163,10 +4238,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>103401</v>
+        <v>103305</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
@@ -4178,10 +4253,10 @@
         <v>999</v>
       </c>
       <c r="F96" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H96" s="2">
         <v>1000</v>
@@ -4189,10 +4264,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>103402</v>
+        <v>103306</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
@@ -4204,10 +4279,10 @@
         <v>999</v>
       </c>
       <c r="F97" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H97" s="2">
         <v>1000</v>
@@ -4215,10 +4290,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>103403</v>
+        <v>103307</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
@@ -4230,10 +4305,10 @@
         <v>999</v>
       </c>
       <c r="F98" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H98" s="2">
         <v>1000</v>
@@ -4241,10 +4316,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>103404</v>
+        <v>103308</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
@@ -4256,10 +4331,10 @@
         <v>999</v>
       </c>
       <c r="F99" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H99" s="2">
         <v>1000</v>
@@ -4267,10 +4342,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>103405</v>
+        <v>103309</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
@@ -4282,10 +4357,10 @@
         <v>999</v>
       </c>
       <c r="F100" s="2">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H100" s="2">
         <v>1000</v>
@@ -4293,10 +4368,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>103406</v>
+        <v>103401</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>7</v>
@@ -4308,10 +4383,10 @@
         <v>999</v>
       </c>
       <c r="F101" s="2">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H101" s="2">
         <v>1000</v>
@@ -4319,10 +4394,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>103407</v>
+        <v>103402</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
@@ -4334,10 +4409,10 @@
         <v>999</v>
       </c>
       <c r="F102" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H102" s="2">
         <v>1000</v>
@@ -4345,10 +4420,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>103408</v>
+        <v>103403</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
@@ -4360,10 +4435,10 @@
         <v>999</v>
       </c>
       <c r="F103" s="2">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H103" s="2">
         <v>1000</v>
@@ -4371,10 +4446,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>103409</v>
+        <v>103404</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
@@ -4386,10 +4461,10 @@
         <v>999</v>
       </c>
       <c r="F104" s="2">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H104" s="2">
         <v>1000</v>
@@ -4397,10 +4472,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>103501</v>
+        <v>103405</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
@@ -4412,10 +4487,10 @@
         <v>999</v>
       </c>
       <c r="F105" s="2">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H105" s="2">
         <v>1000</v>
@@ -4423,10 +4498,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>103502</v>
+        <v>103406</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
@@ -4438,10 +4513,10 @@
         <v>999</v>
       </c>
       <c r="F106" s="2">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H106" s="2">
         <v>1000</v>
@@ -4449,10 +4524,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>103503</v>
+        <v>103407</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
@@ -4464,10 +4539,10 @@
         <v>999</v>
       </c>
       <c r="F107" s="2">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H107" s="2">
         <v>1000</v>
@@ -4475,10 +4550,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>103504</v>
+        <v>103408</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>7</v>
@@ -4490,10 +4565,10 @@
         <v>999</v>
       </c>
       <c r="F108" s="2">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H108" s="2">
         <v>1000</v>
@@ -4501,10 +4576,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>103505</v>
+        <v>103409</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
@@ -4516,10 +4591,10 @@
         <v>999</v>
       </c>
       <c r="F109" s="2">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H109" s="2">
         <v>1000</v>
@@ -4527,10 +4602,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>103506</v>
+        <v>103501</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
@@ -4542,10 +4617,10 @@
         <v>999</v>
       </c>
       <c r="F110" s="2">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H110" s="2">
         <v>1000</v>
@@ -4553,10 +4628,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>103507</v>
+        <v>103502</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -4568,10 +4643,10 @@
         <v>999</v>
       </c>
       <c r="F111" s="2">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H111" s="2">
         <v>1000</v>
@@ -4579,10 +4654,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>103508</v>
+        <v>103503</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
@@ -4594,10 +4669,10 @@
         <v>999</v>
       </c>
       <c r="F112" s="2">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H112" s="2">
         <v>1000</v>
@@ -4605,10 +4680,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>103509</v>
+        <v>103504</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
@@ -4620,10 +4695,10 @@
         <v>999</v>
       </c>
       <c r="F113" s="2">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H113" s="2">
         <v>1000</v>
@@ -4631,10 +4706,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>103601</v>
+        <v>103505</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
@@ -4646,10 +4721,10 @@
         <v>999</v>
       </c>
       <c r="F114" s="2">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H114" s="2">
         <v>1000</v>
@@ -4657,10 +4732,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>103602</v>
+        <v>103506</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
@@ -4672,10 +4747,10 @@
         <v>999</v>
       </c>
       <c r="F115" s="2">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H115" s="2">
         <v>1000</v>
@@ -4683,10 +4758,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>103603</v>
+        <v>103507</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
@@ -4698,10 +4773,10 @@
         <v>999</v>
       </c>
       <c r="F116" s="2">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H116" s="2">
         <v>1000</v>
@@ -4709,10 +4784,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>103604</v>
+        <v>103508</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
@@ -4724,10 +4799,10 @@
         <v>999</v>
       </c>
       <c r="F117" s="2">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H117" s="2">
         <v>1000</v>
@@ -4735,10 +4810,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>103605</v>
+        <v>103509</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
@@ -4750,10 +4825,10 @@
         <v>999</v>
       </c>
       <c r="F118" s="2">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H118" s="2">
         <v>1000</v>
@@ -4761,10 +4836,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>103606</v>
+        <v>103601</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
@@ -4776,10 +4851,10 @@
         <v>999</v>
       </c>
       <c r="F119" s="2">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H119" s="2">
         <v>1000</v>
@@ -4787,10 +4862,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>103607</v>
+        <v>103602</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -4802,10 +4877,10 @@
         <v>999</v>
       </c>
       <c r="F120" s="2">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H120" s="2">
         <v>1000</v>
@@ -4813,10 +4888,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>103608</v>
+        <v>103603</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
@@ -4828,10 +4903,10 @@
         <v>999</v>
       </c>
       <c r="F121" s="2">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H121" s="2">
         <v>1000</v>
@@ -4839,10 +4914,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>103609</v>
+        <v>103604</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
@@ -4854,10 +4929,10 @@
         <v>999</v>
       </c>
       <c r="F122" s="2">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H122" s="2">
         <v>1000</v>
@@ -4865,10 +4940,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>103701</v>
+        <v>103605</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
@@ -4880,10 +4955,10 @@
         <v>999</v>
       </c>
       <c r="F123" s="2">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H123" s="2">
         <v>1000</v>
@@ -4891,10 +4966,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>103702</v>
+        <v>103606</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
@@ -4906,10 +4981,10 @@
         <v>999</v>
       </c>
       <c r="F124" s="2">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H124" s="2">
         <v>1000</v>
@@ -4917,10 +4992,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>103703</v>
+        <v>103607</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
@@ -4932,10 +5007,10 @@
         <v>999</v>
       </c>
       <c r="F125" s="2">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H125" s="2">
         <v>1000</v>
@@ -4943,10 +5018,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>103704</v>
+        <v>103608</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
@@ -4958,10 +5033,10 @@
         <v>999</v>
       </c>
       <c r="F126" s="2">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H126" s="2">
         <v>1000</v>
@@ -4969,10 +5044,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>103705</v>
+        <v>103609</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
@@ -4984,10 +5059,10 @@
         <v>999</v>
       </c>
       <c r="F127" s="2">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H127" s="2">
         <v>1000</v>
@@ -4995,10 +5070,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>103706</v>
+        <v>103701</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
@@ -5010,10 +5085,10 @@
         <v>999</v>
       </c>
       <c r="F128" s="2">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H128" s="2">
         <v>1000</v>
@@ -5021,10 +5096,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>103707</v>
+        <v>103702</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
@@ -5036,10 +5111,10 @@
         <v>999</v>
       </c>
       <c r="F129" s="2">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H129" s="2">
         <v>1000</v>
@@ -5047,10 +5122,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>103708</v>
+        <v>103703</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
@@ -5062,10 +5137,10 @@
         <v>999</v>
       </c>
       <c r="F130" s="2">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H130" s="2">
         <v>1000</v>
@@ -5073,10 +5148,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>103709</v>
+        <v>103704</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
@@ -5088,10 +5163,10 @@
         <v>999</v>
       </c>
       <c r="F131" s="2">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H131" s="2">
         <v>1000</v>
@@ -5099,10 +5174,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>103801</v>
+        <v>103705</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
@@ -5114,10 +5189,10 @@
         <v>999</v>
       </c>
       <c r="F132" s="2">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H132" s="2">
         <v>1000</v>
@@ -5125,10 +5200,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>103802</v>
+        <v>103706</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
@@ -5140,10 +5215,10 @@
         <v>999</v>
       </c>
       <c r="F133" s="2">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H133" s="2">
         <v>1000</v>
@@ -5151,10 +5226,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>103803</v>
+        <v>103707</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
@@ -5166,10 +5241,10 @@
         <v>999</v>
       </c>
       <c r="F134" s="2">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H134" s="2">
         <v>1000</v>
@@ -5177,10 +5252,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>103804</v>
+        <v>103708</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
@@ -5192,10 +5267,10 @@
         <v>999</v>
       </c>
       <c r="F135" s="2">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H135" s="2">
         <v>1000</v>
@@ -5203,10 +5278,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>103805</v>
+        <v>103709</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
@@ -5218,10 +5293,10 @@
         <v>999</v>
       </c>
       <c r="F136" s="2">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H136" s="2">
         <v>1000</v>
@@ -5229,10 +5304,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>103806</v>
+        <v>103801</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
@@ -5244,10 +5319,10 @@
         <v>999</v>
       </c>
       <c r="F137" s="2">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H137" s="2">
         <v>1000</v>
@@ -5255,10 +5330,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>103807</v>
+        <v>103802</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
@@ -5270,10 +5345,10 @@
         <v>999</v>
       </c>
       <c r="F138" s="2">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H138" s="2">
         <v>1000</v>
@@ -5281,10 +5356,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>103808</v>
+        <v>103803</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
@@ -5296,10 +5371,10 @@
         <v>999</v>
       </c>
       <c r="F139" s="2">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H139" s="2">
         <v>1000</v>
@@ -5307,10 +5382,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>103809</v>
+        <v>103804</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
@@ -5322,10 +5397,10 @@
         <v>999</v>
       </c>
       <c r="F140" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H140" s="2">
         <v>1000</v>
@@ -5333,10 +5408,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>103901</v>
+        <v>103805</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
@@ -5348,10 +5423,10 @@
         <v>999</v>
       </c>
       <c r="F141" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H141" s="2">
         <v>1000</v>
@@ -5359,10 +5434,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>103902</v>
+        <v>103806</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
@@ -5374,10 +5449,10 @@
         <v>999</v>
       </c>
       <c r="F142" s="2">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H142" s="2">
         <v>1000</v>
@@ -5385,10 +5460,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>103903</v>
+        <v>103807</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>7</v>
@@ -5400,10 +5475,10 @@
         <v>999</v>
       </c>
       <c r="F143" s="2">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H143" s="2">
         <v>1000</v>
@@ -5411,10 +5486,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>103904</v>
+        <v>103808</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>7</v>
@@ -5426,10 +5501,10 @@
         <v>999</v>
       </c>
       <c r="F144" s="2">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H144" s="2">
         <v>1000</v>
@@ -5437,10 +5512,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>103905</v>
+        <v>103809</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
@@ -5452,10 +5527,10 @@
         <v>999</v>
       </c>
       <c r="F145" s="2">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H145" s="2">
         <v>1000</v>
@@ -5463,10 +5538,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>103906</v>
+        <v>103901</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
@@ -5478,10 +5553,10 @@
         <v>999</v>
       </c>
       <c r="F146" s="2">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H146" s="2">
         <v>1000</v>
@@ -5489,10 +5564,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>103907</v>
+        <v>103902</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
@@ -5504,10 +5579,10 @@
         <v>999</v>
       </c>
       <c r="F147" s="2">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H147" s="2">
         <v>1000</v>
@@ -5515,10 +5590,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>103908</v>
+        <v>103903</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
@@ -5530,10 +5605,10 @@
         <v>999</v>
       </c>
       <c r="F148" s="2">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H148" s="2">
         <v>1000</v>
@@ -5541,10 +5616,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>103909</v>
+        <v>103904</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
@@ -5556,10 +5631,10 @@
         <v>999</v>
       </c>
       <c r="F149" s="2">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H149" s="2">
         <v>1000</v>
@@ -5567,13 +5642,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>104001</v>
+        <v>103905</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>23</v>
@@ -5582,10 +5657,10 @@
         <v>999</v>
       </c>
       <c r="F150" s="2">
-        <v>1</v>
+        <v>886</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H150" s="2">
         <v>1000</v>
@@ -5593,13 +5668,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>104002</v>
+        <v>103906</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>23</v>
@@ -5608,10 +5683,10 @@
         <v>999</v>
       </c>
       <c r="F151" s="2">
-        <v>2</v>
+        <v>887</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H151" s="2">
         <v>1000</v>
@@ -5619,13 +5694,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>104003</v>
+        <v>103907</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>23</v>
@@ -5634,10 +5709,10 @@
         <v>999</v>
       </c>
       <c r="F152" s="2">
-        <v>3</v>
+        <v>888</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H152" s="2">
         <v>1000</v>
@@ -5645,13 +5720,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>104004</v>
+        <v>103908</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>23</v>
@@ -5660,10 +5735,10 @@
         <v>999</v>
       </c>
       <c r="F153" s="2">
-        <v>4</v>
+        <v>889</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H153" s="2">
         <v>1000</v>
@@ -5671,13 +5746,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>104005</v>
+        <v>103909</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>23</v>
@@ -5686,10 +5761,10 @@
         <v>999</v>
       </c>
       <c r="F154" s="2">
-        <v>5</v>
+        <v>890</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H154" s="2">
         <v>1000</v>
@@ -5697,10 +5772,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>104006</v>
+        <v>104001</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
@@ -5712,10 +5787,10 @@
         <v>999</v>
       </c>
       <c r="F155" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H155" s="2">
         <v>1000</v>
@@ -5723,10 +5798,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>104007</v>
+        <v>104002</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
@@ -5738,10 +5813,10 @@
         <v>999</v>
       </c>
       <c r="F156" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H156" s="2">
         <v>1000</v>
@@ -5749,10 +5824,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>104008</v>
+        <v>104003</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
@@ -5764,10 +5839,10 @@
         <v>999</v>
       </c>
       <c r="F157" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H157" s="2">
         <v>1000</v>
@@ -5775,10 +5850,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>104009</v>
+        <v>104004</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
@@ -5790,10 +5865,10 @@
         <v>999</v>
       </c>
       <c r="F158" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H158" s="2">
         <v>1000</v>
@@ -5801,10 +5876,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>104010</v>
+        <v>104005</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
@@ -5816,10 +5891,10 @@
         <v>999</v>
       </c>
       <c r="F159" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H159" s="2">
         <v>1000</v>
@@ -5827,10 +5902,10 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>104011</v>
+        <v>104006</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
@@ -5842,10 +5917,10 @@
         <v>999</v>
       </c>
       <c r="F160" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H160" s="2">
         <v>1000</v>
@@ -5853,13 +5928,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>105001</v>
+        <v>104007</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>23</v>
@@ -5868,24 +5943,24 @@
         <v>999</v>
       </c>
       <c r="F161" s="2">
-        <v>601</v>
+        <v>7</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H161" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>105002</v>
+        <v>104008</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>23</v>
@@ -5894,50 +5969,50 @@
         <v>999</v>
       </c>
       <c r="F162" s="2">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H162" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>105003</v>
+        <v>104009</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E163" s="2">
+        <v>999</v>
+      </c>
+      <c r="F163" s="2">
         <v>9</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E163" s="2">
-        <v>999</v>
-      </c>
-      <c r="F163" s="2">
-        <v>603</v>
-      </c>
       <c r="G163" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H163" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>105004</v>
+        <v>104010</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>23</v>
@@ -5946,24 +6021,24 @@
         <v>999</v>
       </c>
       <c r="F164" s="2">
-        <v>604</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H164" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>105005</v>
+        <v>104011</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>23</v>
@@ -5972,21 +6047,21 @@
         <v>999</v>
       </c>
       <c r="F165" s="2">
-        <v>605</v>
+        <v>11</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H165" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>105006</v>
+        <v>105001</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -5998,7 +6073,7 @@
         <v>999</v>
       </c>
       <c r="F166" s="2">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>358</v>
@@ -6009,10 +6084,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>105007</v>
+        <v>105002</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
@@ -6024,7 +6099,7 @@
         <v>999</v>
       </c>
       <c r="F167" s="2">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>358</v>
@@ -6035,10 +6110,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>105008</v>
+        <v>105003</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -6050,7 +6125,7 @@
         <v>999</v>
       </c>
       <c r="F168" s="2">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>358</v>
@@ -6061,10 +6136,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>105009</v>
+        <v>105004</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -6076,7 +6151,7 @@
         <v>999</v>
       </c>
       <c r="F169" s="2">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>358</v>
@@ -6087,10 +6162,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>105010</v>
+        <v>105005</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -6102,7 +6177,7 @@
         <v>999</v>
       </c>
       <c r="F170" s="2">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>358</v>
@@ -6113,10 +6188,10 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>105011</v>
+        <v>105006</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
@@ -6128,7 +6203,7 @@
         <v>999</v>
       </c>
       <c r="F171" s="2">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>358</v>
@@ -6139,10 +6214,10 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>105012</v>
+        <v>105007</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -6154,7 +6229,7 @@
         <v>999</v>
       </c>
       <c r="F172" s="2">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>358</v>
@@ -6165,10 +6240,10 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>105013</v>
+        <v>105008</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
@@ -6180,7 +6255,7 @@
         <v>999</v>
       </c>
       <c r="F173" s="2">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>358</v>
@@ -6191,10 +6266,10 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>105014</v>
+        <v>105009</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -6206,7 +6281,7 @@
         <v>999</v>
       </c>
       <c r="F174" s="2">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>358</v>
@@ -6217,10 +6292,10 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>105015</v>
+        <v>105010</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
@@ -6232,7 +6307,7 @@
         <v>999</v>
       </c>
       <c r="F175" s="2">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>358</v>
@@ -6243,10 +6318,10 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>105016</v>
+        <v>105011</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -6258,21 +6333,21 @@
         <v>999</v>
       </c>
       <c r="F176" s="2">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>358</v>
       </c>
       <c r="H176" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>105017</v>
+        <v>105012</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -6284,21 +6359,21 @@
         <v>999</v>
       </c>
       <c r="F177" s="2">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>358</v>
       </c>
       <c r="H177" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>105018</v>
+        <v>105013</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -6310,21 +6385,21 @@
         <v>999</v>
       </c>
       <c r="F178" s="2">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>358</v>
       </c>
       <c r="H178" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>105019</v>
+        <v>105014</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -6336,21 +6411,21 @@
         <v>999</v>
       </c>
       <c r="F179" s="2">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>358</v>
       </c>
       <c r="H179" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>105020</v>
+        <v>105015</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -6362,21 +6437,21 @@
         <v>999</v>
       </c>
       <c r="F180" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>358</v>
       </c>
       <c r="H180" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>105021</v>
+        <v>105016</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -6388,24 +6463,24 @@
         <v>999</v>
       </c>
       <c r="F181" s="2">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>358</v>
       </c>
       <c r="H181" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>106101</v>
+        <v>105017</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>23</v>
@@ -6414,24 +6489,24 @@
         <v>999</v>
       </c>
       <c r="F182" s="2">
-        <v>701</v>
+        <v>617</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>3</v>
+        <v>358</v>
       </c>
       <c r="H182" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>106102</v>
+        <v>105018</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>23</v>
@@ -6440,24 +6515,24 @@
         <v>999</v>
       </c>
       <c r="F183" s="2">
-        <v>702</v>
+        <v>618</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>4</v>
+        <v>358</v>
       </c>
       <c r="H183" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>106103</v>
+        <v>105019</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>23</v>
@@ -6466,10 +6541,10 @@
         <v>999</v>
       </c>
       <c r="F184" s="2">
-        <v>703</v>
+        <v>619</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H184" s="2">
         <v>1000</v>
@@ -6477,13 +6552,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>106104</v>
+        <v>105020</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>23</v>
@@ -6492,10 +6567,10 @@
         <v>999</v>
       </c>
       <c r="F185" s="2">
-        <v>704</v>
+        <v>620</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H185" s="2">
         <v>1000</v>
@@ -6503,13 +6578,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>106105</v>
+        <v>105021</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>23</v>
@@ -6518,10 +6593,10 @@
         <v>999</v>
       </c>
       <c r="F186" s="2">
-        <v>705</v>
+        <v>621</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H186" s="2">
         <v>1000</v>
@@ -6529,10 +6604,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>106106</v>
+        <v>106101</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>10</v>
@@ -6544,10 +6619,10 @@
         <v>999</v>
       </c>
       <c r="F187" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="H187" s="2">
         <v>1000</v>
@@ -6555,10 +6630,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>106107</v>
+        <v>106102</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>10</v>
@@ -6570,10 +6645,10 @@
         <v>999</v>
       </c>
       <c r="F188" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="H188" s="2">
         <v>1000</v>
@@ -6581,10 +6656,10 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>106108</v>
+        <v>106103</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>10</v>
@@ -6596,10 +6671,10 @@
         <v>999</v>
       </c>
       <c r="F189" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H189" s="2">
         <v>1000</v>
@@ -6607,10 +6682,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>106109</v>
+        <v>106104</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>10</v>
@@ -6622,10 +6697,10 @@
         <v>999</v>
       </c>
       <c r="F190" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H190" s="2">
         <v>1000</v>
@@ -6633,10 +6708,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>106110</v>
+        <v>106105</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>10</v>
@@ -6648,10 +6723,10 @@
         <v>999</v>
       </c>
       <c r="F191" s="2">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H191" s="2">
         <v>1000</v>
@@ -6659,10 +6734,10 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>106111</v>
+        <v>106106</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>10</v>
@@ -6674,10 +6749,10 @@
         <v>999</v>
       </c>
       <c r="F192" s="2">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H192" s="2">
         <v>1000</v>
@@ -6685,10 +6760,10 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>106112</v>
+        <v>106107</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>10</v>
@@ -6700,10 +6775,10 @@
         <v>999</v>
       </c>
       <c r="F193" s="2">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H193" s="2">
         <v>1000</v>
@@ -6711,10 +6786,10 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>106113</v>
+        <v>106108</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>10</v>
@@ -6726,10 +6801,10 @@
         <v>999</v>
       </c>
       <c r="F194" s="2">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H194" s="2">
         <v>1000</v>
@@ -6737,10 +6812,10 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>106114</v>
+        <v>106109</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
@@ -6752,10 +6827,10 @@
         <v>999</v>
       </c>
       <c r="F195" s="2">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H195" s="2">
         <v>1000</v>
@@ -6763,10 +6838,10 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>106115</v>
+        <v>106110</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>10</v>
@@ -6778,10 +6853,10 @@
         <v>999</v>
       </c>
       <c r="F196" s="2">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H196" s="2">
         <v>1000</v>
@@ -6789,10 +6864,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>106116</v>
+        <v>106111</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -6804,10 +6879,10 @@
         <v>999</v>
       </c>
       <c r="F197" s="2">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H197" s="2">
         <v>1000</v>
@@ -6815,10 +6890,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>106117</v>
+        <v>106112</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
@@ -6830,10 +6905,10 @@
         <v>999</v>
       </c>
       <c r="F198" s="2">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H198" s="2">
         <v>1000</v>
@@ -6841,10 +6916,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>106118</v>
+        <v>106113</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
@@ -6856,10 +6931,10 @@
         <v>999</v>
       </c>
       <c r="F199" s="2">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H199" s="2">
         <v>1000</v>
@@ -6867,10 +6942,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>106119</v>
+        <v>106114</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -6882,10 +6957,10 @@
         <v>999</v>
       </c>
       <c r="F200" s="2">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H200" s="2">
         <v>1000</v>
@@ -6893,10 +6968,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>106120</v>
+        <v>106115</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
@@ -6908,10 +6983,10 @@
         <v>999</v>
       </c>
       <c r="F201" s="2">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H201" s="2">
         <v>1000</v>
@@ -6919,10 +6994,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>106121</v>
+        <v>106116</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -6934,10 +7009,10 @@
         <v>999</v>
       </c>
       <c r="F202" s="2">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H202" s="2">
         <v>1000</v>
@@ -6945,10 +7020,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>106201</v>
+        <v>106117</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
@@ -6960,10 +7035,10 @@
         <v>999</v>
       </c>
       <c r="F203" s="2">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H203" s="2">
         <v>1000</v>
@@ -6971,10 +7046,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>106202</v>
+        <v>106118</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -6986,10 +7061,10 @@
         <v>999</v>
       </c>
       <c r="F204" s="2">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H204" s="2">
         <v>1000</v>
@@ -6997,10 +7072,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>106203</v>
+        <v>106119</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
@@ -7012,10 +7087,10 @@
         <v>999</v>
       </c>
       <c r="F205" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H205" s="2">
         <v>1000</v>
@@ -7023,10 +7098,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>106204</v>
+        <v>106120</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -7038,10 +7113,10 @@
         <v>999</v>
       </c>
       <c r="F206" s="2">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H206" s="2">
         <v>1000</v>
@@ -7049,10 +7124,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>106205</v>
+        <v>106121</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
@@ -7064,10 +7139,10 @@
         <v>999</v>
       </c>
       <c r="F207" s="2">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H207" s="2">
         <v>1000</v>
@@ -7075,10 +7150,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>106206</v>
+        <v>106201</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -7090,10 +7165,10 @@
         <v>999</v>
       </c>
       <c r="F208" s="2">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H208" s="2">
         <v>1000</v>
@@ -7101,10 +7176,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>106207</v>
+        <v>106202</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
@@ -7116,10 +7191,10 @@
         <v>999</v>
       </c>
       <c r="F209" s="2">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H209" s="2">
         <v>1000</v>
@@ -7127,10 +7202,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>106208</v>
+        <v>106203</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -7142,10 +7217,10 @@
         <v>999</v>
       </c>
       <c r="F210" s="2">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H210" s="2">
         <v>1000</v>
@@ -7153,10 +7228,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>106209</v>
+        <v>106204</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
@@ -7168,10 +7243,10 @@
         <v>999</v>
       </c>
       <c r="F211" s="2">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H211" s="2">
         <v>1000</v>
@@ -7179,10 +7254,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>106210</v>
+        <v>106205</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -7194,10 +7269,10 @@
         <v>999</v>
       </c>
       <c r="F212" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H212" s="2">
         <v>1000</v>
@@ -7205,10 +7280,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>106211</v>
+        <v>106206</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
@@ -7220,10 +7295,10 @@
         <v>999</v>
       </c>
       <c r="F213" s="2">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H213" s="2">
         <v>1000</v>
@@ -7231,10 +7306,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>106212</v>
+        <v>106207</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
@@ -7246,10 +7321,10 @@
         <v>999</v>
       </c>
       <c r="F214" s="2">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H214" s="2">
         <v>1000</v>
@@ -7257,10 +7332,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>106213</v>
+        <v>106208</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
@@ -7272,10 +7347,10 @@
         <v>999</v>
       </c>
       <c r="F215" s="2">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H215" s="2">
         <v>1000</v>
@@ -7283,10 +7358,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>106214</v>
+        <v>106209</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>10</v>
@@ -7298,10 +7373,10 @@
         <v>999</v>
       </c>
       <c r="F216" s="2">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H216" s="2">
         <v>1000</v>
@@ -7309,10 +7384,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>106215</v>
+        <v>106210</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>10</v>
@@ -7324,10 +7399,10 @@
         <v>999</v>
       </c>
       <c r="F217" s="2">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H217" s="2">
         <v>1000</v>
@@ -7335,10 +7410,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>106216</v>
+        <v>106211</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
@@ -7350,10 +7425,10 @@
         <v>999</v>
       </c>
       <c r="F218" s="2">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H218" s="2">
         <v>1000</v>
@@ -7361,10 +7436,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>106301</v>
+        <v>106212</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
@@ -7376,10 +7451,10 @@
         <v>999</v>
       </c>
       <c r="F219" s="2">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H219" s="2">
         <v>1000</v>
@@ -7387,10 +7462,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>106302</v>
+        <v>106213</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>10</v>
@@ -7402,10 +7477,10 @@
         <v>999</v>
       </c>
       <c r="F220" s="2">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H220" s="2">
         <v>1000</v>
@@ -7413,10 +7488,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>106303</v>
+        <v>106214</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>10</v>
@@ -7428,10 +7503,10 @@
         <v>999</v>
       </c>
       <c r="F221" s="2">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H221" s="2">
         <v>1000</v>
@@ -7439,10 +7514,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>106304</v>
+        <v>106215</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
@@ -7454,10 +7529,10 @@
         <v>999</v>
       </c>
       <c r="F222" s="2">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H222" s="2">
         <v>1000</v>
@@ -7465,10 +7540,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>106305</v>
+        <v>106216</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
@@ -7480,10 +7555,10 @@
         <v>999</v>
       </c>
       <c r="F223" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H223" s="2">
         <v>1000</v>
@@ -7491,10 +7566,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>106306</v>
+        <v>106301</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
@@ -7506,10 +7581,10 @@
         <v>999</v>
       </c>
       <c r="F224" s="2">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H224" s="2">
         <v>1000</v>
@@ -7517,10 +7592,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>106307</v>
+        <v>106302</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>10</v>
@@ -7532,10 +7607,10 @@
         <v>999</v>
       </c>
       <c r="F225" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H225" s="2">
         <v>1000</v>
@@ -7543,10 +7618,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>106308</v>
+        <v>106303</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>10</v>
@@ -7558,10 +7633,10 @@
         <v>999</v>
       </c>
       <c r="F226" s="2">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H226" s="2">
         <v>1000</v>
@@ -7569,10 +7644,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>106309</v>
+        <v>106304</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
@@ -7584,10 +7659,10 @@
         <v>999</v>
       </c>
       <c r="F227" s="2">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H227" s="2">
         <v>1000</v>
@@ -7595,10 +7670,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>106310</v>
+        <v>106305</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>10</v>
@@ -7610,10 +7685,10 @@
         <v>999</v>
       </c>
       <c r="F228" s="2">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H228" s="2">
         <v>1000</v>
@@ -7621,10 +7696,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>106311</v>
+        <v>106306</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
@@ -7636,10 +7711,10 @@
         <v>999</v>
       </c>
       <c r="F229" s="2">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H229" s="2">
         <v>1000</v>
@@ -7647,10 +7722,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>106312</v>
+        <v>106307</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>10</v>
@@ -7662,10 +7737,10 @@
         <v>999</v>
       </c>
       <c r="F230" s="2">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H230" s="2">
         <v>1000</v>
@@ -7673,10 +7748,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>106313</v>
+        <v>106308</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>10</v>
@@ -7688,10 +7763,10 @@
         <v>999</v>
       </c>
       <c r="F231" s="2">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H231" s="2">
         <v>1000</v>
@@ -7699,10 +7774,10 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>106401</v>
+        <v>106309</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>10</v>
@@ -7714,10 +7789,10 @@
         <v>999</v>
       </c>
       <c r="F232" s="2">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="H232" s="2">
         <v>1000</v>
@@ -7725,10 +7800,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>106402</v>
+        <v>106310</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
@@ -7740,10 +7815,10 @@
         <v>999</v>
       </c>
       <c r="F233" s="2">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="H233" s="2">
         <v>1000</v>
@@ -7751,10 +7826,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>106403</v>
+        <v>106311</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
@@ -7766,10 +7841,10 @@
         <v>999</v>
       </c>
       <c r="F234" s="2">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H234" s="2">
         <v>1000</v>
@@ -7777,10 +7852,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>106404</v>
+        <v>106312</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>10</v>
@@ -7792,10 +7867,10 @@
         <v>999</v>
       </c>
       <c r="F235" s="2">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="H235" s="2">
         <v>1000</v>
@@ -7803,10 +7878,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>106405</v>
+        <v>106313</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
@@ -7818,10 +7893,10 @@
         <v>999</v>
       </c>
       <c r="F236" s="2">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="H236" s="2">
         <v>1000</v>
@@ -7829,10 +7904,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>106406</v>
+        <v>106401</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
@@ -7844,10 +7919,10 @@
         <v>999</v>
       </c>
       <c r="F237" s="2">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H237" s="2">
         <v>1000</v>
@@ -7855,10 +7930,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>106407</v>
+        <v>106402</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
@@ -7870,10 +7945,10 @@
         <v>999</v>
       </c>
       <c r="F238" s="2">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H238" s="2">
         <v>1000</v>
@@ -7881,10 +7956,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>106408</v>
+        <v>106403</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>10</v>
@@ -7896,10 +7971,10 @@
         <v>999</v>
       </c>
       <c r="F239" s="2">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H239" s="2">
         <v>1000</v>
@@ -7907,10 +7982,10 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>106409</v>
+        <v>106404</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
@@ -7922,10 +7997,10 @@
         <v>999</v>
       </c>
       <c r="F240" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H240" s="2">
         <v>1000</v>
@@ -7933,10 +8008,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>106501</v>
+        <v>106405</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
@@ -7948,10 +8023,10 @@
         <v>999</v>
       </c>
       <c r="F241" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="H241" s="2">
         <v>1000</v>
@@ -7959,10 +8034,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>106502</v>
+        <v>106406</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>10</v>
@@ -7974,10 +8049,10 @@
         <v>999</v>
       </c>
       <c r="F242" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H242" s="2">
         <v>1000</v>
@@ -7985,10 +8060,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>106503</v>
+        <v>106407</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>10</v>
@@ -8000,10 +8075,10 @@
         <v>999</v>
       </c>
       <c r="F243" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H243" s="2">
         <v>1000</v>
@@ -8011,10 +8086,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>106504</v>
+        <v>106408</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
@@ -8026,10 +8101,10 @@
         <v>999</v>
       </c>
       <c r="F244" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="H244" s="2">
         <v>1000</v>
@@ -8037,10 +8112,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>106505</v>
+        <v>106409</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
@@ -8052,10 +8127,10 @@
         <v>999</v>
       </c>
       <c r="F245" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="H245" s="2">
         <v>1000</v>
@@ -8063,10 +8138,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>106506</v>
+        <v>106501</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>10</v>
@@ -8078,10 +8153,10 @@
         <v>999</v>
       </c>
       <c r="F246" s="2">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H246" s="2">
         <v>1000</v>
@@ -8089,10 +8164,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>106507</v>
+        <v>106502</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>10</v>
@@ -8104,10 +8179,10 @@
         <v>999</v>
       </c>
       <c r="F247" s="2">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H247" s="2">
         <v>1000</v>
@@ -8115,10 +8190,10 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>106508</v>
+        <v>106503</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
@@ -8130,10 +8205,10 @@
         <v>999</v>
       </c>
       <c r="F248" s="2">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H248" s="2">
         <v>1000</v>
@@ -8141,10 +8216,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>106509</v>
+        <v>106504</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
@@ -8156,10 +8231,10 @@
         <v>999</v>
       </c>
       <c r="F249" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H249" s="2">
         <v>1000</v>
@@ -8167,10 +8242,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>106510</v>
+        <v>106505</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
@@ -8182,10 +8257,10 @@
         <v>999</v>
       </c>
       <c r="F250" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H250" s="2">
         <v>1000</v>
@@ -8193,10 +8268,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>106511</v>
+        <v>106506</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
@@ -8208,22 +8283,152 @@
         <v>999</v>
       </c>
       <c r="F251" s="2">
+        <v>765</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H251" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>106507</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E252" s="2">
+        <v>999</v>
+      </c>
+      <c r="F252" s="2">
+        <v>766</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H252" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>106508</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E253" s="2">
+        <v>999</v>
+      </c>
+      <c r="F253" s="2">
+        <v>767</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H253" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>106509</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E254" s="2">
+        <v>999</v>
+      </c>
+      <c r="F254" s="2">
+        <v>768</v>
+      </c>
+      <c r="G254" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H254" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>106510</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E255" s="2">
+        <v>999</v>
+      </c>
+      <c r="F255" s="2">
+        <v>769</v>
+      </c>
+      <c r="G255" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H255" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>106511</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E256" s="2">
+        <v>999</v>
+      </c>
+      <c r="F256" s="2">
         <v>770</v>
       </c>
-      <c r="G251" s="2" t="s">
+      <c r="G256" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H251" s="2">
+      <c r="H256" s="2">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C251">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C256">
       <formula1>"装备,消耗品,宝石,礼包,材料,球员碎片"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D375">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D380">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xls/itemsConfig.xlsx
+++ b/xls/itemsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="4665" yWindow="390" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="@道具索引表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="451">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isTogether[][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否堆叠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1358,6 +1354,66 @@
   </si>
   <si>
     <t>12500经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTogether[$][funcInt]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装传承书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时装传承用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小亲密丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中亲密丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大亲密丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加1点好感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加3点好感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加5点好感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲密附魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加2点好感度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1445,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -1430,13 +1485,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1446,6 +1498,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1752,10 +1831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H256"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1765,7 +1844,7 @@
     <col min="3" max="3" width="22.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.375" style="2" customWidth="1"/>
@@ -1777,19 +1856,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>436</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1803,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1823,22 +1902,22 @@
         <v>101001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="9">
         <v>926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H3" s="2">
         <v>300</v>
@@ -1849,22 +1928,22 @@
         <v>101002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="9">
         <v>927</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" s="2">
         <v>300</v>
@@ -1875,22 +1954,22 @@
         <v>101003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
         <v>928</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H5" s="2">
         <v>300</v>
@@ -1901,22 +1980,22 @@
         <v>101004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="9">
         <v>929</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="2">
         <v>300</v>
@@ -1927,22 +2006,22 @@
         <v>101005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="9">
         <v>930</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H7" s="2">
         <v>300</v>
@@ -1953,22 +2032,22 @@
         <v>101101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
         <v>921</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="2">
         <v>1600</v>
@@ -1979,22 +2058,22 @@
         <v>101102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="9">
         <v>922</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H9" s="2">
         <v>1600</v>
@@ -2005,22 +2084,22 @@
         <v>101103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="9">
         <v>923</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="2">
         <v>1600</v>
@@ -2031,22 +2110,22 @@
         <v>101104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
         <v>924</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2">
         <v>1600</v>
@@ -2057,22 +2136,22 @@
         <v>101105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
         <v>925</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="2">
         <v>1600</v>
@@ -2083,22 +2162,22 @@
         <v>101201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
         <v>916</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2">
         <v>6500</v>
@@ -2109,22 +2188,22 @@
         <v>101202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
         <v>917</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H14" s="2">
         <v>6500</v>
@@ -2135,22 +2214,22 @@
         <v>101203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
         <v>918</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H15" s="2">
         <v>6500</v>
@@ -2161,22 +2240,22 @@
         <v>101204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="9">
         <v>919</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H16" s="2">
         <v>6500</v>
@@ -2187,22 +2266,22 @@
         <v>101205</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="9">
         <v>920</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H17" s="2">
         <v>6500</v>
@@ -2213,22 +2292,22 @@
         <v>101301</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="9">
         <v>911</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H18" s="2">
         <v>67000</v>
@@ -2239,22 +2318,22 @@
         <v>101302</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
         <v>912</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H19" s="2">
         <v>67000</v>
@@ -2265,22 +2344,22 @@
         <v>101303</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
         <v>913</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="2">
         <v>67000</v>
@@ -2291,22 +2370,22 @@
         <v>101304</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="9">
         <v>914</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21" s="2">
         <v>67000</v>
@@ -2317,22 +2396,22 @@
         <v>101305</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>22</v>
+      <c r="D22" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
         <v>915</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="2">
         <v>67000</v>
@@ -2343,22 +2422,22 @@
         <v>101401</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="9">
         <v>906</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H23" s="2">
         <v>67000</v>
@@ -2369,22 +2448,22 @@
         <v>101402</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="9">
         <v>907</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H24" s="2">
         <v>67000</v>
@@ -2395,22 +2474,22 @@
         <v>101403</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
         <v>908</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H25" s="2">
         <v>67000</v>
@@ -2421,22 +2500,22 @@
         <v>101404</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
         <v>909</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" s="2">
         <v>67000</v>
@@ -2447,22 +2526,22 @@
         <v>101405</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="9">
         <v>910</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H27" s="2">
         <v>67000</v>
@@ -2473,22 +2552,22 @@
         <v>101501</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="9">
         <v>901</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H28" s="2">
         <v>67000</v>
@@ -2499,22 +2578,22 @@
         <v>101502</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="9">
         <v>902</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H29" s="2">
         <v>67000</v>
@@ -2525,22 +2604,22 @@
         <v>101503</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="9">
         <v>903</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H30" s="2">
         <v>67000</v>
@@ -2551,22 +2630,22 @@
         <v>101504</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="9">
         <v>904</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H31" s="2">
         <v>67000</v>
@@ -2577,22 +2656,22 @@
         <v>101505</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="9">
         <v>905</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H32" s="2">
         <v>67000</v>
@@ -2603,22 +2682,22 @@
         <v>102001</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="2">
         <v>999</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="7">
         <v>103</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2">
         <v>1000</v>
@@ -2629,22 +2708,22 @@
         <v>102002</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2">
+        <v>999</v>
+      </c>
+      <c r="F34" s="7">
+        <v>101</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="2">
-        <v>999</v>
-      </c>
-      <c r="F34" s="3">
-        <v>101</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H34" s="2">
         <v>1000</v>
@@ -2655,22 +2734,22 @@
         <v>102003</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="2">
+        <v>999</v>
+      </c>
+      <c r="F35" s="7">
+        <v>102</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="2">
-        <v>999</v>
-      </c>
-      <c r="F35" s="3">
-        <v>102</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="H35" s="2">
         <v>1000</v>
@@ -2681,22 +2760,22 @@
         <v>102004</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="2">
         <v>999</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="7">
         <v>110</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" s="2">
         <v>1000</v>
@@ -2707,22 +2786,22 @@
         <v>102005</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="2">
+        <v>999</v>
+      </c>
+      <c r="F37" s="7">
+        <v>104</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="2">
-        <v>999</v>
-      </c>
-      <c r="F37" s="3">
-        <v>104</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H37" s="2">
         <v>1000</v>
@@ -2733,22 +2812,22 @@
         <v>102006</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="2">
+        <v>999</v>
+      </c>
+      <c r="F38" s="7">
+        <v>105</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="2">
-        <v>999</v>
-      </c>
-      <c r="F38" s="3">
-        <v>105</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H38" s="2">
         <v>1000</v>
@@ -2759,22 +2838,22 @@
         <v>102007</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E39" s="2">
         <v>999</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>108</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H39" s="2">
         <v>1000</v>
@@ -2785,22 +2864,22 @@
         <v>102008</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E40" s="2">
         <v>999</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>109</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="2">
         <v>1000</v>
@@ -2811,22 +2890,22 @@
         <v>102009</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E41" s="2">
         <v>999</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="7">
         <v>111</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H41" s="2">
         <v>1000</v>
@@ -2837,22 +2916,22 @@
         <v>102010</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E42" s="2">
         <v>999</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="7">
         <v>112</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="2">
         <v>1000</v>
@@ -2863,22 +2942,22 @@
         <v>102011</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2">
         <v>999</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="7">
         <v>113</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H43" s="2">
         <v>1000</v>
@@ -2889,22 +2968,22 @@
         <v>102012</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2">
         <v>999</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="7">
         <v>114</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H44" s="2">
         <v>1000</v>
@@ -2915,22 +2994,22 @@
         <v>102013</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E45" s="2">
         <v>999</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="7">
         <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H45" s="2">
         <v>1000</v>
@@ -2941,22 +3020,22 @@
         <v>102014</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46" s="2">
         <v>999</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="7">
         <v>116</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H46" s="2">
         <v>1000</v>
@@ -2967,22 +3046,22 @@
         <v>102015</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47" s="2">
         <v>999</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="7">
         <v>117</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H47" s="2">
         <v>1000</v>
@@ -2993,22 +3072,22 @@
         <v>102016</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E48" s="2">
         <v>999</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="7">
         <v>118</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H48" s="2">
         <v>1000</v>
@@ -3019,22 +3098,22 @@
         <v>102017</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2">
+        <v>999</v>
+      </c>
+      <c r="F49" s="7">
+        <v>119</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="2">
-        <v>999</v>
-      </c>
-      <c r="F49" s="3">
-        <v>119</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H49" s="2">
         <v>1000</v>
@@ -3045,22 +3124,22 @@
         <v>102018</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2">
         <v>999</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="7">
         <v>120</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H50" s="2">
         <v>1000</v>
@@ -3071,22 +3150,22 @@
         <v>102019</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E51" s="2">
         <v>999</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="7">
         <v>121</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H51" s="2">
         <v>1000</v>
@@ -3097,22 +3176,22 @@
         <v>102020</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E52" s="2">
         <v>999</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="7">
         <v>122</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H52" s="2">
         <v>1000</v>
@@ -3123,22 +3202,22 @@
         <v>102021</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="2">
+        <v>999</v>
+      </c>
+      <c r="F53" s="7">
+        <v>123</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="2">
-        <v>999</v>
-      </c>
-      <c r="F53" s="3">
-        <v>123</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="H53" s="2">
         <v>1000</v>
@@ -3149,22 +3228,22 @@
         <v>102022</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2">
         <v>999</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="7">
         <v>124</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H54" s="2">
         <v>1000</v>
@@ -3175,22 +3254,22 @@
         <v>102023</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="2">
+        <v>999</v>
+      </c>
+      <c r="F55" s="7">
+        <v>125</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="2">
-        <v>999</v>
-      </c>
-      <c r="F55" s="3">
-        <v>125</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="H55" s="2">
         <v>1000</v>
@@ -3201,22 +3280,22 @@
         <v>102024</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="2">
+        <v>999</v>
+      </c>
+      <c r="F56" s="7">
+        <v>126</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="2">
-        <v>999</v>
-      </c>
-      <c r="F56" s="3">
-        <v>126</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="H56" s="2">
         <v>1000</v>
@@ -3227,22 +3306,22 @@
         <v>102025</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="2">
+        <v>999</v>
+      </c>
+      <c r="F57" s="7">
+        <v>127</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="2">
-        <v>999</v>
-      </c>
-      <c r="F57" s="3">
-        <v>127</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H57" s="2">
         <v>1000</v>
@@ -3253,22 +3332,22 @@
         <v>102026</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E58" s="2">
         <v>999</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="7">
         <v>128</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H58" s="2">
         <v>1000</v>
@@ -3279,22 +3358,22 @@
         <v>102027</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C59" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E59" s="2">
         <v>999</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="7">
         <v>129</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H59" s="2">
         <v>1000</v>
@@ -3305,22 +3384,22 @@
         <v>102028</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C60" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E60" s="2">
         <v>999</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="7">
         <v>130</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H60" s="2">
         <v>1000</v>
@@ -3331,22 +3410,22 @@
         <v>102029</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E61" s="2">
         <v>999</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="7">
         <v>131</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H61" s="2">
         <v>5000</v>
@@ -3357,230 +3436,230 @@
         <v>102030</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C62" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" s="2">
         <v>999</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="7">
         <v>132</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H62" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5">
+    <row r="63" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>102031</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="4">
+        <v>999</v>
+      </c>
+      <c r="F63" s="8">
+        <v>106</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H63" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>102032</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="4">
+        <v>999</v>
+      </c>
+      <c r="F64" s="8">
+        <v>107</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="H64" s="4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>102033</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="5">
-        <v>999</v>
-      </c>
-      <c r="F63" s="6">
-        <v>106</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H63" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
-        <v>102032</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="5">
-        <v>999</v>
-      </c>
-      <c r="F64" s="6">
-        <v>107</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="H64" s="5">
+      <c r="D65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="4">
+        <v>999</v>
+      </c>
+      <c r="F65" s="11">
+        <v>133</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="H65" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>103001</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="2">
-        <v>999</v>
-      </c>
-      <c r="F65" s="2">
-        <v>801</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>103002</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="2">
-        <v>999</v>
-      </c>
-      <c r="F66" s="2">
-        <v>802</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H66" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>103003</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="2">
-        <v>999</v>
-      </c>
-      <c r="F67" s="2">
-        <v>803</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H67" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>103004</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="2">
-        <v>999</v>
-      </c>
-      <c r="F68" s="2">
-        <v>804</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H68" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>103005</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="2">
-        <v>999</v>
-      </c>
-      <c r="F69" s="2">
-        <v>805</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="H69" s="2">
-        <v>1000</v>
+    <row r="66" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>102034</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="4">
+        <v>999</v>
+      </c>
+      <c r="F66" s="11">
+        <v>134</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>102035</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="4">
+        <v>999</v>
+      </c>
+      <c r="F67" s="11">
+        <v>135</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="H67" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>102036</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="4">
+        <v>999</v>
+      </c>
+      <c r="F68" s="11">
+        <v>136</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="H68" s="13">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>102037</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="4">
+        <v>999</v>
+      </c>
+      <c r="F69" s="11">
+        <v>137</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H69" s="13">
+        <v>2000</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>103006</v>
+        <v>103001</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E70" s="2">
         <v>999</v>
       </c>
-      <c r="F70" s="2">
-        <v>806</v>
+      <c r="F70" s="9">
+        <v>801</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H70" s="2">
         <v>1000</v>
@@ -3588,25 +3667,25 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>103007</v>
+        <v>103002</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E71" s="2">
         <v>999</v>
       </c>
-      <c r="F71" s="2">
-        <v>807</v>
+      <c r="F71" s="9">
+        <v>802</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H71" s="2">
         <v>1000</v>
@@ -3614,25 +3693,25 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>103008</v>
+        <v>103003</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>23</v>
+        <v>112</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E72" s="2">
         <v>999</v>
       </c>
-      <c r="F72" s="2">
-        <v>808</v>
+      <c r="F72" s="9">
+        <v>803</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H72" s="2">
         <v>1000</v>
@@ -3640,25 +3719,25 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>103009</v>
+        <v>103004</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E73" s="2">
         <v>999</v>
       </c>
-      <c r="F73" s="2">
-        <v>809</v>
+      <c r="F73" s="9">
+        <v>804</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H73" s="2">
         <v>1000</v>
@@ -3666,25 +3745,25 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>103101</v>
+        <v>103005</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>23</v>
+        <v>114</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E74" s="2">
         <v>999</v>
       </c>
-      <c r="F74" s="2">
-        <v>810</v>
+      <c r="F74" s="9">
+        <v>805</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H74" s="2">
         <v>1000</v>
@@ -3692,25 +3771,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>103102</v>
+        <v>103006</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>23</v>
+        <v>115</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E75" s="2">
         <v>999</v>
       </c>
-      <c r="F75" s="2">
-        <v>811</v>
+      <c r="F75" s="9">
+        <v>806</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H75" s="2">
         <v>1000</v>
@@ -3718,25 +3797,25 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>103103</v>
+        <v>103007</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>23</v>
+        <v>116</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E76" s="2">
         <v>999</v>
       </c>
-      <c r="F76" s="2">
-        <v>812</v>
+      <c r="F76" s="9">
+        <v>807</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H76" s="2">
         <v>1000</v>
@@ -3744,25 +3823,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>103104</v>
+        <v>103008</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>23</v>
+        <v>117</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E77" s="2">
         <v>999</v>
       </c>
-      <c r="F77" s="2">
-        <v>813</v>
+      <c r="F77" s="9">
+        <v>808</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H77" s="2">
         <v>1000</v>
@@ -3770,25 +3849,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>103105</v>
+        <v>103009</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E78" s="2">
         <v>999</v>
       </c>
-      <c r="F78" s="2">
-        <v>814</v>
+      <c r="F78" s="9">
+        <v>809</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H78" s="2">
         <v>1000</v>
@@ -3796,25 +3875,25 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>103106</v>
+        <v>103101</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>23</v>
+        <v>119</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E79" s="2">
         <v>999</v>
       </c>
-      <c r="F79" s="2">
-        <v>815</v>
+      <c r="F79" s="9">
+        <v>810</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H79" s="2">
         <v>1000</v>
@@ -3822,25 +3901,25 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>103107</v>
+        <v>103102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>23</v>
+        <v>120</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E80" s="2">
         <v>999</v>
       </c>
-      <c r="F80" s="2">
-        <v>816</v>
+      <c r="F80" s="9">
+        <v>811</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H80" s="2">
         <v>1000</v>
@@ -3848,25 +3927,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>103108</v>
+        <v>103103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>23</v>
+        <v>121</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E81" s="2">
         <v>999</v>
       </c>
-      <c r="F81" s="2">
-        <v>817</v>
+      <c r="F81" s="9">
+        <v>812</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H81" s="2">
         <v>1000</v>
@@ -3874,25 +3953,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>103109</v>
+        <v>103104</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E82" s="2">
         <v>999</v>
       </c>
-      <c r="F82" s="2">
-        <v>818</v>
+      <c r="F82" s="9">
+        <v>813</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H82" s="2">
         <v>1000</v>
@@ -3900,25 +3979,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>103201</v>
+        <v>103105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>23</v>
+        <v>123</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E83" s="2">
         <v>999</v>
       </c>
-      <c r="F83" s="2">
-        <v>819</v>
+      <c r="F83" s="9">
+        <v>814</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H83" s="2">
         <v>1000</v>
@@ -3926,25 +4005,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>103202</v>
+        <v>103106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>23</v>
+        <v>124</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E84" s="2">
         <v>999</v>
       </c>
-      <c r="F84" s="2">
-        <v>820</v>
+      <c r="F84" s="9">
+        <v>815</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H84" s="2">
         <v>1000</v>
@@ -3952,25 +4031,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>103203</v>
+        <v>103107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>23</v>
+        <v>125</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E85" s="2">
         <v>999</v>
       </c>
-      <c r="F85" s="2">
-        <v>821</v>
+      <c r="F85" s="9">
+        <v>816</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H85" s="2">
         <v>1000</v>
@@ -3978,25 +4057,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>103204</v>
+        <v>103108</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C86" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E86" s="2">
         <v>999</v>
       </c>
-      <c r="F86" s="2">
-        <v>822</v>
+      <c r="F86" s="9">
+        <v>817</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H86" s="2">
         <v>1000</v>
@@ -4004,25 +4083,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>103205</v>
+        <v>103109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E87" s="2">
         <v>999</v>
       </c>
-      <c r="F87" s="2">
-        <v>823</v>
+      <c r="F87" s="9">
+        <v>818</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H87" s="2">
         <v>1000</v>
@@ -4030,25 +4109,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>103206</v>
+        <v>103201</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E88" s="2">
         <v>999</v>
       </c>
-      <c r="F88" s="2">
-        <v>824</v>
+      <c r="F88" s="9">
+        <v>819</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H88" s="2">
         <v>1000</v>
@@ -4056,25 +4135,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>103207</v>
+        <v>103202</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E89" s="2">
         <v>999</v>
       </c>
-      <c r="F89" s="2">
-        <v>825</v>
+      <c r="F89" s="9">
+        <v>820</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H89" s="2">
         <v>1000</v>
@@ -4082,25 +4161,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>103208</v>
+        <v>103203</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" s="2">
         <v>999</v>
       </c>
-      <c r="F90" s="2">
-        <v>826</v>
+      <c r="F90" s="9">
+        <v>821</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="H90" s="2">
         <v>1000</v>
@@ -4108,25 +4187,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>103209</v>
+        <v>103204</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E91" s="2">
         <v>999</v>
       </c>
-      <c r="F91" s="2">
-        <v>827</v>
+      <c r="F91" s="9">
+        <v>822</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H91" s="2">
         <v>1000</v>
@@ -4134,25 +4213,25 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>103301</v>
+        <v>103205</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E92" s="2">
         <v>999</v>
       </c>
-      <c r="F92" s="2">
-        <v>828</v>
+      <c r="F92" s="9">
+        <v>823</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H92" s="2">
         <v>1000</v>
@@ -4160,25 +4239,25 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>103302</v>
+        <v>103206</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E93" s="2">
         <v>999</v>
       </c>
-      <c r="F93" s="2">
-        <v>829</v>
+      <c r="F93" s="9">
+        <v>824</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H93" s="2">
         <v>1000</v>
@@ -4186,25 +4265,25 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>103303</v>
+        <v>103207</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2">
         <v>999</v>
       </c>
-      <c r="F94" s="2">
-        <v>830</v>
+      <c r="F94" s="9">
+        <v>825</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H94" s="2">
         <v>1000</v>
@@ -4212,25 +4291,25 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>103304</v>
+        <v>103208</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E95" s="2">
         <v>999</v>
       </c>
-      <c r="F95" s="2">
-        <v>831</v>
+      <c r="F95" s="9">
+        <v>826</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H95" s="2">
         <v>1000</v>
@@ -4238,25 +4317,25 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>103305</v>
+        <v>103209</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E96" s="2">
         <v>999</v>
       </c>
-      <c r="F96" s="2">
-        <v>832</v>
+      <c r="F96" s="9">
+        <v>827</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H96" s="2">
         <v>1000</v>
@@ -4264,25 +4343,25 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>103306</v>
+        <v>103301</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E97" s="2">
         <v>999</v>
       </c>
-      <c r="F97" s="2">
-        <v>833</v>
+      <c r="F97" s="9">
+        <v>828</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H97" s="2">
         <v>1000</v>
@@ -4290,25 +4369,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>103307</v>
+        <v>103302</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E98" s="2">
         <v>999</v>
       </c>
-      <c r="F98" s="2">
-        <v>834</v>
+      <c r="F98" s="9">
+        <v>829</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H98" s="2">
         <v>1000</v>
@@ -4316,25 +4395,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>103308</v>
+        <v>103303</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E99" s="2">
         <v>999</v>
       </c>
-      <c r="F99" s="2">
-        <v>835</v>
+      <c r="F99" s="9">
+        <v>830</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H99" s="2">
         <v>1000</v>
@@ -4342,25 +4421,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>103309</v>
+        <v>103304</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E100" s="2">
         <v>999</v>
       </c>
-      <c r="F100" s="2">
-        <v>836</v>
+      <c r="F100" s="9">
+        <v>831</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H100" s="2">
         <v>1000</v>
@@ -4368,25 +4447,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>103401</v>
+        <v>103305</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E101" s="2">
         <v>999</v>
       </c>
-      <c r="F101" s="2">
-        <v>837</v>
+      <c r="F101" s="9">
+        <v>832</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H101" s="2">
         <v>1000</v>
@@ -4394,25 +4473,25 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>103402</v>
+        <v>103306</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E102" s="2">
         <v>999</v>
       </c>
-      <c r="F102" s="2">
-        <v>838</v>
+      <c r="F102" s="9">
+        <v>833</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H102" s="2">
         <v>1000</v>
@@ -4420,25 +4499,25 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>103403</v>
+        <v>103307</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="2">
         <v>999</v>
       </c>
-      <c r="F103" s="2">
-        <v>839</v>
+      <c r="F103" s="9">
+        <v>834</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H103" s="2">
         <v>1000</v>
@@ -4446,25 +4525,25 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>103404</v>
+        <v>103308</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" s="2">
         <v>999</v>
       </c>
-      <c r="F104" s="2">
-        <v>840</v>
+      <c r="F104" s="9">
+        <v>835</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H104" s="2">
         <v>1000</v>
@@ -4472,25 +4551,25 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>103405</v>
+        <v>103309</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E105" s="2">
         <v>999</v>
       </c>
-      <c r="F105" s="2">
-        <v>841</v>
+      <c r="F105" s="9">
+        <v>836</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H105" s="2">
         <v>1000</v>
@@ -4498,25 +4577,25 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>103406</v>
+        <v>103401</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106" s="2">
         <v>999</v>
       </c>
-      <c r="F106" s="2">
-        <v>842</v>
+      <c r="F106" s="9">
+        <v>837</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H106" s="2">
         <v>1000</v>
@@ -4524,25 +4603,25 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>103407</v>
+        <v>103402</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E107" s="2">
         <v>999</v>
       </c>
-      <c r="F107" s="2">
-        <v>843</v>
+      <c r="F107" s="9">
+        <v>838</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H107" s="2">
         <v>1000</v>
@@ -4550,25 +4629,25 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>103408</v>
+        <v>103403</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E108" s="2">
         <v>999</v>
       </c>
-      <c r="F108" s="2">
-        <v>844</v>
+      <c r="F108" s="9">
+        <v>839</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H108" s="2">
         <v>1000</v>
@@ -4576,25 +4655,25 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>103409</v>
+        <v>103404</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E109" s="2">
         <v>999</v>
       </c>
-      <c r="F109" s="2">
-        <v>845</v>
+      <c r="F109" s="9">
+        <v>840</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="H109" s="2">
         <v>1000</v>
@@ -4602,25 +4681,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>103501</v>
+        <v>103405</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E110" s="2">
         <v>999</v>
       </c>
-      <c r="F110" s="2">
-        <v>846</v>
+      <c r="F110" s="9">
+        <v>841</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H110" s="2">
         <v>1000</v>
@@ -4628,25 +4707,25 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>103502</v>
+        <v>103406</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E111" s="2">
         <v>999</v>
       </c>
-      <c r="F111" s="2">
-        <v>847</v>
+      <c r="F111" s="9">
+        <v>842</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H111" s="2">
         <v>1000</v>
@@ -4654,25 +4733,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>103503</v>
+        <v>103407</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E112" s="2">
         <v>999</v>
       </c>
-      <c r="F112" s="2">
-        <v>848</v>
+      <c r="F112" s="9">
+        <v>843</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="H112" s="2">
         <v>1000</v>
@@ -4680,25 +4759,25 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>103504</v>
+        <v>103408</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" s="2">
         <v>999</v>
       </c>
-      <c r="F113" s="2">
-        <v>849</v>
+      <c r="F113" s="9">
+        <v>844</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H113" s="2">
         <v>1000</v>
@@ -4706,25 +4785,25 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>103505</v>
+        <v>103409</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" s="2">
         <v>999</v>
       </c>
-      <c r="F114" s="2">
-        <v>850</v>
+      <c r="F114" s="9">
+        <v>845</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H114" s="2">
         <v>1000</v>
@@ -4732,25 +4811,25 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>103506</v>
+        <v>103501</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E115" s="2">
         <v>999</v>
       </c>
-      <c r="F115" s="2">
-        <v>851</v>
+      <c r="F115" s="9">
+        <v>846</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H115" s="2">
         <v>1000</v>
@@ -4758,25 +4837,25 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>103507</v>
+        <v>103502</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E116" s="2">
         <v>999</v>
       </c>
-      <c r="F116" s="2">
-        <v>852</v>
+      <c r="F116" s="9">
+        <v>847</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H116" s="2">
         <v>1000</v>
@@ -4784,25 +4863,25 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>103508</v>
+        <v>103503</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E117" s="2">
         <v>999</v>
       </c>
-      <c r="F117" s="2">
-        <v>853</v>
+      <c r="F117" s="9">
+        <v>848</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H117" s="2">
         <v>1000</v>
@@ -4810,25 +4889,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>103509</v>
+        <v>103504</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E118" s="2">
         <v>999</v>
       </c>
-      <c r="F118" s="2">
-        <v>854</v>
+      <c r="F118" s="9">
+        <v>849</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H118" s="2">
         <v>1000</v>
@@ -4836,25 +4915,25 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>103601</v>
+        <v>103505</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2">
         <v>999</v>
       </c>
-      <c r="F119" s="2">
-        <v>855</v>
+      <c r="F119" s="9">
+        <v>850</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H119" s="2">
         <v>1000</v>
@@ -4862,25 +4941,25 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>103602</v>
+        <v>103506</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2">
         <v>999</v>
       </c>
-      <c r="F120" s="2">
-        <v>856</v>
+      <c r="F120" s="9">
+        <v>851</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H120" s="2">
         <v>1000</v>
@@ -4888,25 +4967,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>103603</v>
+        <v>103507</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E121" s="2">
         <v>999</v>
       </c>
-      <c r="F121" s="2">
-        <v>857</v>
+      <c r="F121" s="9">
+        <v>852</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="H121" s="2">
         <v>1000</v>
@@ -4914,25 +4993,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>103604</v>
+        <v>103508</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E122" s="2">
         <v>999</v>
       </c>
-      <c r="F122" s="2">
-        <v>858</v>
+      <c r="F122" s="9">
+        <v>853</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H122" s="2">
         <v>1000</v>
@@ -4940,25 +5019,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>103605</v>
+        <v>103509</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E123" s="2">
         <v>999</v>
       </c>
-      <c r="F123" s="2">
-        <v>859</v>
+      <c r="F123" s="9">
+        <v>854</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="H123" s="2">
         <v>1000</v>
@@ -4966,25 +5045,25 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>103606</v>
+        <v>103601</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E124" s="2">
         <v>999</v>
       </c>
-      <c r="F124" s="2">
-        <v>860</v>
+      <c r="F124" s="9">
+        <v>855</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H124" s="2">
         <v>1000</v>
@@ -4992,25 +5071,25 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>103607</v>
+        <v>103602</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E125" s="2">
         <v>999</v>
       </c>
-      <c r="F125" s="2">
-        <v>861</v>
+      <c r="F125" s="9">
+        <v>856</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="H125" s="2">
         <v>1000</v>
@@ -5018,25 +5097,25 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>103608</v>
+        <v>103603</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E126" s="2">
         <v>999</v>
       </c>
-      <c r="F126" s="2">
-        <v>862</v>
+      <c r="F126" s="9">
+        <v>857</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H126" s="2">
         <v>1000</v>
@@ -5044,25 +5123,25 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>103609</v>
+        <v>103604</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E127" s="2">
         <v>999</v>
       </c>
-      <c r="F127" s="2">
-        <v>863</v>
+      <c r="F127" s="9">
+        <v>858</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H127" s="2">
         <v>1000</v>
@@ -5070,25 +5149,25 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>103701</v>
+        <v>103605</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E128" s="2">
         <v>999</v>
       </c>
-      <c r="F128" s="2">
-        <v>864</v>
+      <c r="F128" s="9">
+        <v>859</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H128" s="2">
         <v>1000</v>
@@ -5096,25 +5175,25 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>103702</v>
+        <v>103606</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E129" s="2">
         <v>999</v>
       </c>
-      <c r="F129" s="2">
-        <v>865</v>
+      <c r="F129" s="9">
+        <v>860</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H129" s="2">
         <v>1000</v>
@@ -5122,25 +5201,25 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>103703</v>
+        <v>103607</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E130" s="2">
         <v>999</v>
       </c>
-      <c r="F130" s="2">
-        <v>866</v>
+      <c r="F130" s="9">
+        <v>861</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H130" s="2">
         <v>1000</v>
@@ -5148,25 +5227,25 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>103704</v>
+        <v>103608</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E131" s="2">
         <v>999</v>
       </c>
-      <c r="F131" s="2">
-        <v>867</v>
+      <c r="F131" s="9">
+        <v>862</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H131" s="2">
         <v>1000</v>
@@ -5174,25 +5253,25 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>103705</v>
+        <v>103609</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E132" s="2">
         <v>999</v>
       </c>
-      <c r="F132" s="2">
-        <v>868</v>
+      <c r="F132" s="9">
+        <v>863</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H132" s="2">
         <v>1000</v>
@@ -5200,25 +5279,25 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>103706</v>
+        <v>103701</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E133" s="2">
         <v>999</v>
       </c>
-      <c r="F133" s="2">
-        <v>869</v>
+      <c r="F133" s="9">
+        <v>864</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H133" s="2">
         <v>1000</v>
@@ -5226,25 +5305,25 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>103707</v>
+        <v>103702</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E134" s="2">
         <v>999</v>
       </c>
-      <c r="F134" s="2">
-        <v>870</v>
+      <c r="F134" s="9">
+        <v>865</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H134" s="2">
         <v>1000</v>
@@ -5252,25 +5331,25 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>103708</v>
+        <v>103703</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E135" s="2">
         <v>999</v>
       </c>
-      <c r="F135" s="2">
-        <v>871</v>
+      <c r="F135" s="9">
+        <v>866</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H135" s="2">
         <v>1000</v>
@@ -5278,25 +5357,25 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>103709</v>
+        <v>103704</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E136" s="2">
         <v>999</v>
       </c>
-      <c r="F136" s="2">
-        <v>872</v>
+      <c r="F136" s="9">
+        <v>867</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H136" s="2">
         <v>1000</v>
@@ -5304,25 +5383,25 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>103801</v>
+        <v>103705</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E137" s="2">
         <v>999</v>
       </c>
-      <c r="F137" s="2">
-        <v>873</v>
+      <c r="F137" s="9">
+        <v>868</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H137" s="2">
         <v>1000</v>
@@ -5330,25 +5409,25 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>103802</v>
+        <v>103706</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" s="2">
         <v>999</v>
       </c>
-      <c r="F138" s="2">
-        <v>874</v>
+      <c r="F138" s="9">
+        <v>869</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H138" s="2">
         <v>1000</v>
@@ -5356,25 +5435,25 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>103803</v>
+        <v>103707</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E139" s="2">
         <v>999</v>
       </c>
-      <c r="F139" s="2">
-        <v>875</v>
+      <c r="F139" s="9">
+        <v>870</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H139" s="2">
         <v>1000</v>
@@ -5382,25 +5461,25 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>103804</v>
+        <v>103708</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E140" s="2">
         <v>999</v>
       </c>
-      <c r="F140" s="2">
-        <v>876</v>
+      <c r="F140" s="9">
+        <v>871</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H140" s="2">
         <v>1000</v>
@@ -5408,25 +5487,25 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>103805</v>
+        <v>103709</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E141" s="2">
         <v>999</v>
       </c>
-      <c r="F141" s="2">
-        <v>877</v>
+      <c r="F141" s="9">
+        <v>872</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="H141" s="2">
         <v>1000</v>
@@ -5434,25 +5513,25 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>103806</v>
+        <v>103801</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E142" s="2">
         <v>999</v>
       </c>
-      <c r="F142" s="2">
-        <v>878</v>
+      <c r="F142" s="9">
+        <v>873</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H142" s="2">
         <v>1000</v>
@@ -5460,25 +5539,25 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>103807</v>
+        <v>103802</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E143" s="2">
         <v>999</v>
       </c>
-      <c r="F143" s="2">
-        <v>879</v>
+      <c r="F143" s="9">
+        <v>874</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H143" s="2">
         <v>1000</v>
@@ -5486,25 +5565,25 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>103808</v>
+        <v>103803</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E144" s="2">
         <v>999</v>
       </c>
-      <c r="F144" s="2">
-        <v>880</v>
+      <c r="F144" s="9">
+        <v>875</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H144" s="2">
         <v>1000</v>
@@ -5512,25 +5591,25 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>103809</v>
+        <v>103804</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E145" s="2">
         <v>999</v>
       </c>
-      <c r="F145" s="2">
-        <v>881</v>
+      <c r="F145" s="9">
+        <v>876</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H145" s="2">
         <v>1000</v>
@@ -5538,25 +5617,25 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>103901</v>
+        <v>103805</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E146" s="2">
         <v>999</v>
       </c>
-      <c r="F146" s="2">
-        <v>882</v>
+      <c r="F146" s="9">
+        <v>877</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H146" s="2">
         <v>1000</v>
@@ -5564,25 +5643,25 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>103902</v>
+        <v>103806</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E147" s="2">
         <v>999</v>
       </c>
-      <c r="F147" s="2">
-        <v>883</v>
+      <c r="F147" s="9">
+        <v>878</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="H147" s="2">
         <v>1000</v>
@@ -5590,25 +5669,25 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>103903</v>
+        <v>103807</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E148" s="2">
         <v>999</v>
       </c>
-      <c r="F148" s="2">
-        <v>884</v>
+      <c r="F148" s="9">
+        <v>879</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H148" s="2">
         <v>1000</v>
@@ -5616,25 +5695,25 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>103904</v>
+        <v>103808</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E149" s="2">
         <v>999</v>
       </c>
-      <c r="F149" s="2">
-        <v>885</v>
+      <c r="F149" s="9">
+        <v>880</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H149" s="2">
         <v>1000</v>
@@ -5642,25 +5721,25 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>103905</v>
+        <v>103809</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E150" s="2">
         <v>999</v>
       </c>
-      <c r="F150" s="2">
-        <v>886</v>
+      <c r="F150" s="9">
+        <v>881</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H150" s="2">
         <v>1000</v>
@@ -5668,25 +5747,25 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>103906</v>
+        <v>103901</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E151" s="2">
         <v>999</v>
       </c>
-      <c r="F151" s="2">
-        <v>887</v>
+      <c r="F151" s="9">
+        <v>882</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H151" s="2">
         <v>1000</v>
@@ -5694,25 +5773,25 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>103907</v>
+        <v>103902</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E152" s="2">
         <v>999</v>
       </c>
-      <c r="F152" s="2">
-        <v>888</v>
+      <c r="F152" s="9">
+        <v>883</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H152" s="2">
         <v>1000</v>
@@ -5720,25 +5799,25 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>103908</v>
+        <v>103903</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E153" s="2">
         <v>999</v>
       </c>
-      <c r="F153" s="2">
-        <v>889</v>
+      <c r="F153" s="9">
+        <v>884</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="H153" s="2">
         <v>1000</v>
@@ -5746,25 +5825,25 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>103909</v>
+        <v>103904</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E154" s="2">
         <v>999</v>
       </c>
-      <c r="F154" s="2">
-        <v>890</v>
+      <c r="F154" s="9">
+        <v>885</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H154" s="2">
         <v>1000</v>
@@ -5772,25 +5851,25 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>104001</v>
+        <v>103905</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E155" s="2">
         <v>999</v>
       </c>
-      <c r="F155" s="2">
-        <v>1</v>
+      <c r="F155" s="9">
+        <v>886</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H155" s="2">
         <v>1000</v>
@@ -5798,25 +5877,25 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>104002</v>
+        <v>103906</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E156" s="2">
         <v>999</v>
       </c>
-      <c r="F156" s="2">
-        <v>2</v>
+      <c r="F156" s="9">
+        <v>887</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H156" s="2">
         <v>1000</v>
@@ -5824,25 +5903,25 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>104003</v>
+        <v>103907</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E157" s="2">
         <v>999</v>
       </c>
-      <c r="F157" s="2">
-        <v>3</v>
+      <c r="F157" s="9">
+        <v>888</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H157" s="2">
         <v>1000</v>
@@ -5850,25 +5929,25 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>104004</v>
+        <v>103908</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E158" s="2">
         <v>999</v>
       </c>
-      <c r="F158" s="2">
-        <v>4</v>
+      <c r="F158" s="9">
+        <v>889</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H158" s="2">
         <v>1000</v>
@@ -5876,25 +5955,25 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>104005</v>
+        <v>103909</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E159" s="2">
         <v>999</v>
       </c>
-      <c r="F159" s="2">
-        <v>5</v>
+      <c r="F159" s="9">
+        <v>890</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H159" s="2">
         <v>1000</v>
@@ -5902,25 +5981,25 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>104006</v>
+        <v>104001</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E160" s="2">
         <v>999</v>
       </c>
-      <c r="F160" s="2">
-        <v>6</v>
+      <c r="F160" s="9">
+        <v>1</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H160" s="2">
         <v>1000</v>
@@ -5928,25 +6007,25 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>104007</v>
+        <v>104002</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E161" s="2">
         <v>999</v>
       </c>
-      <c r="F161" s="2">
-        <v>7</v>
+      <c r="F161" s="9">
+        <v>2</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H161" s="2">
         <v>1000</v>
@@ -5954,25 +6033,25 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>104008</v>
+        <v>104003</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E162" s="2">
         <v>999</v>
       </c>
-      <c r="F162" s="2">
-        <v>8</v>
+      <c r="F162" s="9">
+        <v>3</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H162" s="2">
         <v>1000</v>
@@ -5980,25 +6059,25 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>104009</v>
+        <v>104004</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E163" s="2">
         <v>999</v>
       </c>
-      <c r="F163" s="2">
-        <v>9</v>
+      <c r="F163" s="9">
+        <v>4</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H163" s="2">
         <v>1000</v>
@@ -6006,25 +6085,25 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>104010</v>
+        <v>104005</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E164" s="2">
         <v>999</v>
       </c>
-      <c r="F164" s="2">
-        <v>10</v>
+      <c r="F164" s="9">
+        <v>5</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H164" s="2">
         <v>1000</v>
@@ -6032,25 +6111,25 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>104011</v>
+        <v>104006</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E165" s="2">
         <v>999</v>
       </c>
-      <c r="F165" s="2">
-        <v>11</v>
+      <c r="F165" s="9">
+        <v>6</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="H165" s="2">
         <v>1000</v>
@@ -6058,155 +6137,155 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>105001</v>
+        <v>104007</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E166" s="2">
         <v>999</v>
       </c>
-      <c r="F166" s="2">
-        <v>601</v>
+      <c r="F166" s="9">
+        <v>7</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="H166" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>105002</v>
+        <v>104008</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E167" s="2">
         <v>999</v>
       </c>
-      <c r="F167" s="2">
-        <v>602</v>
+      <c r="F167" s="9">
+        <v>8</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H167" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>105003</v>
+        <v>104009</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E168" s="2">
+        <v>999</v>
+      </c>
+      <c r="F168" s="9">
         <v>9</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" s="2">
-        <v>999</v>
-      </c>
-      <c r="F168" s="2">
-        <v>603</v>
-      </c>
       <c r="G168" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H168" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>105004</v>
+        <v>104010</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E169" s="2">
         <v>999</v>
       </c>
-      <c r="F169" s="2">
-        <v>604</v>
+      <c r="F169" s="9">
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H169" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>105005</v>
+        <v>104011</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E170" s="2">
         <v>999</v>
       </c>
-      <c r="F170" s="2">
-        <v>605</v>
+      <c r="F170" s="9">
+        <v>11</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H170" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>105006</v>
+        <v>105001</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E171" s="2">
         <v>999</v>
       </c>
-      <c r="F171" s="2">
-        <v>606</v>
+      <c r="F171" s="9">
+        <v>601</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H171" s="2">
         <v>100000</v>
@@ -6214,25 +6293,25 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>105007</v>
+        <v>105002</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E172" s="2">
         <v>999</v>
       </c>
-      <c r="F172" s="2">
-        <v>607</v>
+      <c r="F172" s="9">
+        <v>602</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H172" s="2">
         <v>100000</v>
@@ -6240,25 +6319,25 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>105008</v>
+        <v>105003</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E173" s="2">
         <v>999</v>
       </c>
-      <c r="F173" s="2">
-        <v>608</v>
+      <c r="F173" s="9">
+        <v>603</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H173" s="2">
         <v>100000</v>
@@ -6266,25 +6345,25 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>105009</v>
+        <v>105004</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" s="2">
         <v>999</v>
       </c>
-      <c r="F174" s="2">
-        <v>609</v>
+      <c r="F174" s="9">
+        <v>604</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H174" s="2">
         <v>100000</v>
@@ -6292,25 +6371,25 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>105010</v>
+        <v>105005</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E175" s="2">
         <v>999</v>
       </c>
-      <c r="F175" s="2">
-        <v>610</v>
+      <c r="F175" s="9">
+        <v>605</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H175" s="2">
         <v>100000</v>
@@ -6318,25 +6397,25 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>105011</v>
+        <v>105006</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E176" s="2">
         <v>999</v>
       </c>
-      <c r="F176" s="2">
-        <v>611</v>
+      <c r="F176" s="9">
+        <v>606</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H176" s="2">
         <v>100000</v>
@@ -6344,25 +6423,25 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>105012</v>
+        <v>105007</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E177" s="2">
         <v>999</v>
       </c>
-      <c r="F177" s="2">
-        <v>612</v>
+      <c r="F177" s="9">
+        <v>607</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H177" s="2">
         <v>100000</v>
@@ -6370,25 +6449,25 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>105013</v>
+        <v>105008</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E178" s="2">
         <v>999</v>
       </c>
-      <c r="F178" s="2">
-        <v>613</v>
+      <c r="F178" s="9">
+        <v>608</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H178" s="2">
         <v>100000</v>
@@ -6396,25 +6475,25 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>105014</v>
+        <v>105009</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E179" s="2">
         <v>999</v>
       </c>
-      <c r="F179" s="2">
-        <v>614</v>
+      <c r="F179" s="9">
+        <v>609</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H179" s="2">
         <v>100000</v>
@@ -6422,25 +6501,25 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>105015</v>
+        <v>105010</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E180" s="2">
         <v>999</v>
       </c>
-      <c r="F180" s="2">
-        <v>615</v>
+      <c r="F180" s="9">
+        <v>610</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H180" s="2">
         <v>100000</v>
@@ -6448,233 +6527,233 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>105016</v>
+        <v>105011</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E181" s="2">
         <v>999</v>
       </c>
-      <c r="F181" s="2">
-        <v>616</v>
+      <c r="F181" s="9">
+        <v>611</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H181" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>105017</v>
+        <v>105012</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E182" s="2">
         <v>999</v>
       </c>
-      <c r="F182" s="2">
-        <v>617</v>
+      <c r="F182" s="9">
+        <v>612</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H182" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>105018</v>
+        <v>105013</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E183" s="2">
         <v>999</v>
       </c>
-      <c r="F183" s="2">
-        <v>618</v>
+      <c r="F183" s="9">
+        <v>613</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H183" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>105019</v>
+        <v>105014</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E184" s="2">
         <v>999</v>
       </c>
-      <c r="F184" s="2">
-        <v>619</v>
+      <c r="F184" s="9">
+        <v>614</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H184" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>105020</v>
+        <v>105015</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E185" s="2">
         <v>999</v>
       </c>
-      <c r="F185" s="2">
-        <v>620</v>
+      <c r="F185" s="9">
+        <v>615</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H185" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>105021</v>
+        <v>105016</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E186" s="2">
         <v>999</v>
       </c>
-      <c r="F186" s="2">
-        <v>621</v>
+      <c r="F186" s="9">
+        <v>616</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H186" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>106101</v>
+        <v>105017</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E187" s="2">
         <v>999</v>
       </c>
-      <c r="F187" s="2">
-        <v>701</v>
+      <c r="F187" s="9">
+        <v>617</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>3</v>
+        <v>357</v>
       </c>
       <c r="H187" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>106102</v>
+        <v>105018</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E188" s="2">
         <v>999</v>
       </c>
-      <c r="F188" s="2">
-        <v>702</v>
+      <c r="F188" s="9">
+        <v>618</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="H188" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>106103</v>
+        <v>105019</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E189" s="2">
         <v>999</v>
       </c>
-      <c r="F189" s="2">
-        <v>703</v>
+      <c r="F189" s="9">
+        <v>619</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H189" s="2">
         <v>1000</v>
@@ -6682,25 +6761,25 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>106104</v>
+        <v>105020</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E190" s="2">
         <v>999</v>
       </c>
-      <c r="F190" s="2">
-        <v>704</v>
+      <c r="F190" s="9">
+        <v>620</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H190" s="2">
         <v>1000</v>
@@ -6708,25 +6787,25 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>106105</v>
+        <v>105021</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>361</v>
+        <v>223</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E191" s="2">
         <v>999</v>
       </c>
-      <c r="F191" s="2">
-        <v>705</v>
+      <c r="F191" s="9">
+        <v>621</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H191" s="2">
         <v>1000</v>
@@ -6734,25 +6813,25 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>106106</v>
+        <v>106101</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" s="2">
         <v>999</v>
       </c>
-      <c r="F192" s="2">
-        <v>706</v>
+      <c r="F192" s="9">
+        <v>701</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="H192" s="2">
         <v>1000</v>
@@ -6760,25 +6839,25 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>106107</v>
+        <v>106102</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E193" s="2">
         <v>999</v>
       </c>
-      <c r="F193" s="2">
-        <v>707</v>
+      <c r="F193" s="9">
+        <v>702</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="H193" s="2">
         <v>1000</v>
@@ -6786,25 +6865,25 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>106108</v>
+        <v>106103</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E194" s="2">
         <v>999</v>
       </c>
-      <c r="F194" s="2">
-        <v>708</v>
+      <c r="F194" s="9">
+        <v>703</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H194" s="2">
         <v>1000</v>
@@ -6812,25 +6891,25 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>106109</v>
+        <v>106104</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E195" s="2">
         <v>999</v>
       </c>
-      <c r="F195" s="2">
-        <v>709</v>
+      <c r="F195" s="9">
+        <v>704</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H195" s="2">
         <v>1000</v>
@@ -6838,25 +6917,25 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>106110</v>
+        <v>106105</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E196" s="2">
         <v>999</v>
       </c>
-      <c r="F196" s="2">
-        <v>710</v>
+      <c r="F196" s="9">
+        <v>705</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H196" s="2">
         <v>1000</v>
@@ -6864,25 +6943,25 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>106111</v>
+        <v>106106</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E197" s="2">
         <v>999</v>
       </c>
-      <c r="F197" s="2">
-        <v>711</v>
+      <c r="F197" s="9">
+        <v>706</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H197" s="2">
         <v>1000</v>
@@ -6890,25 +6969,25 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>106112</v>
+        <v>106107</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E198" s="2">
         <v>999</v>
       </c>
-      <c r="F198" s="2">
-        <v>712</v>
+      <c r="F198" s="9">
+        <v>707</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H198" s="2">
         <v>1000</v>
@@ -6916,25 +6995,25 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>106113</v>
+        <v>106108</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E199" s="2">
         <v>999</v>
       </c>
-      <c r="F199" s="2">
-        <v>713</v>
+      <c r="F199" s="9">
+        <v>708</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="H199" s="2">
         <v>1000</v>
@@ -6942,25 +7021,25 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>106114</v>
+        <v>106109</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E200" s="2">
         <v>999</v>
       </c>
-      <c r="F200" s="2">
-        <v>714</v>
+      <c r="F200" s="9">
+        <v>709</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H200" s="2">
         <v>1000</v>
@@ -6968,25 +7047,25 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>106115</v>
+        <v>106110</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E201" s="2">
         <v>999</v>
       </c>
-      <c r="F201" s="2">
-        <v>715</v>
+      <c r="F201" s="9">
+        <v>710</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H201" s="2">
         <v>1000</v>
@@ -6994,25 +7073,25 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>106116</v>
+        <v>106111</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E202" s="2">
         <v>999</v>
       </c>
-      <c r="F202" s="2">
-        <v>716</v>
+      <c r="F202" s="9">
+        <v>711</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H202" s="2">
         <v>1000</v>
@@ -7020,25 +7099,25 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>106117</v>
+        <v>106112</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E203" s="2">
         <v>999</v>
       </c>
-      <c r="F203" s="2">
-        <v>717</v>
+      <c r="F203" s="9">
+        <v>712</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H203" s="2">
         <v>1000</v>
@@ -7046,25 +7125,25 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>106118</v>
+        <v>106113</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E204" s="2">
         <v>999</v>
       </c>
-      <c r="F204" s="2">
-        <v>718</v>
+      <c r="F204" s="9">
+        <v>713</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H204" s="2">
         <v>1000</v>
@@ -7072,25 +7151,25 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>106119</v>
+        <v>106114</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E205" s="2">
         <v>999</v>
       </c>
-      <c r="F205" s="2">
-        <v>719</v>
+      <c r="F205" s="9">
+        <v>714</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H205" s="2">
         <v>1000</v>
@@ -7098,25 +7177,25 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>106120</v>
+        <v>106115</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E206" s="2">
         <v>999</v>
       </c>
-      <c r="F206" s="2">
-        <v>720</v>
+      <c r="F206" s="9">
+        <v>715</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H206" s="2">
         <v>1000</v>
@@ -7124,25 +7203,25 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>106121</v>
+        <v>106116</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E207" s="2">
         <v>999</v>
       </c>
-      <c r="F207" s="2">
-        <v>721</v>
+      <c r="F207" s="9">
+        <v>716</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H207" s="2">
         <v>1000</v>
@@ -7150,25 +7229,25 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>106201</v>
+        <v>106117</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E208" s="2">
         <v>999</v>
       </c>
-      <c r="F208" s="2">
-        <v>722</v>
+      <c r="F208" s="9">
+        <v>717</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H208" s="2">
         <v>1000</v>
@@ -7176,25 +7255,25 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>106202</v>
+        <v>106118</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E209" s="2">
         <v>999</v>
       </c>
-      <c r="F209" s="2">
-        <v>723</v>
+      <c r="F209" s="9">
+        <v>718</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H209" s="2">
         <v>1000</v>
@@ -7202,25 +7281,25 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>106203</v>
+        <v>106119</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E210" s="2">
         <v>999</v>
       </c>
-      <c r="F210" s="2">
-        <v>724</v>
+      <c r="F210" s="9">
+        <v>719</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H210" s="2">
         <v>1000</v>
@@ -7228,25 +7307,25 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>106204</v>
+        <v>106120</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E211" s="2">
         <v>999</v>
       </c>
-      <c r="F211" s="2">
-        <v>725</v>
+      <c r="F211" s="9">
+        <v>720</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="H211" s="2">
         <v>1000</v>
@@ -7254,25 +7333,25 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>106205</v>
+        <v>106121</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E212" s="2">
         <v>999</v>
       </c>
-      <c r="F212" s="2">
-        <v>726</v>
+      <c r="F212" s="9">
+        <v>721</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H212" s="2">
         <v>1000</v>
@@ -7280,25 +7359,25 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>106206</v>
+        <v>106201</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E213" s="2">
         <v>999</v>
       </c>
-      <c r="F213" s="2">
-        <v>727</v>
+      <c r="F213" s="9">
+        <v>722</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H213" s="2">
         <v>1000</v>
@@ -7306,25 +7385,25 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>106207</v>
+        <v>106202</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E214" s="2">
         <v>999</v>
       </c>
-      <c r="F214" s="2">
-        <v>728</v>
+      <c r="F214" s="9">
+        <v>723</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H214" s="2">
         <v>1000</v>
@@ -7332,25 +7411,25 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>106208</v>
+        <v>106203</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E215" s="2">
         <v>999</v>
       </c>
-      <c r="F215" s="2">
-        <v>729</v>
+      <c r="F215" s="9">
+        <v>724</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="H215" s="2">
         <v>1000</v>
@@ -7358,25 +7437,25 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>106209</v>
+        <v>106204</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E216" s="2">
         <v>999</v>
       </c>
-      <c r="F216" s="2">
-        <v>730</v>
+      <c r="F216" s="9">
+        <v>725</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H216" s="2">
         <v>1000</v>
@@ -7384,25 +7463,25 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>106210</v>
+        <v>106205</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E217" s="2">
         <v>999</v>
       </c>
-      <c r="F217" s="2">
-        <v>731</v>
+      <c r="F217" s="9">
+        <v>726</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H217" s="2">
         <v>1000</v>
@@ -7410,25 +7489,25 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>106211</v>
+        <v>106206</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E218" s="2">
         <v>999</v>
       </c>
-      <c r="F218" s="2">
-        <v>732</v>
+      <c r="F218" s="9">
+        <v>727</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H218" s="2">
         <v>1000</v>
@@ -7436,25 +7515,25 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>106212</v>
+        <v>106207</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E219" s="2">
         <v>999</v>
       </c>
-      <c r="F219" s="2">
-        <v>733</v>
+      <c r="F219" s="9">
+        <v>728</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="H219" s="2">
         <v>1000</v>
@@ -7462,25 +7541,25 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>106213</v>
+        <v>106208</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E220" s="2">
         <v>999</v>
       </c>
-      <c r="F220" s="2">
-        <v>734</v>
+      <c r="F220" s="9">
+        <v>729</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H220" s="2">
         <v>1000</v>
@@ -7488,25 +7567,25 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>106214</v>
+        <v>106209</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E221" s="2">
         <v>999</v>
       </c>
-      <c r="F221" s="2">
-        <v>735</v>
+      <c r="F221" s="9">
+        <v>730</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H221" s="2">
         <v>1000</v>
@@ -7514,25 +7593,25 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>106215</v>
+        <v>106210</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E222" s="2">
         <v>999</v>
       </c>
-      <c r="F222" s="2">
-        <v>736</v>
+      <c r="F222" s="9">
+        <v>731</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H222" s="2">
         <v>1000</v>
@@ -7540,25 +7619,25 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>106216</v>
+        <v>106211</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E223" s="2">
         <v>999</v>
       </c>
-      <c r="F223" s="2">
-        <v>737</v>
+      <c r="F223" s="9">
+        <v>732</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H223" s="2">
         <v>1000</v>
@@ -7566,25 +7645,25 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>106301</v>
+        <v>106212</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E224" s="2">
         <v>999</v>
       </c>
-      <c r="F224" s="2">
-        <v>738</v>
+      <c r="F224" s="9">
+        <v>733</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="H224" s="2">
         <v>1000</v>
@@ -7592,25 +7671,25 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>106302</v>
+        <v>106213</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E225" s="2">
         <v>999</v>
       </c>
-      <c r="F225" s="2">
-        <v>739</v>
+      <c r="F225" s="9">
+        <v>734</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H225" s="2">
         <v>1000</v>
@@ -7618,25 +7697,25 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>106303</v>
+        <v>106214</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E226" s="2">
         <v>999</v>
       </c>
-      <c r="F226" s="2">
-        <v>740</v>
+      <c r="F226" s="9">
+        <v>735</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H226" s="2">
         <v>1000</v>
@@ -7644,25 +7723,25 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>106304</v>
+        <v>106215</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E227" s="2">
         <v>999</v>
       </c>
-      <c r="F227" s="2">
-        <v>741</v>
+      <c r="F227" s="9">
+        <v>736</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="H227" s="2">
         <v>1000</v>
@@ -7670,25 +7749,25 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>106305</v>
+        <v>106216</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E228" s="2">
         <v>999</v>
       </c>
-      <c r="F228" s="2">
-        <v>742</v>
+      <c r="F228" s="9">
+        <v>737</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="H228" s="2">
         <v>1000</v>
@@ -7696,25 +7775,25 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>106306</v>
+        <v>106301</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E229" s="2">
         <v>999</v>
       </c>
-      <c r="F229" s="2">
-        <v>743</v>
+      <c r="F229" s="9">
+        <v>738</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H229" s="2">
         <v>1000</v>
@@ -7722,25 +7801,25 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>106307</v>
+        <v>106302</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E230" s="2">
         <v>999</v>
       </c>
-      <c r="F230" s="2">
-        <v>744</v>
+      <c r="F230" s="9">
+        <v>739</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H230" s="2">
         <v>1000</v>
@@ -7748,25 +7827,25 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>106308</v>
+        <v>106303</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E231" s="2">
         <v>999</v>
       </c>
-      <c r="F231" s="2">
-        <v>745</v>
+      <c r="F231" s="9">
+        <v>740</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="H231" s="2">
         <v>1000</v>
@@ -7774,25 +7853,25 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>106309</v>
+        <v>106304</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E232" s="2">
         <v>999</v>
       </c>
-      <c r="F232" s="2">
-        <v>746</v>
+      <c r="F232" s="9">
+        <v>741</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H232" s="2">
         <v>1000</v>
@@ -7800,25 +7879,25 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>106310</v>
+        <v>106305</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E233" s="2">
         <v>999</v>
       </c>
-      <c r="F233" s="2">
-        <v>747</v>
+      <c r="F233" s="9">
+        <v>742</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H233" s="2">
         <v>1000</v>
@@ -7826,25 +7905,25 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>106311</v>
+        <v>106306</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E234" s="2">
         <v>999</v>
       </c>
-      <c r="F234" s="2">
-        <v>748</v>
+      <c r="F234" s="9">
+        <v>743</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H234" s="2">
         <v>1000</v>
@@ -7852,25 +7931,25 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>106312</v>
+        <v>106307</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E235" s="2">
         <v>999</v>
       </c>
-      <c r="F235" s="2">
-        <v>749</v>
+      <c r="F235" s="9">
+        <v>744</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H235" s="2">
         <v>1000</v>
@@ -7878,25 +7957,25 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>106313</v>
+        <v>106308</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E236" s="2">
         <v>999</v>
       </c>
-      <c r="F236" s="2">
-        <v>750</v>
+      <c r="F236" s="9">
+        <v>745</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H236" s="2">
         <v>1000</v>
@@ -7904,25 +7983,25 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>106401</v>
+        <v>106309</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E237" s="2">
         <v>999</v>
       </c>
-      <c r="F237" s="2">
-        <v>751</v>
+      <c r="F237" s="9">
+        <v>746</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="H237" s="2">
         <v>1000</v>
@@ -7930,25 +8009,25 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>106402</v>
+        <v>106310</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E238" s="2">
         <v>999</v>
       </c>
-      <c r="F238" s="2">
-        <v>752</v>
+      <c r="F238" s="9">
+        <v>747</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="H238" s="2">
         <v>1000</v>
@@ -7956,25 +8035,25 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>106403</v>
+        <v>106311</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E239" s="2">
         <v>999</v>
       </c>
-      <c r="F239" s="2">
-        <v>753</v>
+      <c r="F239" s="9">
+        <v>748</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="H239" s="2">
         <v>1000</v>
@@ -7982,25 +8061,25 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>106404</v>
+        <v>106312</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E240" s="2">
         <v>999</v>
       </c>
-      <c r="F240" s="2">
-        <v>754</v>
+      <c r="F240" s="9">
+        <v>749</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="H240" s="2">
         <v>1000</v>
@@ -8008,25 +8087,25 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>106405</v>
+        <v>106313</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E241" s="2">
         <v>999</v>
       </c>
-      <c r="F241" s="2">
-        <v>755</v>
+      <c r="F241" s="9">
+        <v>750</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H241" s="2">
         <v>1000</v>
@@ -8034,25 +8113,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>106406</v>
+        <v>106401</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E242" s="2">
         <v>999</v>
       </c>
-      <c r="F242" s="2">
-        <v>756</v>
+      <c r="F242" s="9">
+        <v>751</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H242" s="2">
         <v>1000</v>
@@ -8060,25 +8139,25 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>106407</v>
+        <v>106402</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E243" s="2">
         <v>999</v>
       </c>
-      <c r="F243" s="2">
-        <v>757</v>
+      <c r="F243" s="9">
+        <v>752</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H243" s="2">
         <v>1000</v>
@@ -8086,25 +8165,25 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>106408</v>
+        <v>106403</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E244" s="2">
         <v>999</v>
       </c>
-      <c r="F244" s="2">
-        <v>758</v>
+      <c r="F244" s="9">
+        <v>753</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H244" s="2">
         <v>1000</v>
@@ -8112,25 +8191,25 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>106409</v>
+        <v>106404</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E245" s="2">
         <v>999</v>
       </c>
-      <c r="F245" s="2">
-        <v>759</v>
+      <c r="F245" s="9">
+        <v>754</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H245" s="2">
         <v>1000</v>
@@ -8138,25 +8217,25 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>106501</v>
+        <v>106405</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E246" s="2">
         <v>999</v>
       </c>
-      <c r="F246" s="2">
-        <v>760</v>
+      <c r="F246" s="9">
+        <v>755</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="H246" s="2">
         <v>1000</v>
@@ -8164,25 +8243,25 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>106502</v>
+        <v>106406</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E247" s="2">
         <v>999</v>
       </c>
-      <c r="F247" s="2">
-        <v>761</v>
+      <c r="F247" s="9">
+        <v>756</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="H247" s="2">
         <v>1000</v>
@@ -8190,25 +8269,25 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>106503</v>
+        <v>106407</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E248" s="2">
         <v>999</v>
       </c>
-      <c r="F248" s="2">
-        <v>762</v>
+      <c r="F248" s="9">
+        <v>757</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="H248" s="2">
         <v>1000</v>
@@ -8216,25 +8295,25 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>106504</v>
+        <v>106408</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E249" s="2">
         <v>999</v>
       </c>
-      <c r="F249" s="2">
-        <v>763</v>
+      <c r="F249" s="9">
+        <v>758</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="H249" s="2">
         <v>1000</v>
@@ -8242,25 +8321,25 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>106505</v>
+        <v>106409</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E250" s="2">
         <v>999</v>
       </c>
-      <c r="F250" s="2">
-        <v>764</v>
+      <c r="F250" s="9">
+        <v>759</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="H250" s="2">
         <v>1000</v>
@@ -8268,25 +8347,25 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>106506</v>
+        <v>106501</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E251" s="2">
         <v>999</v>
       </c>
-      <c r="F251" s="2">
-        <v>765</v>
+      <c r="F251" s="9">
+        <v>760</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="H251" s="2">
         <v>1000</v>
@@ -8294,25 +8373,25 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>106507</v>
+        <v>106502</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E252" s="2">
         <v>999</v>
       </c>
-      <c r="F252" s="2">
-        <v>766</v>
+      <c r="F252" s="9">
+        <v>761</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H252" s="2">
         <v>1000</v>
@@ -8320,25 +8399,25 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>106508</v>
+        <v>106503</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E253" s="2">
         <v>999</v>
       </c>
-      <c r="F253" s="2">
-        <v>767</v>
+      <c r="F253" s="9">
+        <v>762</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H253" s="2">
         <v>1000</v>
@@ -8346,25 +8425,25 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>106509</v>
+        <v>106504</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E254" s="2">
         <v>999</v>
       </c>
-      <c r="F254" s="2">
-        <v>768</v>
+      <c r="F254" s="9">
+        <v>763</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="H254" s="2">
         <v>1000</v>
@@ -8372,25 +8451,25 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>106510</v>
+        <v>106505</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E255" s="2">
         <v>999</v>
       </c>
-      <c r="F255" s="2">
-        <v>769</v>
+      <c r="F255" s="9">
+        <v>764</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H255" s="2">
         <v>1000</v>
@@ -8398,38 +8477,171 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>106511</v>
+        <v>106506</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E256" s="2">
         <v>999</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" s="9">
+        <v>765</v>
+      </c>
+      <c r="G256" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H256" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>106507</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E257" s="2">
+        <v>999</v>
+      </c>
+      <c r="F257" s="9">
+        <v>766</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H257" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>106508</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E258" s="2">
+        <v>999</v>
+      </c>
+      <c r="F258" s="9">
+        <v>767</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H258" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>106509</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E259" s="2">
+        <v>999</v>
+      </c>
+      <c r="F259" s="9">
+        <v>768</v>
+      </c>
+      <c r="G259" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H259" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>106510</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E260" s="2">
+        <v>999</v>
+      </c>
+      <c r="F260" s="9">
+        <v>769</v>
+      </c>
+      <c r="G260" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H260" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>106511</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E261" s="2">
+        <v>999</v>
+      </c>
+      <c r="F261" s="9">
         <v>770</v>
       </c>
-      <c r="G256" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="H256" s="2">
+      <c r="G261" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H261" s="2">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C256">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C65 C70:C261">
       <formula1>"装备,消耗品,宝石,礼包,材料,球员碎片"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D380">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D385">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C69">
+      <formula1>"装备,消耗品,宝石,礼包,材料,球员碎片,足球宝贝抚摸道具"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xls/itemsConfig.xlsx
+++ b/xls/itemsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="461">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1414,6 +1414,46 @@
   </si>
   <si>
     <t>增加2点好感度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际行动牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练小休养丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练中休养丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练大休养丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少教练1小时倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少教练当前倒计时50%时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置教练倒计时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1831,10 +1871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H261"/>
+  <dimension ref="A1:H266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3640,14 +3680,14 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>103001</v>
+      <c r="A70" s="4">
+        <v>102038</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>451</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>442</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>22</v>
@@ -3655,115 +3695,115 @@
       <c r="E70" s="2">
         <v>999</v>
       </c>
-      <c r="F70" s="9">
-        <v>801</v>
+      <c r="F70" s="11">
+        <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>256</v>
+        <v>454</v>
       </c>
       <c r="H70" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>103002</v>
+      <c r="A71" s="4">
+        <v>102039</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>111</v>
+        <v>452</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>444</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E71" s="2">
         <v>999</v>
       </c>
-      <c r="F71" s="9">
-        <v>802</v>
+      <c r="F71" s="11">
+        <v>139</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c r="H71" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>103003</v>
+      <c r="A72" s="4">
+        <v>102040</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>112</v>
+        <v>455</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>445</v>
+        <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E72" s="2">
-        <v>999</v>
-      </c>
-      <c r="F72" s="9">
-        <v>803</v>
+        <v>22</v>
+      </c>
+      <c r="E72" s="4">
+        <v>999</v>
+      </c>
+      <c r="F72" s="11">
+        <v>140</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>258</v>
+        <v>458</v>
       </c>
       <c r="H72" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>103004</v>
+      <c r="A73" s="4">
+        <v>102041</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>113</v>
+        <v>456</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E73" s="2">
-        <v>999</v>
-      </c>
-      <c r="F73" s="9">
-        <v>804</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="4">
+        <v>999</v>
+      </c>
+      <c r="F73" s="11">
+        <v>141</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>259</v>
+        <v>459</v>
       </c>
       <c r="H73" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>103005</v>
+      <c r="A74" s="4">
+        <v>102042</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>114</v>
+        <v>457</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>444</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E74" s="2">
         <v>999</v>
       </c>
-      <c r="F74" s="9">
-        <v>805</v>
+      <c r="F74" s="11">
+        <v>142</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>260</v>
+        <v>460</v>
       </c>
       <c r="H74" s="2">
         <v>1000</v>
@@ -3771,25 +3811,25 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>103006</v>
+        <v>103001</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="E75" s="2">
         <v>999</v>
       </c>
       <c r="F75" s="9">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H75" s="2">
         <v>1000</v>
@@ -3797,13 +3837,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>103007</v>
+        <v>103002</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>444</v>
@@ -3812,10 +3852,10 @@
         <v>999</v>
       </c>
       <c r="F76" s="9">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H76" s="2">
         <v>1000</v>
@@ -3823,13 +3863,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>103008</v>
+        <v>103003</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>444</v>
@@ -3838,10 +3878,10 @@
         <v>999</v>
       </c>
       <c r="F77" s="9">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H77" s="2">
         <v>1000</v>
@@ -3849,10 +3889,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>103009</v>
+        <v>103004</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>443</v>
@@ -3864,10 +3904,10 @@
         <v>999</v>
       </c>
       <c r="F78" s="9">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H78" s="2">
         <v>1000</v>
@@ -3875,10 +3915,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>103101</v>
+        <v>103005</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>443</v>
@@ -3890,10 +3930,10 @@
         <v>999</v>
       </c>
       <c r="F79" s="9">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H79" s="2">
         <v>1000</v>
@@ -3901,10 +3941,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>103102</v>
+        <v>103006</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>443</v>
@@ -3916,10 +3956,10 @@
         <v>999</v>
       </c>
       <c r="F80" s="9">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H80" s="2">
         <v>1000</v>
@@ -3927,10 +3967,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>103103</v>
+        <v>103007</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>443</v>
@@ -3942,10 +3982,10 @@
         <v>999</v>
       </c>
       <c r="F81" s="9">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H81" s="2">
         <v>1000</v>
@@ -3953,10 +3993,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>103104</v>
+        <v>103008</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>443</v>
@@ -3968,10 +4008,10 @@
         <v>999</v>
       </c>
       <c r="F82" s="9">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H82" s="2">
         <v>1000</v>
@@ -3979,10 +4019,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>103105</v>
+        <v>103009</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>443</v>
@@ -3994,10 +4034,10 @@
         <v>999</v>
       </c>
       <c r="F83" s="9">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H83" s="2">
         <v>1000</v>
@@ -4005,10 +4045,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>103106</v>
+        <v>103101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>443</v>
@@ -4020,10 +4060,10 @@
         <v>999</v>
       </c>
       <c r="F84" s="9">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H84" s="2">
         <v>1000</v>
@@ -4031,10 +4071,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>103107</v>
+        <v>103102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>443</v>
@@ -4046,10 +4086,10 @@
         <v>999</v>
       </c>
       <c r="F85" s="9">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="H85" s="2">
         <v>1000</v>
@@ -4057,25 +4097,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>103108</v>
+        <v>103103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>22</v>
+        <v>443</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E86" s="2">
         <v>999</v>
       </c>
       <c r="F86" s="9">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H86" s="2">
         <v>1000</v>
@@ -4083,25 +4123,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>103109</v>
+        <v>103104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>22</v>
+        <v>443</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E87" s="2">
         <v>999</v>
       </c>
       <c r="F87" s="9">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H87" s="2">
         <v>1000</v>
@@ -4109,25 +4149,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>103201</v>
+        <v>103105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>22</v>
+        <v>123</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E88" s="2">
         <v>999</v>
       </c>
       <c r="F88" s="9">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H88" s="2">
         <v>1000</v>
@@ -4135,25 +4175,25 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>103202</v>
+        <v>103106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>22</v>
+        <v>124</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E89" s="2">
         <v>999</v>
       </c>
       <c r="F89" s="9">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H89" s="2">
         <v>1000</v>
@@ -4161,25 +4201,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>103203</v>
+        <v>103107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>22</v>
+        <v>125</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="E90" s="2">
         <v>999</v>
       </c>
       <c r="F90" s="9">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H90" s="2">
         <v>1000</v>
@@ -4187,12 +4227,12 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>103204</v>
+        <v>103108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -4202,10 +4242,10 @@
         <v>999</v>
       </c>
       <c r="F91" s="9">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H91" s="2">
         <v>1000</v>
@@ -4213,12 +4253,12 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>103205</v>
+        <v>103109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4228,10 +4268,10 @@
         <v>999</v>
       </c>
       <c r="F92" s="9">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H92" s="2">
         <v>1000</v>
@@ -4239,10 +4279,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <v>103206</v>
+        <v>103201</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
@@ -4254,10 +4294,10 @@
         <v>999</v>
       </c>
       <c r="F93" s="9">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H93" s="2">
         <v>1000</v>
@@ -4265,10 +4305,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>103207</v>
+        <v>103202</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
@@ -4280,10 +4320,10 @@
         <v>999</v>
       </c>
       <c r="F94" s="9">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H94" s="2">
         <v>1000</v>
@@ -4291,10 +4331,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
-        <v>103208</v>
+        <v>103203</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
@@ -4306,10 +4346,10 @@
         <v>999</v>
       </c>
       <c r="F95" s="9">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H95" s="2">
         <v>1000</v>
@@ -4317,10 +4357,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>103209</v>
+        <v>103204</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
@@ -4332,10 +4372,10 @@
         <v>999</v>
       </c>
       <c r="F96" s="9">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H96" s="2">
         <v>1000</v>
@@ -4343,10 +4383,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
-        <v>103301</v>
+        <v>103205</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
@@ -4358,10 +4398,10 @@
         <v>999</v>
       </c>
       <c r="F97" s="9">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H97" s="2">
         <v>1000</v>
@@ -4369,10 +4409,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>103302</v>
+        <v>103206</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
@@ -4384,10 +4424,10 @@
         <v>999</v>
       </c>
       <c r="F98" s="9">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="H98" s="2">
         <v>1000</v>
@@ -4395,10 +4435,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
-        <v>103303</v>
+        <v>103207</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
@@ -4410,10 +4450,10 @@
         <v>999</v>
       </c>
       <c r="F99" s="9">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H99" s="2">
         <v>1000</v>
@@ -4421,10 +4461,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>103304</v>
+        <v>103208</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
@@ -4436,10 +4476,10 @@
         <v>999</v>
       </c>
       <c r="F100" s="9">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H100" s="2">
         <v>1000</v>
@@ -4447,10 +4487,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
-        <v>103305</v>
+        <v>103209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>7</v>
@@ -4462,10 +4502,10 @@
         <v>999</v>
       </c>
       <c r="F101" s="9">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H101" s="2">
         <v>1000</v>
@@ -4473,10 +4513,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>103306</v>
+        <v>103301</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
@@ -4488,10 +4528,10 @@
         <v>999</v>
       </c>
       <c r="F102" s="9">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H102" s="2">
         <v>1000</v>
@@ -4499,10 +4539,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
-        <v>103307</v>
+        <v>103302</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
@@ -4514,10 +4554,10 @@
         <v>999</v>
       </c>
       <c r="F103" s="9">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H103" s="2">
         <v>1000</v>
@@ -4525,10 +4565,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>103308</v>
+        <v>103303</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
@@ -4540,10 +4580,10 @@
         <v>999</v>
       </c>
       <c r="F104" s="9">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H104" s="2">
         <v>1000</v>
@@ -4551,10 +4591,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
-        <v>103309</v>
+        <v>103304</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
@@ -4566,10 +4606,10 @@
         <v>999</v>
       </c>
       <c r="F105" s="9">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H105" s="2">
         <v>1000</v>
@@ -4577,10 +4617,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>103401</v>
+        <v>103305</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
@@ -4592,10 +4632,10 @@
         <v>999</v>
       </c>
       <c r="F106" s="9">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H106" s="2">
         <v>1000</v>
@@ -4603,10 +4643,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
-        <v>103402</v>
+        <v>103306</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
@@ -4618,10 +4658,10 @@
         <v>999</v>
       </c>
       <c r="F107" s="9">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H107" s="2">
         <v>1000</v>
@@ -4629,10 +4669,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>103403</v>
+        <v>103307</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>7</v>
@@ -4644,10 +4684,10 @@
         <v>999</v>
       </c>
       <c r="F108" s="9">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H108" s="2">
         <v>1000</v>
@@ -4655,10 +4695,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
-        <v>103404</v>
+        <v>103308</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
@@ -4670,10 +4710,10 @@
         <v>999</v>
       </c>
       <c r="F109" s="9">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H109" s="2">
         <v>1000</v>
@@ -4681,10 +4721,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>103405</v>
+        <v>103309</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
@@ -4696,10 +4736,10 @@
         <v>999</v>
       </c>
       <c r="F110" s="9">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H110" s="2">
         <v>1000</v>
@@ -4707,10 +4747,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>103406</v>
+        <v>103401</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -4722,10 +4762,10 @@
         <v>999</v>
       </c>
       <c r="F111" s="9">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H111" s="2">
         <v>1000</v>
@@ -4733,10 +4773,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>103407</v>
+        <v>103402</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
@@ -4748,10 +4788,10 @@
         <v>999</v>
       </c>
       <c r="F112" s="9">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H112" s="2">
         <v>1000</v>
@@ -4759,10 +4799,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
-        <v>103408</v>
+        <v>103403</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
@@ -4774,10 +4814,10 @@
         <v>999</v>
       </c>
       <c r="F113" s="9">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H113" s="2">
         <v>1000</v>
@@ -4785,10 +4825,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>103409</v>
+        <v>103404</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
@@ -4800,10 +4840,10 @@
         <v>999</v>
       </c>
       <c r="F114" s="9">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H114" s="2">
         <v>1000</v>
@@ -4811,10 +4851,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
-        <v>103501</v>
+        <v>103405</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
@@ -4826,10 +4866,10 @@
         <v>999</v>
       </c>
       <c r="F115" s="9">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H115" s="2">
         <v>1000</v>
@@ -4837,10 +4877,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>103502</v>
+        <v>103406</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
@@ -4852,10 +4892,10 @@
         <v>999</v>
       </c>
       <c r="F116" s="9">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H116" s="2">
         <v>1000</v>
@@ -4863,10 +4903,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
-        <v>103503</v>
+        <v>103407</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
@@ -4878,10 +4918,10 @@
         <v>999</v>
       </c>
       <c r="F117" s="9">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H117" s="2">
         <v>1000</v>
@@ -4889,10 +4929,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>103504</v>
+        <v>103408</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
@@ -4904,10 +4944,10 @@
         <v>999</v>
       </c>
       <c r="F118" s="9">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H118" s="2">
         <v>1000</v>
@@ -4915,10 +4955,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
-        <v>103505</v>
+        <v>103409</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
@@ -4930,10 +4970,10 @@
         <v>999</v>
       </c>
       <c r="F119" s="9">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H119" s="2">
         <v>1000</v>
@@ -4941,10 +4981,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>103506</v>
+        <v>103501</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -4956,10 +4996,10 @@
         <v>999</v>
       </c>
       <c r="F120" s="9">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H120" s="2">
         <v>1000</v>
@@ -4967,10 +5007,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
-        <v>103507</v>
+        <v>103502</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
@@ -4982,10 +5022,10 @@
         <v>999</v>
       </c>
       <c r="F121" s="9">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H121" s="2">
         <v>1000</v>
@@ -4993,10 +5033,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>103508</v>
+        <v>103503</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
@@ -5008,10 +5048,10 @@
         <v>999</v>
       </c>
       <c r="F122" s="9">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H122" s="2">
         <v>1000</v>
@@ -5019,10 +5059,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
-        <v>103509</v>
+        <v>103504</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
@@ -5034,10 +5074,10 @@
         <v>999</v>
       </c>
       <c r="F123" s="9">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H123" s="2">
         <v>1000</v>
@@ -5045,10 +5085,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>103601</v>
+        <v>103505</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
@@ -5060,10 +5100,10 @@
         <v>999</v>
       </c>
       <c r="F124" s="9">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H124" s="2">
         <v>1000</v>
@@ -5071,10 +5111,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
-        <v>103602</v>
+        <v>103506</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
@@ -5086,10 +5126,10 @@
         <v>999</v>
       </c>
       <c r="F125" s="9">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H125" s="2">
         <v>1000</v>
@@ -5097,10 +5137,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>103603</v>
+        <v>103507</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
@@ -5112,10 +5152,10 @@
         <v>999</v>
       </c>
       <c r="F126" s="9">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H126" s="2">
         <v>1000</v>
@@ -5123,10 +5163,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
-        <v>103604</v>
+        <v>103508</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
@@ -5138,10 +5178,10 @@
         <v>999</v>
       </c>
       <c r="F127" s="9">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H127" s="2">
         <v>1000</v>
@@ -5149,10 +5189,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>103605</v>
+        <v>103509</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
@@ -5164,10 +5204,10 @@
         <v>999</v>
       </c>
       <c r="F128" s="9">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H128" s="2">
         <v>1000</v>
@@ -5175,10 +5215,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
-        <v>103606</v>
+        <v>103601</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
@@ -5190,10 +5230,10 @@
         <v>999</v>
       </c>
       <c r="F129" s="9">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H129" s="2">
         <v>1000</v>
@@ -5201,10 +5241,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>103607</v>
+        <v>103602</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
@@ -5216,10 +5256,10 @@
         <v>999</v>
       </c>
       <c r="F130" s="9">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H130" s="2">
         <v>1000</v>
@@ -5227,10 +5267,10 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
-        <v>103608</v>
+        <v>103603</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
@@ -5242,10 +5282,10 @@
         <v>999</v>
       </c>
       <c r="F131" s="9">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H131" s="2">
         <v>1000</v>
@@ -5253,10 +5293,10 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
-        <v>103609</v>
+        <v>103604</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
@@ -5268,10 +5308,10 @@
         <v>999</v>
       </c>
       <c r="F132" s="9">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H132" s="2">
         <v>1000</v>
@@ -5279,10 +5319,10 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
-        <v>103701</v>
+        <v>103605</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
@@ -5294,10 +5334,10 @@
         <v>999</v>
       </c>
       <c r="F133" s="9">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H133" s="2">
         <v>1000</v>
@@ -5305,10 +5345,10 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
-        <v>103702</v>
+        <v>103606</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
@@ -5320,10 +5360,10 @@
         <v>999</v>
       </c>
       <c r="F134" s="9">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H134" s="2">
         <v>1000</v>
@@ -5331,10 +5371,10 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
-        <v>103703</v>
+        <v>103607</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
@@ -5346,10 +5386,10 @@
         <v>999</v>
       </c>
       <c r="F135" s="9">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H135" s="2">
         <v>1000</v>
@@ -5357,10 +5397,10 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>103704</v>
+        <v>103608</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
@@ -5372,10 +5412,10 @@
         <v>999</v>
       </c>
       <c r="F136" s="9">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H136" s="2">
         <v>1000</v>
@@ -5383,10 +5423,10 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
-        <v>103705</v>
+        <v>103609</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
@@ -5398,10 +5438,10 @@
         <v>999</v>
       </c>
       <c r="F137" s="9">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H137" s="2">
         <v>1000</v>
@@ -5409,10 +5449,10 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
-        <v>103706</v>
+        <v>103701</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
@@ -5424,10 +5464,10 @@
         <v>999</v>
       </c>
       <c r="F138" s="9">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H138" s="2">
         <v>1000</v>
@@ -5435,10 +5475,10 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
-        <v>103707</v>
+        <v>103702</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
@@ -5450,10 +5490,10 @@
         <v>999</v>
       </c>
       <c r="F139" s="9">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H139" s="2">
         <v>1000</v>
@@ -5461,10 +5501,10 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
-        <v>103708</v>
+        <v>103703</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
@@ -5476,10 +5516,10 @@
         <v>999</v>
       </c>
       <c r="F140" s="9">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H140" s="2">
         <v>1000</v>
@@ -5487,10 +5527,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
-        <v>103709</v>
+        <v>103704</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
@@ -5502,10 +5542,10 @@
         <v>999</v>
       </c>
       <c r="F141" s="9">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H141" s="2">
         <v>1000</v>
@@ -5513,10 +5553,10 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>103801</v>
+        <v>103705</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
@@ -5528,10 +5568,10 @@
         <v>999</v>
       </c>
       <c r="F142" s="9">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H142" s="2">
         <v>1000</v>
@@ -5539,10 +5579,10 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
-        <v>103802</v>
+        <v>103706</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>7</v>
@@ -5554,10 +5594,10 @@
         <v>999</v>
       </c>
       <c r="F143" s="9">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H143" s="2">
         <v>1000</v>
@@ -5565,10 +5605,10 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
-        <v>103803</v>
+        <v>103707</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>7</v>
@@ -5580,10 +5620,10 @@
         <v>999</v>
       </c>
       <c r="F144" s="9">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="H144" s="2">
         <v>1000</v>
@@ -5591,10 +5631,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
-        <v>103804</v>
+        <v>103708</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
@@ -5606,10 +5646,10 @@
         <v>999</v>
       </c>
       <c r="F145" s="9">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H145" s="2">
         <v>1000</v>
@@ -5617,10 +5657,10 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>103805</v>
+        <v>103709</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
@@ -5632,10 +5672,10 @@
         <v>999</v>
       </c>
       <c r="F146" s="9">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H146" s="2">
         <v>1000</v>
@@ -5643,10 +5683,10 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>103806</v>
+        <v>103801</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
@@ -5658,10 +5698,10 @@
         <v>999</v>
       </c>
       <c r="F147" s="9">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H147" s="2">
         <v>1000</v>
@@ -5669,10 +5709,10 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>103807</v>
+        <v>103802</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
@@ -5684,10 +5724,10 @@
         <v>999</v>
       </c>
       <c r="F148" s="9">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H148" s="2">
         <v>1000</v>
@@ -5695,10 +5735,10 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>103808</v>
+        <v>103803</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
@@ -5710,10 +5750,10 @@
         <v>999</v>
       </c>
       <c r="F149" s="9">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H149" s="2">
         <v>1000</v>
@@ -5721,10 +5761,10 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>103809</v>
+        <v>103804</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
@@ -5736,10 +5776,10 @@
         <v>999</v>
       </c>
       <c r="F150" s="9">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H150" s="2">
         <v>1000</v>
@@ -5747,10 +5787,10 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>103901</v>
+        <v>103805</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
@@ -5762,10 +5802,10 @@
         <v>999</v>
       </c>
       <c r="F151" s="9">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H151" s="2">
         <v>1000</v>
@@ -5773,10 +5813,10 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
-        <v>103902</v>
+        <v>103806</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
@@ -5788,10 +5828,10 @@
         <v>999</v>
       </c>
       <c r="F152" s="9">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H152" s="2">
         <v>1000</v>
@@ -5799,10 +5839,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
-        <v>103903</v>
+        <v>103807</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>7</v>
@@ -5814,10 +5854,10 @@
         <v>999</v>
       </c>
       <c r="F153" s="9">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H153" s="2">
         <v>1000</v>
@@ -5825,10 +5865,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
-        <v>103904</v>
+        <v>103808</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
@@ -5840,10 +5880,10 @@
         <v>999</v>
       </c>
       <c r="F154" s="9">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H154" s="2">
         <v>1000</v>
@@ -5851,10 +5891,10 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
-        <v>103905</v>
+        <v>103809</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>7</v>
@@ -5866,10 +5906,10 @@
         <v>999</v>
       </c>
       <c r="F155" s="9">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H155" s="2">
         <v>1000</v>
@@ -5877,10 +5917,10 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>103906</v>
+        <v>103901</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>7</v>
@@ -5892,10 +5932,10 @@
         <v>999</v>
       </c>
       <c r="F156" s="9">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H156" s="2">
         <v>1000</v>
@@ -5903,10 +5943,10 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
-        <v>103907</v>
+        <v>103902</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>7</v>
@@ -5918,10 +5958,10 @@
         <v>999</v>
       </c>
       <c r="F157" s="9">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H157" s="2">
         <v>1000</v>
@@ -5929,10 +5969,10 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
-        <v>103908</v>
+        <v>103903</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
@@ -5944,10 +5984,10 @@
         <v>999</v>
       </c>
       <c r="F158" s="9">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H158" s="2">
         <v>1000</v>
@@ -5955,10 +5995,10 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
-        <v>103909</v>
+        <v>103904</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>7</v>
@@ -5970,10 +6010,10 @@
         <v>999</v>
       </c>
       <c r="F159" s="9">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H159" s="2">
         <v>1000</v>
@@ -5981,13 +6021,13 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
-        <v>104001</v>
+        <v>103905</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>22</v>
@@ -5996,10 +6036,10 @@
         <v>999</v>
       </c>
       <c r="F160" s="9">
-        <v>1</v>
+        <v>886</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H160" s="2">
         <v>1000</v>
@@ -6007,13 +6047,13 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
-        <v>104002</v>
+        <v>103906</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>22</v>
@@ -6022,10 +6062,10 @@
         <v>999</v>
       </c>
       <c r="F161" s="9">
-        <v>2</v>
+        <v>887</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H161" s="2">
         <v>1000</v>
@@ -6033,13 +6073,13 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
-        <v>104003</v>
+        <v>103907</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>22</v>
@@ -6048,10 +6088,10 @@
         <v>999</v>
       </c>
       <c r="F162" s="9">
-        <v>3</v>
+        <v>888</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H162" s="2">
         <v>1000</v>
@@ -6059,13 +6099,13 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
-        <v>104004</v>
+        <v>103908</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>22</v>
@@ -6074,10 +6114,10 @@
         <v>999</v>
       </c>
       <c r="F163" s="9">
-        <v>4</v>
+        <v>889</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H163" s="2">
         <v>1000</v>
@@ -6085,13 +6125,13 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
-        <v>104005</v>
+        <v>103909</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>22</v>
@@ -6100,10 +6140,10 @@
         <v>999</v>
       </c>
       <c r="F164" s="9">
-        <v>5</v>
+        <v>890</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H164" s="2">
         <v>1000</v>
@@ -6111,10 +6151,10 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
-        <v>104006</v>
+        <v>104001</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>66</v>
+        <v>200</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -6126,10 +6166,10 @@
         <v>999</v>
       </c>
       <c r="F165" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="H165" s="2">
         <v>1000</v>
@@ -6137,10 +6177,10 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
-        <v>104007</v>
+        <v>104002</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -6152,10 +6192,10 @@
         <v>999</v>
       </c>
       <c r="F166" s="9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H166" s="2">
         <v>1000</v>
@@ -6163,10 +6203,10 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
-        <v>104008</v>
+        <v>104003</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -6178,10 +6218,10 @@
         <v>999</v>
       </c>
       <c r="F167" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H167" s="2">
         <v>1000</v>
@@ -6189,10 +6229,10 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
-        <v>104009</v>
+        <v>104004</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
@@ -6204,10 +6244,10 @@
         <v>999</v>
       </c>
       <c r="F168" s="9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="H168" s="2">
         <v>1000</v>
@@ -6215,10 +6255,10 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
-        <v>104010</v>
+        <v>104005</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
@@ -6230,10 +6270,10 @@
         <v>999</v>
       </c>
       <c r="F169" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H169" s="2">
         <v>1000</v>
@@ -6241,10 +6281,10 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
-        <v>104011</v>
+        <v>104006</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>209</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
@@ -6256,10 +6296,10 @@
         <v>999</v>
       </c>
       <c r="F170" s="9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="H170" s="2">
         <v>1000</v>
@@ -6267,13 +6307,13 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
-        <v>105001</v>
+        <v>104007</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>22</v>
@@ -6282,24 +6322,24 @@
         <v>999</v>
       </c>
       <c r="F171" s="9">
-        <v>601</v>
+        <v>7</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H171" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
-        <v>105002</v>
+        <v>104008</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>22</v>
@@ -6308,50 +6348,50 @@
         <v>999</v>
       </c>
       <c r="F172" s="9">
-        <v>602</v>
+        <v>8</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H172" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
-        <v>105003</v>
+        <v>104009</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E173" s="2">
+        <v>999</v>
+      </c>
+      <c r="F173" s="9">
         <v>9</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E173" s="2">
-        <v>999</v>
-      </c>
-      <c r="F173" s="9">
-        <v>603</v>
-      </c>
       <c r="G173" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H173" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
-        <v>105004</v>
+        <v>104010</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>22</v>
@@ -6360,24 +6400,24 @@
         <v>999</v>
       </c>
       <c r="F174" s="9">
-        <v>604</v>
+        <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H174" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
-        <v>105005</v>
+        <v>104011</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>22</v>
@@ -6386,21 +6426,21 @@
         <v>999</v>
       </c>
       <c r="F175" s="9">
-        <v>605</v>
+        <v>11</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H175" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
-        <v>105006</v>
+        <v>105001</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -6412,7 +6452,7 @@
         <v>999</v>
       </c>
       <c r="F176" s="9">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G176" s="2" t="s">
         <v>357</v>
@@ -6423,10 +6463,10 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
-        <v>105007</v>
+        <v>105002</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>68</v>
+        <v>211</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
@@ -6438,7 +6478,7 @@
         <v>999</v>
       </c>
       <c r="F177" s="9">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G177" s="2" t="s">
         <v>357</v>
@@ -6449,10 +6489,10 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
-        <v>105008</v>
+        <v>105003</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>69</v>
+        <v>212</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -6464,7 +6504,7 @@
         <v>999</v>
       </c>
       <c r="F178" s="9">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G178" s="2" t="s">
         <v>357</v>
@@ -6475,10 +6515,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>105009</v>
+        <v>105004</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -6490,7 +6530,7 @@
         <v>999</v>
       </c>
       <c r="F179" s="9">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G179" s="2" t="s">
         <v>357</v>
@@ -6501,10 +6541,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>105010</v>
+        <v>105005</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -6516,7 +6556,7 @@
         <v>999</v>
       </c>
       <c r="F180" s="9">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>357</v>
@@ -6527,10 +6567,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>105011</v>
+        <v>105006</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -6542,7 +6582,7 @@
         <v>999</v>
       </c>
       <c r="F181" s="9">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>357</v>
@@ -6553,10 +6593,10 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>105012</v>
+        <v>105007</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -6568,7 +6608,7 @@
         <v>999</v>
       </c>
       <c r="F182" s="9">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>357</v>
@@ -6579,10 +6619,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>105013</v>
+        <v>105008</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>217</v>
+        <v>69</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -6594,7 +6634,7 @@
         <v>999</v>
       </c>
       <c r="F183" s="9">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G183" s="2" t="s">
         <v>357</v>
@@ -6605,10 +6645,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>105014</v>
+        <v>105009</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -6620,7 +6660,7 @@
         <v>999</v>
       </c>
       <c r="F184" s="9">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G184" s="2" t="s">
         <v>357</v>
@@ -6631,10 +6671,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>105015</v>
+        <v>105010</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -6646,7 +6686,7 @@
         <v>999</v>
       </c>
       <c r="F185" s="9">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G185" s="2" t="s">
         <v>357</v>
@@ -6657,10 +6697,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>105016</v>
+        <v>105011</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -6672,21 +6712,21 @@
         <v>999</v>
       </c>
       <c r="F186" s="9">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G186" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H186" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>105017</v>
+        <v>105012</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -6698,21 +6738,21 @@
         <v>999</v>
       </c>
       <c r="F187" s="9">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G187" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H187" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>105018</v>
+        <v>105013</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -6724,21 +6764,21 @@
         <v>999</v>
       </c>
       <c r="F188" s="9">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H188" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>105019</v>
+        <v>105014</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>73</v>
+        <v>218</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -6750,21 +6790,21 @@
         <v>999</v>
       </c>
       <c r="F189" s="9">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H189" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>105020</v>
+        <v>105015</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -6776,21 +6816,21 @@
         <v>999</v>
       </c>
       <c r="F190" s="9">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H190" s="2">
-        <v>1000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>105021</v>
+        <v>105016</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -6802,24 +6842,24 @@
         <v>999</v>
       </c>
       <c r="F191" s="9">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>357</v>
       </c>
       <c r="H191" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>106101</v>
+        <v>105017</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>22</v>
@@ -6828,24 +6868,24 @@
         <v>999</v>
       </c>
       <c r="F192" s="9">
-        <v>701</v>
+        <v>617</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>3</v>
+        <v>357</v>
       </c>
       <c r="H192" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>106102</v>
+        <v>105018</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>22</v>
@@ -6854,24 +6894,24 @@
         <v>999</v>
       </c>
       <c r="F193" s="9">
-        <v>702</v>
+        <v>618</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>4</v>
+        <v>357</v>
       </c>
       <c r="H193" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>106103</v>
+        <v>105019</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>22</v>
@@ -6880,10 +6920,10 @@
         <v>999</v>
       </c>
       <c r="F194" s="9">
-        <v>703</v>
+        <v>619</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H194" s="2">
         <v>1000</v>
@@ -6891,13 +6931,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>106104</v>
+        <v>105020</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>22</v>
@@ -6906,10 +6946,10 @@
         <v>999</v>
       </c>
       <c r="F195" s="9">
-        <v>704</v>
+        <v>620</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H195" s="2">
         <v>1000</v>
@@ -6917,13 +6957,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>106105</v>
+        <v>105021</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>22</v>
@@ -6932,10 +6972,10 @@
         <v>999</v>
       </c>
       <c r="F196" s="9">
-        <v>705</v>
+        <v>621</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H196" s="2">
         <v>1000</v>
@@ -6943,10 +6983,10 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>106106</v>
+        <v>106101</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>361</v>
+        <v>3</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>10</v>
@@ -6958,10 +6998,10 @@
         <v>999</v>
       </c>
       <c r="F197" s="9">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>361</v>
+        <v>3</v>
       </c>
       <c r="H197" s="2">
         <v>1000</v>
@@ -6969,10 +7009,10 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>106107</v>
+        <v>106102</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>10</v>
@@ -6984,10 +7024,10 @@
         <v>999</v>
       </c>
       <c r="F198" s="9">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>362</v>
+        <v>4</v>
       </c>
       <c r="H198" s="2">
         <v>1000</v>
@@ -6995,10 +7035,10 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>106108</v>
+        <v>106103</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>10</v>
@@ -7010,10 +7050,10 @@
         <v>999</v>
       </c>
       <c r="F199" s="9">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H199" s="2">
         <v>1000</v>
@@ -7021,10 +7061,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>106109</v>
+        <v>106104</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -7036,10 +7076,10 @@
         <v>999</v>
       </c>
       <c r="F200" s="9">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H200" s="2">
         <v>1000</v>
@@ -7047,10 +7087,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>106110</v>
+        <v>106105</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
@@ -7062,10 +7102,10 @@
         <v>999</v>
       </c>
       <c r="F201" s="9">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H201" s="2">
         <v>1000</v>
@@ -7073,10 +7113,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>106111</v>
+        <v>106106</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -7088,10 +7128,10 @@
         <v>999</v>
       </c>
       <c r="F202" s="9">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H202" s="2">
         <v>1000</v>
@@ -7099,10 +7139,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>106112</v>
+        <v>106107</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
@@ -7114,10 +7154,10 @@
         <v>999</v>
       </c>
       <c r="F203" s="9">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="H203" s="2">
         <v>1000</v>
@@ -7125,10 +7165,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>106113</v>
+        <v>106108</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -7140,10 +7180,10 @@
         <v>999</v>
       </c>
       <c r="F204" s="9">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="H204" s="2">
         <v>1000</v>
@@ -7151,10 +7191,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>106114</v>
+        <v>106109</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
@@ -7166,10 +7206,10 @@
         <v>999</v>
       </c>
       <c r="F205" s="9">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H205" s="2">
         <v>1000</v>
@@ -7177,10 +7217,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>106115</v>
+        <v>106110</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -7192,10 +7232,10 @@
         <v>999</v>
       </c>
       <c r="F206" s="9">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="H206" s="2">
         <v>1000</v>
@@ -7203,10 +7243,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>106116</v>
+        <v>106111</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
@@ -7218,10 +7258,10 @@
         <v>999</v>
       </c>
       <c r="F207" s="9">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H207" s="2">
         <v>1000</v>
@@ -7229,10 +7269,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>106117</v>
+        <v>106112</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -7244,10 +7284,10 @@
         <v>999</v>
       </c>
       <c r="F208" s="9">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H208" s="2">
         <v>1000</v>
@@ -7255,10 +7295,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>106118</v>
+        <v>106113</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
@@ -7270,10 +7310,10 @@
         <v>999</v>
       </c>
       <c r="F209" s="9">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H209" s="2">
         <v>1000</v>
@@ -7281,10 +7321,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>106119</v>
+        <v>106114</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -7296,10 +7336,10 @@
         <v>999</v>
       </c>
       <c r="F210" s="9">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H210" s="2">
         <v>1000</v>
@@ -7307,10 +7347,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>106120</v>
+        <v>106115</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
@@ -7322,10 +7362,10 @@
         <v>999</v>
       </c>
       <c r="F211" s="9">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H211" s="2">
         <v>1000</v>
@@ -7333,10 +7373,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>106121</v>
+        <v>106116</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -7348,10 +7388,10 @@
         <v>999</v>
       </c>
       <c r="F212" s="9">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H212" s="2">
         <v>1000</v>
@@ -7359,10 +7399,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>106201</v>
+        <v>106117</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
@@ -7374,10 +7414,10 @@
         <v>999</v>
       </c>
       <c r="F213" s="9">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H213" s="2">
         <v>1000</v>
@@ -7385,10 +7425,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>106202</v>
+        <v>106118</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
@@ -7400,10 +7440,10 @@
         <v>999</v>
       </c>
       <c r="F214" s="9">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H214" s="2">
         <v>1000</v>
@@ -7411,10 +7451,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>106203</v>
+        <v>106119</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
@@ -7426,10 +7466,10 @@
         <v>999</v>
       </c>
       <c r="F215" s="9">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H215" s="2">
         <v>1000</v>
@@ -7437,10 +7477,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>106204</v>
+        <v>106120</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>10</v>
@@ -7452,10 +7492,10 @@
         <v>999</v>
       </c>
       <c r="F216" s="9">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H216" s="2">
         <v>1000</v>
@@ -7463,10 +7503,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>106205</v>
+        <v>106121</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>10</v>
@@ -7478,10 +7518,10 @@
         <v>999</v>
       </c>
       <c r="F217" s="9">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H217" s="2">
         <v>1000</v>
@@ -7489,10 +7529,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>106206</v>
+        <v>106201</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
@@ -7504,10 +7544,10 @@
         <v>999</v>
       </c>
       <c r="F218" s="9">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H218" s="2">
         <v>1000</v>
@@ -7515,10 +7555,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>106207</v>
+        <v>106202</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
@@ -7530,10 +7570,10 @@
         <v>999</v>
       </c>
       <c r="F219" s="9">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H219" s="2">
         <v>1000</v>
@@ -7541,10 +7581,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>106208</v>
+        <v>106203</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>10</v>
@@ -7556,10 +7596,10 @@
         <v>999</v>
       </c>
       <c r="F220" s="9">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H220" s="2">
         <v>1000</v>
@@ -7567,10 +7607,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>106209</v>
+        <v>106204</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>10</v>
@@ -7582,10 +7622,10 @@
         <v>999</v>
       </c>
       <c r="F221" s="9">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H221" s="2">
         <v>1000</v>
@@ -7593,10 +7633,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>106210</v>
+        <v>106205</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
@@ -7608,10 +7648,10 @@
         <v>999</v>
       </c>
       <c r="F222" s="9">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H222" s="2">
         <v>1000</v>
@@ -7619,10 +7659,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>106211</v>
+        <v>106206</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
@@ -7634,10 +7674,10 @@
         <v>999</v>
       </c>
       <c r="F223" s="9">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H223" s="2">
         <v>1000</v>
@@ -7645,10 +7685,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>106212</v>
+        <v>106207</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
@@ -7660,10 +7700,10 @@
         <v>999</v>
       </c>
       <c r="F224" s="9">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H224" s="2">
         <v>1000</v>
@@ -7671,10 +7711,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>106213</v>
+        <v>106208</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>10</v>
@@ -7686,10 +7726,10 @@
         <v>999</v>
       </c>
       <c r="F225" s="9">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H225" s="2">
         <v>1000</v>
@@ -7697,10 +7737,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>106214</v>
+        <v>106209</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>10</v>
@@ -7712,10 +7752,10 @@
         <v>999</v>
       </c>
       <c r="F226" s="9">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H226" s="2">
         <v>1000</v>
@@ -7723,10 +7763,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>106215</v>
+        <v>106210</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
@@ -7738,10 +7778,10 @@
         <v>999</v>
       </c>
       <c r="F227" s="9">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H227" s="2">
         <v>1000</v>
@@ -7749,10 +7789,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>106216</v>
+        <v>106211</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>10</v>
@@ -7764,10 +7804,10 @@
         <v>999</v>
       </c>
       <c r="F228" s="9">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H228" s="2">
         <v>1000</v>
@@ -7775,10 +7815,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>106301</v>
+        <v>106212</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
@@ -7790,10 +7830,10 @@
         <v>999</v>
       </c>
       <c r="F229" s="9">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H229" s="2">
         <v>1000</v>
@@ -7801,10 +7841,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>106302</v>
+        <v>106213</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>10</v>
@@ -7816,10 +7856,10 @@
         <v>999</v>
       </c>
       <c r="F230" s="9">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H230" s="2">
         <v>1000</v>
@@ -7827,10 +7867,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>106303</v>
+        <v>106214</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>10</v>
@@ -7842,10 +7882,10 @@
         <v>999</v>
       </c>
       <c r="F231" s="9">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H231" s="2">
         <v>1000</v>
@@ -7853,10 +7893,10 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>106304</v>
+        <v>106215</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>10</v>
@@ -7868,10 +7908,10 @@
         <v>999</v>
       </c>
       <c r="F232" s="9">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H232" s="2">
         <v>1000</v>
@@ -7879,10 +7919,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>106305</v>
+        <v>106216</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
@@ -7894,10 +7934,10 @@
         <v>999</v>
       </c>
       <c r="F233" s="9">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H233" s="2">
         <v>1000</v>
@@ -7905,10 +7945,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>106306</v>
+        <v>106301</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
@@ -7920,10 +7960,10 @@
         <v>999</v>
       </c>
       <c r="F234" s="9">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H234" s="2">
         <v>1000</v>
@@ -7931,10 +7971,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>106307</v>
+        <v>106302</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>10</v>
@@ -7946,10 +7986,10 @@
         <v>999</v>
       </c>
       <c r="F235" s="9">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H235" s="2">
         <v>1000</v>
@@ -7957,10 +7997,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>106308</v>
+        <v>106303</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
@@ -7972,10 +8012,10 @@
         <v>999</v>
       </c>
       <c r="F236" s="9">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H236" s="2">
         <v>1000</v>
@@ -7983,10 +8023,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>106309</v>
+        <v>106304</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
@@ -7998,10 +8038,10 @@
         <v>999</v>
       </c>
       <c r="F237" s="9">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H237" s="2">
         <v>1000</v>
@@ -8009,10 +8049,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>106310</v>
+        <v>106305</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
@@ -8024,10 +8064,10 @@
         <v>999</v>
       </c>
       <c r="F238" s="9">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H238" s="2">
         <v>1000</v>
@@ -8035,10 +8075,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>106311</v>
+        <v>106306</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>10</v>
@@ -8050,10 +8090,10 @@
         <v>999</v>
       </c>
       <c r="F239" s="9">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H239" s="2">
         <v>1000</v>
@@ -8061,10 +8101,10 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>106312</v>
+        <v>106307</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
@@ -8076,10 +8116,10 @@
         <v>999</v>
       </c>
       <c r="F240" s="9">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H240" s="2">
         <v>1000</v>
@@ -8087,10 +8127,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>106313</v>
+        <v>106308</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
@@ -8102,10 +8142,10 @@
         <v>999</v>
       </c>
       <c r="F241" s="9">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H241" s="2">
         <v>1000</v>
@@ -8113,10 +8153,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>106401</v>
+        <v>106309</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>10</v>
@@ -8128,10 +8168,10 @@
         <v>999</v>
       </c>
       <c r="F242" s="9">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="H242" s="2">
         <v>1000</v>
@@ -8139,10 +8179,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>106402</v>
+        <v>106310</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>10</v>
@@ -8154,10 +8194,10 @@
         <v>999</v>
       </c>
       <c r="F243" s="9">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="H243" s="2">
         <v>1000</v>
@@ -8165,10 +8205,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>106403</v>
+        <v>106311</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
@@ -8180,10 +8220,10 @@
         <v>999</v>
       </c>
       <c r="F244" s="9">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="H244" s="2">
         <v>1000</v>
@@ -8191,10 +8231,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>106404</v>
+        <v>106312</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
@@ -8206,10 +8246,10 @@
         <v>999</v>
       </c>
       <c r="F245" s="9">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H245" s="2">
         <v>1000</v>
@@ -8217,10 +8257,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>106405</v>
+        <v>106313</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>10</v>
@@ -8232,10 +8272,10 @@
         <v>999</v>
       </c>
       <c r="F246" s="9">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="H246" s="2">
         <v>1000</v>
@@ -8243,10 +8283,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>106406</v>
+        <v>106401</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>10</v>
@@ -8258,10 +8298,10 @@
         <v>999</v>
       </c>
       <c r="F247" s="9">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H247" s="2">
         <v>1000</v>
@@ -8269,10 +8309,10 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>106407</v>
+        <v>106402</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
@@ -8284,10 +8324,10 @@
         <v>999</v>
       </c>
       <c r="F248" s="9">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H248" s="2">
         <v>1000</v>
@@ -8295,10 +8335,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>106408</v>
+        <v>106403</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
@@ -8310,10 +8350,10 @@
         <v>999</v>
       </c>
       <c r="F249" s="9">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H249" s="2">
         <v>1000</v>
@@ -8321,10 +8361,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>106409</v>
+        <v>106404</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
@@ -8336,10 +8376,10 @@
         <v>999</v>
       </c>
       <c r="F250" s="9">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H250" s="2">
         <v>1000</v>
@@ -8347,10 +8387,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>106501</v>
+        <v>106405</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
@@ -8362,10 +8402,10 @@
         <v>999</v>
       </c>
       <c r="F251" s="9">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="H251" s="2">
         <v>1000</v>
@@ -8373,10 +8413,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>106502</v>
+        <v>106406</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
@@ -8388,10 +8428,10 @@
         <v>999</v>
       </c>
       <c r="F252" s="9">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="H252" s="2">
         <v>1000</v>
@@ -8399,10 +8439,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>106503</v>
+        <v>106407</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
@@ -8414,10 +8454,10 @@
         <v>999</v>
       </c>
       <c r="F253" s="9">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="H253" s="2">
         <v>1000</v>
@@ -8425,10 +8465,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>106504</v>
+        <v>106408</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
@@ -8440,10 +8480,10 @@
         <v>999</v>
       </c>
       <c r="F254" s="9">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H254" s="2">
         <v>1000</v>
@@ -8451,10 +8491,10 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>106505</v>
+        <v>106409</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
@@ -8466,10 +8506,10 @@
         <v>999</v>
       </c>
       <c r="F255" s="9">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="H255" s="2">
         <v>1000</v>
@@ -8477,10 +8517,10 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>106506</v>
+        <v>106501</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
@@ -8492,10 +8532,10 @@
         <v>999</v>
       </c>
       <c r="F256" s="9">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H256" s="2">
         <v>1000</v>
@@ -8503,10 +8543,10 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>106507</v>
+        <v>106502</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -8518,10 +8558,10 @@
         <v>999</v>
       </c>
       <c r="F257" s="9">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H257" s="2">
         <v>1000</v>
@@ -8529,10 +8569,10 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>106508</v>
+        <v>106503</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>10</v>
@@ -8544,10 +8584,10 @@
         <v>999</v>
       </c>
       <c r="F258" s="9">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H258" s="2">
         <v>1000</v>
@@ -8555,10 +8595,10 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>106509</v>
+        <v>106504</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>10</v>
@@ -8570,10 +8610,10 @@
         <v>999</v>
       </c>
       <c r="F259" s="9">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H259" s="2">
         <v>1000</v>
@@ -8581,10 +8621,10 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>106510</v>
+        <v>106505</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>10</v>
@@ -8596,10 +8636,10 @@
         <v>999</v>
       </c>
       <c r="F260" s="9">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H260" s="2">
         <v>1000</v>
@@ -8607,10 +8647,10 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>106511</v>
+        <v>106506</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>10</v>
@@ -8622,25 +8662,155 @@
         <v>999</v>
       </c>
       <c r="F261" s="9">
+        <v>765</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H261" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>106507</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E262" s="2">
+        <v>999</v>
+      </c>
+      <c r="F262" s="9">
+        <v>766</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H262" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>106508</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E263" s="2">
+        <v>999</v>
+      </c>
+      <c r="F263" s="9">
+        <v>767</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H263" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>106509</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="2">
+        <v>999</v>
+      </c>
+      <c r="F264" s="9">
+        <v>768</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H264" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>106510</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="2">
+        <v>999</v>
+      </c>
+      <c r="F265" s="9">
+        <v>769</v>
+      </c>
+      <c r="G265" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H265" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>106511</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E266" s="2">
+        <v>999</v>
+      </c>
+      <c r="F266" s="9">
         <v>770</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="G266" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H261" s="2">
+      <c r="H266" s="2">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C65 C70:C261">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C65 C70:C71 C73:C266">
       <formula1>"装备,消耗品,宝石,礼包,材料,球员碎片"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D385">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D390">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C69 C72">
       <formula1>"装备,消耗品,宝石,礼包,材料,球员碎片,足球宝贝抚摸道具"</formula1>
     </dataValidation>
   </dataValidations>

--- a/xls/itemsConfig.xlsx
+++ b/xls/itemsConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="390" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="4665" yWindow="480" windowWidth="14805" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="@道具索引表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="466">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,15 +203,9 @@
     <t>球员进阶道具</t>
   </si>
   <si>
-    <t>单周最佳证</t>
-  </si>
-  <si>
     <t>赛季最佳证</t>
   </si>
   <si>
-    <t>传奇球员证</t>
-  </si>
-  <si>
     <t>公会牌</t>
   </si>
   <si>
@@ -234,9 +228,6 @@
   </si>
   <si>
     <t>用于技能升级</t>
-  </si>
-  <si>
-    <t>球星进阶包</t>
   </si>
   <si>
     <t>钛金发带图纸</t>
@@ -1077,22 +1068,10 @@
     <t>射门、传球、盘带效果增加6%</t>
   </si>
   <si>
-    <t>打开将随机获得一颗5-7级普通宝石或5-6级稀有晶体</t>
-  </si>
-  <si>
     <t>打开将随机获得一颗4-6级普通宝石或4-5级稀有晶体</t>
   </si>
   <si>
-    <t>打开将随机获得一颗4-5级普通宝石或3级稀有晶体</t>
-  </si>
-  <si>
     <t>打开将随机获得一种增加好感度的道具</t>
-  </si>
-  <si>
-    <t>打开将随机获得一块随机品质的装备进化石</t>
-  </si>
-  <si>
-    <t>打开将随机获得一快随机品质的球员进阶道具</t>
   </si>
   <si>
     <t>打开可任意选择一块4级晶体</t>
@@ -1353,10 +1332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12500经验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isTogether[$][funcInt]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1454,6 +1429,58 @@
   </si>
   <si>
     <t>重置教练倒计时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周最佳证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开有较高概率获得传奇球星证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250000经验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级球星进阶包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开有几率获得单场最佳证、单周最佳证、赛季最佳证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级球星进阶包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级球星进阶包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开将有较高几率获得传奇球星证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇球星证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾问争夺图纸包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开有几率获得稀有装备图纸一张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开将随机获得一颗4-5级普通宝石或3级稀有晶体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开将随机获得一颗5-7级普通宝石或5-6级稀有晶体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1490,12 +1517,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1525,7 +1564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1566,6 +1605,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1871,10 +1912,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H266"/>
+  <dimension ref="A1:H269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73:H74"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H172" sqref="H172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1896,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>24</v>
@@ -1957,7 +1998,7 @@
         <v>926</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H3" s="2">
         <v>300</v>
@@ -1983,7 +2024,7 @@
         <v>927</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H4" s="2">
         <v>300</v>
@@ -2009,7 +2050,7 @@
         <v>928</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H5" s="2">
         <v>300</v>
@@ -2035,7 +2076,7 @@
         <v>929</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H6" s="2">
         <v>300</v>
@@ -2061,7 +2102,7 @@
         <v>930</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H7" s="2">
         <v>300</v>
@@ -2072,7 +2113,7 @@
         <v>101101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -2087,7 +2128,7 @@
         <v>921</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2">
         <v>1600</v>
@@ -2098,7 +2139,7 @@
         <v>101102</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -2113,7 +2154,7 @@
         <v>922</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2">
         <v>1600</v>
@@ -2124,7 +2165,7 @@
         <v>101103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -2139,7 +2180,7 @@
         <v>923</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2">
         <v>1600</v>
@@ -2150,7 +2191,7 @@
         <v>101104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -2165,7 +2206,7 @@
         <v>924</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2">
         <v>1600</v>
@@ -2176,7 +2217,7 @@
         <v>101105</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -2191,7 +2232,7 @@
         <v>925</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H12" s="2">
         <v>1600</v>
@@ -2202,7 +2243,7 @@
         <v>101201</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -2217,7 +2258,7 @@
         <v>916</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H13" s="2">
         <v>6500</v>
@@ -2228,7 +2269,7 @@
         <v>101202</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -2243,7 +2284,7 @@
         <v>917</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H14" s="2">
         <v>6500</v>
@@ -2254,7 +2295,7 @@
         <v>101203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
@@ -2269,7 +2310,7 @@
         <v>918</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H15" s="2">
         <v>6500</v>
@@ -2280,7 +2321,7 @@
         <v>101204</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
@@ -2295,7 +2336,7 @@
         <v>919</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H16" s="2">
         <v>6500</v>
@@ -2306,7 +2347,7 @@
         <v>101205</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
@@ -2321,7 +2362,7 @@
         <v>920</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2">
         <v>6500</v>
@@ -2332,7 +2373,7 @@
         <v>101301</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -2347,7 +2388,7 @@
         <v>911</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H18" s="2">
         <v>67000</v>
@@ -2358,7 +2399,7 @@
         <v>101302</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -2373,7 +2414,7 @@
         <v>912</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H19" s="2">
         <v>67000</v>
@@ -2384,7 +2425,7 @@
         <v>101303</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -2399,7 +2440,7 @@
         <v>913</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H20" s="2">
         <v>67000</v>
@@ -2410,7 +2451,7 @@
         <v>101304</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>5</v>
@@ -2425,7 +2466,7 @@
         <v>914</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H21" s="2">
         <v>67000</v>
@@ -2436,7 +2477,7 @@
         <v>101305</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -2451,7 +2492,7 @@
         <v>915</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H22" s="2">
         <v>67000</v>
@@ -2477,7 +2518,7 @@
         <v>906</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H23" s="2">
         <v>67000</v>
@@ -2503,7 +2544,7 @@
         <v>907</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H24" s="2">
         <v>67000</v>
@@ -2529,7 +2570,7 @@
         <v>908</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H25" s="2">
         <v>67000</v>
@@ -2555,7 +2596,7 @@
         <v>909</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H26" s="2">
         <v>67000</v>
@@ -2581,7 +2622,7 @@
         <v>910</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H27" s="2">
         <v>67000</v>
@@ -2592,7 +2633,7 @@
         <v>101501</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -2607,7 +2648,7 @@
         <v>901</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H28" s="2">
         <v>67000</v>
@@ -2618,7 +2659,7 @@
         <v>101502</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -2633,7 +2674,7 @@
         <v>902</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H29" s="2">
         <v>67000</v>
@@ -2644,7 +2685,7 @@
         <v>101503</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
@@ -2659,7 +2700,7 @@
         <v>903</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H30" s="2">
         <v>67000</v>
@@ -2670,7 +2711,7 @@
         <v>101504</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
@@ -2685,7 +2726,7 @@
         <v>904</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H31" s="2">
         <v>67000</v>
@@ -2696,7 +2737,7 @@
         <v>101505</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -2711,7 +2752,7 @@
         <v>905</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H32" s="2">
         <v>67000</v>
@@ -2722,7 +2763,7 @@
         <v>102001</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>6</v>
@@ -2800,7 +2841,7 @@
         <v>102004</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>6</v>
@@ -2878,7 +2919,7 @@
         <v>102007</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>9</v>
@@ -2904,7 +2945,7 @@
         <v>102008</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>9</v>
@@ -2930,7 +2971,7 @@
         <v>102009</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>9</v>
@@ -2956,7 +2997,7 @@
         <v>102010</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>9</v>
@@ -2982,7 +3023,7 @@
         <v>102011</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>9</v>
@@ -3008,7 +3049,7 @@
         <v>102012</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>9</v>
@@ -3034,7 +3075,7 @@
         <v>102013</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>9</v>
@@ -3049,7 +3090,7 @@
         <v>115</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H45" s="2">
         <v>1000</v>
@@ -3060,7 +3101,7 @@
         <v>102014</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>9</v>
@@ -3075,7 +3116,7 @@
         <v>116</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H46" s="2">
         <v>1000</v>
@@ -3086,7 +3127,7 @@
         <v>102015</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>9</v>
@@ -3101,7 +3142,7 @@
         <v>117</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H47" s="2">
         <v>1000</v>
@@ -3112,7 +3153,7 @@
         <v>102016</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>9</v>
@@ -3127,7 +3168,7 @@
         <v>118</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H48" s="2">
         <v>1000</v>
@@ -3164,7 +3205,7 @@
         <v>102018</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>453</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>9</v>
@@ -3190,7 +3231,7 @@
         <v>102019</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
@@ -3216,7 +3257,7 @@
         <v>102020</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>461</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
@@ -3238,11 +3279,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="17">
         <v>102021</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>58</v>
+      <c r="B53" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>9</v>
@@ -3257,7 +3298,7 @@
         <v>123</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H53" s="2">
         <v>1000</v>
@@ -3268,7 +3309,7 @@
         <v>102022</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>9</v>
@@ -3283,7 +3324,7 @@
         <v>124</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H54" s="2">
         <v>1000</v>
@@ -3294,7 +3335,7 @@
         <v>102023</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>9</v>
@@ -3309,7 +3350,7 @@
         <v>125</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H55" s="2">
         <v>1000</v>
@@ -3320,7 +3361,7 @@
         <v>102024</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>9</v>
@@ -3335,18 +3376,18 @@
         <v>126</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H56" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="17">
         <v>102025</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>64</v>
+      <c r="B57" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>9</v>
@@ -3361,7 +3402,7 @@
         <v>127</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H57" s="2">
         <v>1000</v>
@@ -3372,7 +3413,7 @@
         <v>102026</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>9</v>
@@ -3387,7 +3428,7 @@
         <v>128</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H58" s="2">
         <v>1000</v>
@@ -3398,7 +3439,7 @@
         <v>102027</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
@@ -3413,7 +3454,7 @@
         <v>129</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H59" s="2">
         <v>1000</v>
@@ -3424,7 +3465,7 @@
         <v>102028</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>9</v>
@@ -3439,7 +3480,7 @@
         <v>130</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H60" s="2">
         <v>1000</v>
@@ -3450,7 +3491,7 @@
         <v>102029</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>9</v>
@@ -3465,7 +3506,7 @@
         <v>131</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H61" s="2">
         <v>5000</v>
@@ -3476,7 +3517,7 @@
         <v>102030</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>9</v>
@@ -3491,7 +3532,7 @@
         <v>132</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H62" s="2">
         <v>10000</v>
@@ -3502,7 +3543,7 @@
         <v>102031</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>6</v>
@@ -3517,7 +3558,7 @@
         <v>106</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="H63" s="4">
         <v>1000</v>
@@ -3528,7 +3569,7 @@
         <v>102032</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>6</v>
@@ -3543,7 +3584,7 @@
         <v>107</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="H64" s="4">
         <v>2000</v>
@@ -3554,7 +3595,7 @@
         <v>102033</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>9</v>
@@ -3569,7 +3610,7 @@
         <v>133</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H65" s="4">
         <v>2000</v>
@@ -3580,7 +3621,7 @@
         <v>102034</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>6</v>
@@ -3595,7 +3636,7 @@
         <v>134</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H66" s="15">
         <v>0</v>
@@ -3606,7 +3647,7 @@
         <v>102035</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>6</v>
@@ -3621,7 +3662,7 @@
         <v>135</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H67" s="13">
         <v>1000</v>
@@ -3632,7 +3673,7 @@
         <v>102036</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>6</v>
@@ -3647,7 +3688,7 @@
         <v>136</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="H68" s="13">
         <v>1500</v>
@@ -3658,7 +3699,7 @@
         <v>102037</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>6</v>
@@ -3673,7 +3714,7 @@
         <v>137</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H69" s="13">
         <v>2000</v>
@@ -3684,7 +3725,7 @@
         <v>102038</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>6</v>
@@ -3699,7 +3740,7 @@
         <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="H70" s="2">
         <v>1000</v>
@@ -3710,7 +3751,7 @@
         <v>102039</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>6</v>
@@ -3725,7 +3766,7 @@
         <v>139</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H71" s="2">
         <v>1000</v>
@@ -3736,7 +3777,7 @@
         <v>102040</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>6</v>
@@ -3751,7 +3792,7 @@
         <v>140</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H72" s="2">
         <v>1000</v>
@@ -3762,7 +3803,7 @@
         <v>102041</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>6</v>
@@ -3777,7 +3818,7 @@
         <v>141</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H73" s="2">
         <v>1000</v>
@@ -3788,7 +3829,7 @@
         <v>102042</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>6</v>
@@ -3803,7 +3844,7 @@
         <v>142</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H74" s="2">
         <v>1000</v>
@@ -3814,10 +3855,10 @@
         <v>103001</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>22</v>
@@ -3829,7 +3870,7 @@
         <v>801</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H75" s="2">
         <v>1000</v>
@@ -3840,13 +3881,13 @@
         <v>103002</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E76" s="2">
         <v>999</v>
@@ -3855,7 +3896,7 @@
         <v>802</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H76" s="2">
         <v>1000</v>
@@ -3866,13 +3907,13 @@
         <v>103003</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E77" s="2">
         <v>999</v>
@@ -3881,7 +3922,7 @@
         <v>803</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H77" s="2">
         <v>1000</v>
@@ -3892,13 +3933,13 @@
         <v>103004</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E78" s="2">
         <v>999</v>
@@ -3907,7 +3948,7 @@
         <v>804</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H78" s="2">
         <v>1000</v>
@@ -3918,13 +3959,13 @@
         <v>103005</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E79" s="2">
         <v>999</v>
@@ -3933,7 +3974,7 @@
         <v>805</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H79" s="2">
         <v>1000</v>
@@ -3944,13 +3985,13 @@
         <v>103006</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E80" s="2">
         <v>999</v>
@@ -3959,7 +4000,7 @@
         <v>806</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H80" s="2">
         <v>1000</v>
@@ -3970,13 +4011,13 @@
         <v>103007</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E81" s="2">
         <v>999</v>
@@ -3985,7 +4026,7 @@
         <v>807</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H81" s="2">
         <v>1000</v>
@@ -3996,13 +4037,13 @@
         <v>103008</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E82" s="2">
         <v>999</v>
@@ -4011,7 +4052,7 @@
         <v>808</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H82" s="2">
         <v>1000</v>
@@ -4022,13 +4063,13 @@
         <v>103009</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E83" s="2">
         <v>999</v>
@@ -4037,7 +4078,7 @@
         <v>809</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H83" s="2">
         <v>1000</v>
@@ -4048,13 +4089,13 @@
         <v>103101</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E84" s="2">
         <v>999</v>
@@ -4063,7 +4104,7 @@
         <v>810</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H84" s="2">
         <v>1000</v>
@@ -4074,13 +4115,13 @@
         <v>103102</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E85" s="2">
         <v>999</v>
@@ -4089,7 +4130,7 @@
         <v>811</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H85" s="2">
         <v>1000</v>
@@ -4100,13 +4141,13 @@
         <v>103103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E86" s="2">
         <v>999</v>
@@ -4115,7 +4156,7 @@
         <v>812</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H86" s="2">
         <v>1000</v>
@@ -4126,13 +4167,13 @@
         <v>103104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E87" s="2">
         <v>999</v>
@@ -4141,7 +4182,7 @@
         <v>813</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H87" s="2">
         <v>1000</v>
@@ -4152,13 +4193,13 @@
         <v>103105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E88" s="2">
         <v>999</v>
@@ -4167,7 +4208,7 @@
         <v>814</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H88" s="2">
         <v>1000</v>
@@ -4178,13 +4219,13 @@
         <v>103106</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E89" s="2">
         <v>999</v>
@@ -4193,7 +4234,7 @@
         <v>815</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H89" s="2">
         <v>1000</v>
@@ -4204,13 +4245,13 @@
         <v>103107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E90" s="2">
         <v>999</v>
@@ -4219,7 +4260,7 @@
         <v>816</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H90" s="2">
         <v>1000</v>
@@ -4230,7 +4271,7 @@
         <v>103108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>7</v>
@@ -4245,7 +4286,7 @@
         <v>817</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H91" s="2">
         <v>1000</v>
@@ -4256,7 +4297,7 @@
         <v>103109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>7</v>
@@ -4271,7 +4312,7 @@
         <v>818</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H92" s="2">
         <v>1000</v>
@@ -4282,7 +4323,7 @@
         <v>103201</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
@@ -4297,7 +4338,7 @@
         <v>819</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H93" s="2">
         <v>1000</v>
@@ -4308,7 +4349,7 @@
         <v>103202</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>7</v>
@@ -4323,7 +4364,7 @@
         <v>820</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H94" s="2">
         <v>1000</v>
@@ -4334,7 +4375,7 @@
         <v>103203</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>7</v>
@@ -4349,7 +4390,7 @@
         <v>821</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H95" s="2">
         <v>1000</v>
@@ -4360,7 +4401,7 @@
         <v>103204</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>7</v>
@@ -4375,7 +4416,7 @@
         <v>822</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H96" s="2">
         <v>1000</v>
@@ -4386,7 +4427,7 @@
         <v>103205</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>7</v>
@@ -4401,7 +4442,7 @@
         <v>823</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H97" s="2">
         <v>1000</v>
@@ -4412,7 +4453,7 @@
         <v>103206</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>7</v>
@@ -4427,7 +4468,7 @@
         <v>824</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H98" s="2">
         <v>1000</v>
@@ -4438,7 +4479,7 @@
         <v>103207</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>7</v>
@@ -4453,7 +4494,7 @@
         <v>825</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H99" s="2">
         <v>1000</v>
@@ -4464,7 +4505,7 @@
         <v>103208</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>7</v>
@@ -4479,7 +4520,7 @@
         <v>826</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H100" s="2">
         <v>1000</v>
@@ -4490,7 +4531,7 @@
         <v>103209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>7</v>
@@ -4505,7 +4546,7 @@
         <v>827</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H101" s="2">
         <v>1000</v>
@@ -4516,7 +4557,7 @@
         <v>103301</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>7</v>
@@ -4531,7 +4572,7 @@
         <v>828</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H102" s="2">
         <v>1000</v>
@@ -4542,7 +4583,7 @@
         <v>103302</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>7</v>
@@ -4557,7 +4598,7 @@
         <v>829</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H103" s="2">
         <v>1000</v>
@@ -4568,7 +4609,7 @@
         <v>103303</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>7</v>
@@ -4583,7 +4624,7 @@
         <v>830</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H104" s="2">
         <v>1000</v>
@@ -4594,7 +4635,7 @@
         <v>103304</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>7</v>
@@ -4609,7 +4650,7 @@
         <v>831</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H105" s="2">
         <v>1000</v>
@@ -4620,7 +4661,7 @@
         <v>103305</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>7</v>
@@ -4635,7 +4676,7 @@
         <v>832</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H106" s="2">
         <v>1000</v>
@@ -4646,7 +4687,7 @@
         <v>103306</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>7</v>
@@ -4661,7 +4702,7 @@
         <v>833</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H107" s="2">
         <v>1000</v>
@@ -4672,7 +4713,7 @@
         <v>103307</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>7</v>
@@ -4687,7 +4728,7 @@
         <v>834</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H108" s="2">
         <v>1000</v>
@@ -4698,7 +4739,7 @@
         <v>103308</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>7</v>
@@ -4713,7 +4754,7 @@
         <v>835</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H109" s="2">
         <v>1000</v>
@@ -4724,7 +4765,7 @@
         <v>103309</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>7</v>
@@ -4739,7 +4780,7 @@
         <v>836</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H110" s="2">
         <v>1000</v>
@@ -4750,7 +4791,7 @@
         <v>103401</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>7</v>
@@ -4765,7 +4806,7 @@
         <v>837</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H111" s="2">
         <v>1000</v>
@@ -4776,7 +4817,7 @@
         <v>103402</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>7</v>
@@ -4791,7 +4832,7 @@
         <v>838</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H112" s="2">
         <v>1000</v>
@@ -4802,7 +4843,7 @@
         <v>103403</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>7</v>
@@ -4817,7 +4858,7 @@
         <v>839</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H113" s="2">
         <v>1000</v>
@@ -4828,7 +4869,7 @@
         <v>103404</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>7</v>
@@ -4843,7 +4884,7 @@
         <v>840</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H114" s="2">
         <v>1000</v>
@@ -4854,7 +4895,7 @@
         <v>103405</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>7</v>
@@ -4869,7 +4910,7 @@
         <v>841</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H115" s="2">
         <v>1000</v>
@@ -4880,7 +4921,7 @@
         <v>103406</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>7</v>
@@ -4895,7 +4936,7 @@
         <v>842</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H116" s="2">
         <v>1000</v>
@@ -4906,7 +4947,7 @@
         <v>103407</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>7</v>
@@ -4921,7 +4962,7 @@
         <v>843</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H117" s="2">
         <v>1000</v>
@@ -4932,7 +4973,7 @@
         <v>103408</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>7</v>
@@ -4947,7 +4988,7 @@
         <v>844</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H118" s="2">
         <v>1000</v>
@@ -4958,7 +4999,7 @@
         <v>103409</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>7</v>
@@ -4973,7 +5014,7 @@
         <v>845</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H119" s="2">
         <v>1000</v>
@@ -4984,7 +5025,7 @@
         <v>103501</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>7</v>
@@ -4999,7 +5040,7 @@
         <v>846</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H120" s="2">
         <v>1000</v>
@@ -5010,7 +5051,7 @@
         <v>103502</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>7</v>
@@ -5025,7 +5066,7 @@
         <v>847</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H121" s="2">
         <v>1000</v>
@@ -5036,7 +5077,7 @@
         <v>103503</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>7</v>
@@ -5051,7 +5092,7 @@
         <v>848</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H122" s="2">
         <v>1000</v>
@@ -5062,7 +5103,7 @@
         <v>103504</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>7</v>
@@ -5077,7 +5118,7 @@
         <v>849</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H123" s="2">
         <v>1000</v>
@@ -5088,7 +5129,7 @@
         <v>103505</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>7</v>
@@ -5103,7 +5144,7 @@
         <v>850</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H124" s="2">
         <v>1000</v>
@@ -5114,7 +5155,7 @@
         <v>103506</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>7</v>
@@ -5129,7 +5170,7 @@
         <v>851</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H125" s="2">
         <v>1000</v>
@@ -5140,7 +5181,7 @@
         <v>103507</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>7</v>
@@ -5155,7 +5196,7 @@
         <v>852</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H126" s="2">
         <v>1000</v>
@@ -5166,7 +5207,7 @@
         <v>103508</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>7</v>
@@ -5181,7 +5222,7 @@
         <v>853</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H127" s="2">
         <v>1000</v>
@@ -5192,7 +5233,7 @@
         <v>103509</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>7</v>
@@ -5207,7 +5248,7 @@
         <v>854</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H128" s="2">
         <v>1000</v>
@@ -5218,7 +5259,7 @@
         <v>103601</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>7</v>
@@ -5233,7 +5274,7 @@
         <v>855</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H129" s="2">
         <v>1000</v>
@@ -5244,7 +5285,7 @@
         <v>103602</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>7</v>
@@ -5259,7 +5300,7 @@
         <v>856</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H130" s="2">
         <v>1000</v>
@@ -5270,7 +5311,7 @@
         <v>103603</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>7</v>
@@ -5285,7 +5326,7 @@
         <v>857</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H131" s="2">
         <v>1000</v>
@@ -5296,7 +5337,7 @@
         <v>103604</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>7</v>
@@ -5311,7 +5352,7 @@
         <v>858</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H132" s="2">
         <v>1000</v>
@@ -5322,7 +5363,7 @@
         <v>103605</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>7</v>
@@ -5337,7 +5378,7 @@
         <v>859</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H133" s="2">
         <v>1000</v>
@@ -5348,7 +5389,7 @@
         <v>103606</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>7</v>
@@ -5363,7 +5404,7 @@
         <v>860</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H134" s="2">
         <v>1000</v>
@@ -5374,7 +5415,7 @@
         <v>103607</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>7</v>
@@ -5389,7 +5430,7 @@
         <v>861</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H135" s="2">
         <v>1000</v>
@@ -5400,7 +5441,7 @@
         <v>103608</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>7</v>
@@ -5415,7 +5456,7 @@
         <v>862</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H136" s="2">
         <v>1000</v>
@@ -5426,7 +5467,7 @@
         <v>103609</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>7</v>
@@ -5441,7 +5482,7 @@
         <v>863</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H137" s="2">
         <v>1000</v>
@@ -5452,7 +5493,7 @@
         <v>103701</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>7</v>
@@ -5467,7 +5508,7 @@
         <v>864</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H138" s="2">
         <v>1000</v>
@@ -5478,7 +5519,7 @@
         <v>103702</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>7</v>
@@ -5493,7 +5534,7 @@
         <v>865</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H139" s="2">
         <v>1000</v>
@@ -5504,7 +5545,7 @@
         <v>103703</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>7</v>
@@ -5519,7 +5560,7 @@
         <v>866</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H140" s="2">
         <v>1000</v>
@@ -5530,7 +5571,7 @@
         <v>103704</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>7</v>
@@ -5545,7 +5586,7 @@
         <v>867</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H141" s="2">
         <v>1000</v>
@@ -5556,7 +5597,7 @@
         <v>103705</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>7</v>
@@ -5571,7 +5612,7 @@
         <v>868</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H142" s="2">
         <v>1000</v>
@@ -5582,7 +5623,7 @@
         <v>103706</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>7</v>
@@ -5597,7 +5638,7 @@
         <v>869</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H143" s="2">
         <v>1000</v>
@@ -5608,7 +5649,7 @@
         <v>103707</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>7</v>
@@ -5623,7 +5664,7 @@
         <v>870</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H144" s="2">
         <v>1000</v>
@@ -5634,7 +5675,7 @@
         <v>103708</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>7</v>
@@ -5649,7 +5690,7 @@
         <v>871</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H145" s="2">
         <v>1000</v>
@@ -5660,7 +5701,7 @@
         <v>103709</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>7</v>
@@ -5675,7 +5716,7 @@
         <v>872</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H146" s="2">
         <v>1000</v>
@@ -5686,7 +5727,7 @@
         <v>103801</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>7</v>
@@ -5701,7 +5742,7 @@
         <v>873</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H147" s="2">
         <v>1000</v>
@@ -5712,7 +5753,7 @@
         <v>103802</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>7</v>
@@ -5727,7 +5768,7 @@
         <v>874</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H148" s="2">
         <v>1000</v>
@@ -5738,7 +5779,7 @@
         <v>103803</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>7</v>
@@ -5753,7 +5794,7 @@
         <v>875</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H149" s="2">
         <v>1000</v>
@@ -5764,7 +5805,7 @@
         <v>103804</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>7</v>
@@ -5779,7 +5820,7 @@
         <v>876</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H150" s="2">
         <v>1000</v>
@@ -5790,7 +5831,7 @@
         <v>103805</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>7</v>
@@ -5805,7 +5846,7 @@
         <v>877</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H151" s="2">
         <v>1000</v>
@@ -5816,7 +5857,7 @@
         <v>103806</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>7</v>
@@ -5831,7 +5872,7 @@
         <v>878</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H152" s="2">
         <v>1000</v>
@@ -5842,7 +5883,7 @@
         <v>103807</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>7</v>
@@ -5857,7 +5898,7 @@
         <v>879</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H153" s="2">
         <v>1000</v>
@@ -5868,7 +5909,7 @@
         <v>103808</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>7</v>
@@ -5883,7 +5924,7 @@
         <v>880</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H154" s="2">
         <v>1000</v>
@@ -5894,7 +5935,7 @@
         <v>103809</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>7</v>
@@ -5909,7 +5950,7 @@
         <v>881</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H155" s="2">
         <v>1000</v>
@@ -5920,7 +5961,7 @@
         <v>103901</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>7</v>
@@ -5935,7 +5976,7 @@
         <v>882</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H156" s="2">
         <v>1000</v>
@@ -5946,7 +5987,7 @@
         <v>103902</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>7</v>
@@ -5961,7 +6002,7 @@
         <v>883</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H157" s="2">
         <v>1000</v>
@@ -5972,7 +6013,7 @@
         <v>103903</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>7</v>
@@ -5987,7 +6028,7 @@
         <v>884</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H158" s="2">
         <v>1000</v>
@@ -5998,7 +6039,7 @@
         <v>103904</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>7</v>
@@ -6013,7 +6054,7 @@
         <v>885</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H159" s="2">
         <v>1000</v>
@@ -6024,7 +6065,7 @@
         <v>103905</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>7</v>
@@ -6039,7 +6080,7 @@
         <v>886</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H160" s="2">
         <v>1000</v>
@@ -6050,7 +6091,7 @@
         <v>103906</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>7</v>
@@ -6065,7 +6106,7 @@
         <v>887</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H161" s="2">
         <v>1000</v>
@@ -6076,7 +6117,7 @@
         <v>103907</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>7</v>
@@ -6091,7 +6132,7 @@
         <v>888</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H162" s="2">
         <v>1000</v>
@@ -6102,7 +6143,7 @@
         <v>103908</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>7</v>
@@ -6117,7 +6158,7 @@
         <v>889</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H163" s="2">
         <v>1000</v>
@@ -6128,7 +6169,7 @@
         <v>103909</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>7</v>
@@ -6143,7 +6184,7 @@
         <v>890</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H164" s="2">
         <v>1000</v>
@@ -6154,7 +6195,7 @@
         <v>104001</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -6166,10 +6207,10 @@
         <v>999</v>
       </c>
       <c r="F165" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>346</v>
+        <v>464</v>
       </c>
       <c r="H165" s="2">
         <v>1000</v>
@@ -6180,7 +6221,7 @@
         <v>104002</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -6192,10 +6233,10 @@
         <v>999</v>
       </c>
       <c r="F166" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H166" s="2">
         <v>1000</v>
@@ -6206,7 +6247,7 @@
         <v>104003</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -6218,10 +6259,10 @@
         <v>999</v>
       </c>
       <c r="F167" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>348</v>
+        <v>465</v>
       </c>
       <c r="H167" s="2">
         <v>1000</v>
@@ -6232,7 +6273,7 @@
         <v>104004</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
@@ -6244,10 +6285,10 @@
         <v>999</v>
       </c>
       <c r="F168" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H168" s="2">
         <v>1000</v>
@@ -6258,7 +6299,7 @@
         <v>104005</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
@@ -6270,21 +6311,21 @@
         <v>999</v>
       </c>
       <c r="F169" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>350</v>
+        <v>460</v>
       </c>
       <c r="H169" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="2">
+      <c r="A170" s="16">
         <v>104006</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>66</v>
+        <v>456</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
@@ -6296,10 +6337,10 @@
         <v>999</v>
       </c>
       <c r="F170" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
       <c r="H170" s="2">
         <v>1000</v>
@@ -6310,7 +6351,7 @@
         <v>104007</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
@@ -6322,10 +6363,10 @@
         <v>999</v>
       </c>
       <c r="F171" s="9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H171" s="2">
         <v>1000</v>
@@ -6336,7 +6377,7 @@
         <v>104008</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
@@ -6348,10 +6389,10 @@
         <v>999</v>
       </c>
       <c r="F172" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H172" s="2">
         <v>1000</v>
@@ -6362,7 +6403,7 @@
         <v>104009</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -6374,10 +6415,10 @@
         <v>999</v>
       </c>
       <c r="F173" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H173" s="2">
         <v>1000</v>
@@ -6388,7 +6429,7 @@
         <v>104010</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -6400,10 +6441,10 @@
         <v>999</v>
       </c>
       <c r="F174" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H174" s="2">
         <v>1000</v>
@@ -6414,7 +6455,7 @@
         <v>104011</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -6426,76 +6467,76 @@
         <v>999</v>
       </c>
       <c r="F175" s="9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H175" s="2">
         <v>1000</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A176" s="2">
-        <v>105001</v>
+      <c r="A176" s="16">
+        <v>104012</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>210</v>
+        <v>458</v>
       </c>
       <c r="C176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" s="2">
+        <v>999</v>
+      </c>
+      <c r="F176" s="9">
+        <v>8</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H176" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="16">
+        <v>104013</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" s="2">
+        <v>999</v>
+      </c>
+      <c r="F177" s="9">
         <v>9</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" s="2">
-        <v>999</v>
-      </c>
-      <c r="F176" s="9">
-        <v>601</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H176" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A177" s="2">
-        <v>105002</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E177" s="2">
-        <v>999</v>
-      </c>
-      <c r="F177" s="9">
-        <v>602</v>
-      </c>
       <c r="G177" s="2" t="s">
-        <v>357</v>
+        <v>457</v>
       </c>
       <c r="H177" s="2">
-        <v>100000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="2">
-        <v>105003</v>
+      <c r="A178" s="16">
+        <v>104014</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>212</v>
+        <v>462</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>22</v>
@@ -6504,10 +6545,10 @@
         <v>999</v>
       </c>
       <c r="F178" s="9">
-        <v>603</v>
+        <v>1</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>357</v>
+        <v>463</v>
       </c>
       <c r="H178" s="2">
         <v>100000</v>
@@ -6515,10 +6556,10 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
-        <v>105004</v>
+        <v>105001</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
@@ -6530,10 +6571,10 @@
         <v>999</v>
       </c>
       <c r="F179" s="9">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H179" s="2">
         <v>100000</v>
@@ -6541,10 +6582,10 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
-        <v>105005</v>
+        <v>105002</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -6556,10 +6597,10 @@
         <v>999</v>
       </c>
       <c r="F180" s="9">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H180" s="2">
         <v>100000</v>
@@ -6567,10 +6608,10 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
-        <v>105006</v>
+        <v>105003</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
@@ -6582,10 +6623,10 @@
         <v>999</v>
       </c>
       <c r="F181" s="9">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H181" s="2">
         <v>100000</v>
@@ -6593,10 +6634,10 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
-        <v>105007</v>
+        <v>105004</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -6608,10 +6649,10 @@
         <v>999</v>
       </c>
       <c r="F182" s="9">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H182" s="2">
         <v>100000</v>
@@ -6619,10 +6660,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
-        <v>105008</v>
+        <v>105005</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
@@ -6634,10 +6675,10 @@
         <v>999</v>
       </c>
       <c r="F183" s="9">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H183" s="2">
         <v>100000</v>
@@ -6645,10 +6686,10 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
-        <v>105009</v>
+        <v>105006</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -6660,10 +6701,10 @@
         <v>999</v>
       </c>
       <c r="F184" s="9">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H184" s="2">
         <v>100000</v>
@@ -6671,10 +6712,10 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
-        <v>105010</v>
+        <v>105007</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
@@ -6686,10 +6727,10 @@
         <v>999</v>
       </c>
       <c r="F185" s="9">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H185" s="2">
         <v>100000</v>
@@ -6697,10 +6738,10 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
-        <v>105011</v>
+        <v>105008</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -6712,10 +6753,10 @@
         <v>999</v>
       </c>
       <c r="F186" s="9">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H186" s="2">
         <v>100000</v>
@@ -6723,10 +6764,10 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
-        <v>105012</v>
+        <v>105009</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>9</v>
@@ -6738,10 +6779,10 @@
         <v>999</v>
       </c>
       <c r="F187" s="9">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H187" s="2">
         <v>100000</v>
@@ -6749,10 +6790,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
-        <v>105013</v>
+        <v>105010</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -6764,10 +6805,10 @@
         <v>999</v>
       </c>
       <c r="F188" s="9">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H188" s="2">
         <v>100000</v>
@@ -6775,10 +6816,10 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
-        <v>105014</v>
+        <v>105011</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -6790,10 +6831,10 @@
         <v>999</v>
       </c>
       <c r="F189" s="9">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H189" s="2">
         <v>100000</v>
@@ -6801,10 +6842,10 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
-        <v>105015</v>
+        <v>105012</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -6816,10 +6857,10 @@
         <v>999</v>
       </c>
       <c r="F190" s="9">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H190" s="2">
         <v>100000</v>
@@ -6827,10 +6868,10 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
-        <v>105016</v>
+        <v>105013</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -6842,21 +6883,21 @@
         <v>999</v>
       </c>
       <c r="F191" s="9">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H191" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
-        <v>105017</v>
+        <v>105014</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -6868,21 +6909,21 @@
         <v>999</v>
       </c>
       <c r="F192" s="9">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H192" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
-        <v>105018</v>
+        <v>105015</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -6894,21 +6935,21 @@
         <v>999</v>
       </c>
       <c r="F193" s="9">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H193" s="2">
-        <v>5000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
-        <v>105019</v>
+        <v>105016</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
@@ -6920,21 +6961,21 @@
         <v>999</v>
       </c>
       <c r="F194" s="9">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H194" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
-        <v>105020</v>
+        <v>105017</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -6946,21 +6987,21 @@
         <v>999</v>
       </c>
       <c r="F195" s="9">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H195" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
-        <v>105021</v>
+        <v>105018</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -6972,24 +7013,24 @@
         <v>999</v>
       </c>
       <c r="F196" s="9">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H196" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
-        <v>106101</v>
+        <v>105019</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>22</v>
@@ -6998,10 +7039,10 @@
         <v>999</v>
       </c>
       <c r="F197" s="9">
-        <v>701</v>
+        <v>619</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>3</v>
+        <v>350</v>
       </c>
       <c r="H197" s="2">
         <v>1000</v>
@@ -7009,13 +7050,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
-        <v>106102</v>
+        <v>105020</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>22</v>
@@ -7024,10 +7065,10 @@
         <v>999</v>
       </c>
       <c r="F198" s="9">
-        <v>702</v>
+        <v>620</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>4</v>
+        <v>350</v>
       </c>
       <c r="H198" s="2">
         <v>1000</v>
@@ -7035,13 +7076,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
-        <v>106103</v>
+        <v>105021</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>22</v>
@@ -7050,10 +7091,10 @@
         <v>999</v>
       </c>
       <c r="F199" s="9">
-        <v>703</v>
+        <v>621</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H199" s="2">
         <v>1000</v>
@@ -7061,10 +7102,10 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
-        <v>106104</v>
+        <v>106101</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>10</v>
@@ -7076,10 +7117,10 @@
         <v>999</v>
       </c>
       <c r="F200" s="9">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>359</v>
+        <v>3</v>
       </c>
       <c r="H200" s="2">
         <v>1000</v>
@@ -7087,10 +7128,10 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
-        <v>106105</v>
+        <v>106102</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>10</v>
@@ -7102,10 +7143,10 @@
         <v>999</v>
       </c>
       <c r="F201" s="9">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="H201" s="2">
         <v>1000</v>
@@ -7113,10 +7154,10 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
-        <v>106106</v>
+        <v>106103</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>10</v>
@@ -7128,10 +7169,10 @@
         <v>999</v>
       </c>
       <c r="F202" s="9">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H202" s="2">
         <v>1000</v>
@@ -7139,10 +7180,10 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
-        <v>106107</v>
+        <v>106104</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>10</v>
@@ -7154,10 +7195,10 @@
         <v>999</v>
       </c>
       <c r="F203" s="9">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H203" s="2">
         <v>1000</v>
@@ -7165,10 +7206,10 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
-        <v>106108</v>
+        <v>106105</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>10</v>
@@ -7180,10 +7221,10 @@
         <v>999</v>
       </c>
       <c r="F204" s="9">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H204" s="2">
         <v>1000</v>
@@ -7191,10 +7232,10 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
-        <v>106109</v>
+        <v>106106</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>10</v>
@@ -7206,10 +7247,10 @@
         <v>999</v>
       </c>
       <c r="F205" s="9">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H205" s="2">
         <v>1000</v>
@@ -7217,10 +7258,10 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
-        <v>106110</v>
+        <v>106107</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>10</v>
@@ -7232,10 +7273,10 @@
         <v>999</v>
       </c>
       <c r="F206" s="9">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H206" s="2">
         <v>1000</v>
@@ -7243,10 +7284,10 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
-        <v>106111</v>
+        <v>106108</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>10</v>
@@ -7258,10 +7299,10 @@
         <v>999</v>
       </c>
       <c r="F207" s="9">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="H207" s="2">
         <v>1000</v>
@@ -7269,10 +7310,10 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
-        <v>106112</v>
+        <v>106109</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>10</v>
@@ -7284,10 +7325,10 @@
         <v>999</v>
       </c>
       <c r="F208" s="9">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H208" s="2">
         <v>1000</v>
@@ -7295,10 +7336,10 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
-        <v>106113</v>
+        <v>106110</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>10</v>
@@ -7310,10 +7351,10 @@
         <v>999</v>
       </c>
       <c r="F209" s="9">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H209" s="2">
         <v>1000</v>
@@ -7321,10 +7362,10 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
-        <v>106114</v>
+        <v>106111</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>10</v>
@@ -7336,10 +7377,10 @@
         <v>999</v>
       </c>
       <c r="F210" s="9">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H210" s="2">
         <v>1000</v>
@@ -7347,10 +7388,10 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
-        <v>106115</v>
+        <v>106112</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>10</v>
@@ -7362,10 +7403,10 @@
         <v>999</v>
       </c>
       <c r="F211" s="9">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H211" s="2">
         <v>1000</v>
@@ -7373,10 +7414,10 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
-        <v>106116</v>
+        <v>106113</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>10</v>
@@ -7388,10 +7429,10 @@
         <v>999</v>
       </c>
       <c r="F212" s="9">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H212" s="2">
         <v>1000</v>
@@ -7399,10 +7440,10 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
-        <v>106117</v>
+        <v>106114</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>10</v>
@@ -7414,10 +7455,10 @@
         <v>999</v>
       </c>
       <c r="F213" s="9">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="H213" s="2">
         <v>1000</v>
@@ -7425,10 +7466,10 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
-        <v>106118</v>
+        <v>106115</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>10</v>
@@ -7440,10 +7481,10 @@
         <v>999</v>
       </c>
       <c r="F214" s="9">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H214" s="2">
         <v>1000</v>
@@ -7451,10 +7492,10 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
-        <v>106119</v>
+        <v>106116</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>10</v>
@@ -7466,10 +7507,10 @@
         <v>999</v>
       </c>
       <c r="F215" s="9">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="H215" s="2">
         <v>1000</v>
@@ -7477,10 +7518,10 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
-        <v>106120</v>
+        <v>106117</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>10</v>
@@ -7492,10 +7533,10 @@
         <v>999</v>
       </c>
       <c r="F216" s="9">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H216" s="2">
         <v>1000</v>
@@ -7503,10 +7544,10 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
-        <v>106121</v>
+        <v>106118</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>10</v>
@@ -7518,10 +7559,10 @@
         <v>999</v>
       </c>
       <c r="F217" s="9">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H217" s="2">
         <v>1000</v>
@@ -7529,10 +7570,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
-        <v>106201</v>
+        <v>106119</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>10</v>
@@ -7544,10 +7585,10 @@
         <v>999</v>
       </c>
       <c r="F218" s="9">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H218" s="2">
         <v>1000</v>
@@ -7555,10 +7596,10 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
-        <v>106202</v>
+        <v>106120</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>10</v>
@@ -7570,10 +7611,10 @@
         <v>999</v>
       </c>
       <c r="F219" s="9">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="H219" s="2">
         <v>1000</v>
@@ -7581,10 +7622,10 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
-        <v>106203</v>
+        <v>106121</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>10</v>
@@ -7596,10 +7637,10 @@
         <v>999</v>
       </c>
       <c r="F220" s="9">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="H220" s="2">
         <v>1000</v>
@@ -7607,10 +7648,10 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
-        <v>106204</v>
+        <v>106201</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>10</v>
@@ -7622,10 +7663,10 @@
         <v>999</v>
       </c>
       <c r="F221" s="9">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H221" s="2">
         <v>1000</v>
@@ -7633,10 +7674,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
-        <v>106205</v>
+        <v>106202</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>10</v>
@@ -7648,10 +7689,10 @@
         <v>999</v>
       </c>
       <c r="F222" s="9">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H222" s="2">
         <v>1000</v>
@@ -7659,10 +7700,10 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
-        <v>106206</v>
+        <v>106203</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>10</v>
@@ -7674,10 +7715,10 @@
         <v>999</v>
       </c>
       <c r="F223" s="9">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H223" s="2">
         <v>1000</v>
@@ -7685,10 +7726,10 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
-        <v>106207</v>
+        <v>106204</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>10</v>
@@ -7700,10 +7741,10 @@
         <v>999</v>
       </c>
       <c r="F224" s="9">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H224" s="2">
         <v>1000</v>
@@ -7711,10 +7752,10 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
-        <v>106208</v>
+        <v>106205</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>10</v>
@@ -7726,10 +7767,10 @@
         <v>999</v>
       </c>
       <c r="F225" s="9">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H225" s="2">
         <v>1000</v>
@@ -7737,10 +7778,10 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
-        <v>106209</v>
+        <v>106206</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>10</v>
@@ -7752,10 +7793,10 @@
         <v>999</v>
       </c>
       <c r="F226" s="9">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="H226" s="2">
         <v>1000</v>
@@ -7763,10 +7804,10 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
-        <v>106210</v>
+        <v>106207</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>10</v>
@@ -7778,10 +7819,10 @@
         <v>999</v>
       </c>
       <c r="F227" s="9">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="H227" s="2">
         <v>1000</v>
@@ -7789,10 +7830,10 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
-        <v>106211</v>
+        <v>106208</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>10</v>
@@ -7804,10 +7845,10 @@
         <v>999</v>
       </c>
       <c r="F228" s="9">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H228" s="2">
         <v>1000</v>
@@ -7815,10 +7856,10 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
-        <v>106212</v>
+        <v>106209</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>10</v>
@@ -7830,10 +7871,10 @@
         <v>999</v>
       </c>
       <c r="F229" s="9">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="H229" s="2">
         <v>1000</v>
@@ -7841,10 +7882,10 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
-        <v>106213</v>
+        <v>106210</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>10</v>
@@ -7856,10 +7897,10 @@
         <v>999</v>
       </c>
       <c r="F230" s="9">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H230" s="2">
         <v>1000</v>
@@ -7867,10 +7908,10 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
-        <v>106214</v>
+        <v>106211</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>10</v>
@@ -7882,10 +7923,10 @@
         <v>999</v>
       </c>
       <c r="F231" s="9">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="H231" s="2">
         <v>1000</v>
@@ -7893,10 +7934,10 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>106215</v>
+        <v>106212</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>10</v>
@@ -7908,10 +7949,10 @@
         <v>999</v>
       </c>
       <c r="F232" s="9">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="H232" s="2">
         <v>1000</v>
@@ -7919,10 +7960,10 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
-        <v>106216</v>
+        <v>106213</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>10</v>
@@ -7934,10 +7975,10 @@
         <v>999</v>
       </c>
       <c r="F233" s="9">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H233" s="2">
         <v>1000</v>
@@ -7945,10 +7986,10 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
-        <v>106301</v>
+        <v>106214</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>10</v>
@@ -7960,10 +8001,10 @@
         <v>999</v>
       </c>
       <c r="F234" s="9">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H234" s="2">
         <v>1000</v>
@@ -7971,10 +8012,10 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
-        <v>106302</v>
+        <v>106215</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>10</v>
@@ -7986,10 +8027,10 @@
         <v>999</v>
       </c>
       <c r="F235" s="9">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="H235" s="2">
         <v>1000</v>
@@ -7997,10 +8038,10 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
-        <v>106303</v>
+        <v>106216</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>10</v>
@@ -8012,10 +8053,10 @@
         <v>999</v>
       </c>
       <c r="F236" s="9">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H236" s="2">
         <v>1000</v>
@@ -8023,10 +8064,10 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
-        <v>106304</v>
+        <v>106301</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>10</v>
@@ -8038,10 +8079,10 @@
         <v>999</v>
       </c>
       <c r="F237" s="9">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="H237" s="2">
         <v>1000</v>
@@ -8049,10 +8090,10 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
-        <v>106305</v>
+        <v>106302</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>10</v>
@@ -8064,10 +8105,10 @@
         <v>999</v>
       </c>
       <c r="F238" s="9">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H238" s="2">
         <v>1000</v>
@@ -8075,10 +8116,10 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
-        <v>106306</v>
+        <v>106303</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>10</v>
@@ -8090,10 +8131,10 @@
         <v>999</v>
       </c>
       <c r="F239" s="9">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H239" s="2">
         <v>1000</v>
@@ -8101,10 +8142,10 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
-        <v>106307</v>
+        <v>106304</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>10</v>
@@ -8116,10 +8157,10 @@
         <v>999</v>
       </c>
       <c r="F240" s="9">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H240" s="2">
         <v>1000</v>
@@ -8127,10 +8168,10 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
-        <v>106308</v>
+        <v>106305</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>10</v>
@@ -8142,10 +8183,10 @@
         <v>999</v>
       </c>
       <c r="F241" s="9">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="H241" s="2">
         <v>1000</v>
@@ -8153,10 +8194,10 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
-        <v>106309</v>
+        <v>106306</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>10</v>
@@ -8168,10 +8209,10 @@
         <v>999</v>
       </c>
       <c r="F242" s="9">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="H242" s="2">
         <v>1000</v>
@@ -8179,10 +8220,10 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
-        <v>106310</v>
+        <v>106307</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>10</v>
@@ -8194,10 +8235,10 @@
         <v>999</v>
       </c>
       <c r="F243" s="9">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H243" s="2">
         <v>1000</v>
@@ -8205,10 +8246,10 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
-        <v>106311</v>
+        <v>106308</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>10</v>
@@ -8220,10 +8261,10 @@
         <v>999</v>
       </c>
       <c r="F244" s="9">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="H244" s="2">
         <v>1000</v>
@@ -8231,10 +8272,10 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
-        <v>106312</v>
+        <v>106309</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>10</v>
@@ -8246,10 +8287,10 @@
         <v>999</v>
       </c>
       <c r="F245" s="9">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="H245" s="2">
         <v>1000</v>
@@ -8257,10 +8298,10 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>106313</v>
+        <v>106310</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>10</v>
@@ -8272,10 +8313,10 @@
         <v>999</v>
       </c>
       <c r="F246" s="9">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H246" s="2">
         <v>1000</v>
@@ -8283,10 +8324,10 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
-        <v>106401</v>
+        <v>106311</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>10</v>
@@ -8298,10 +8339,10 @@
         <v>999</v>
       </c>
       <c r="F247" s="9">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="H247" s="2">
         <v>1000</v>
@@ -8309,10 +8350,10 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
-        <v>106402</v>
+        <v>106312</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>10</v>
@@ -8324,10 +8365,10 @@
         <v>999</v>
       </c>
       <c r="F248" s="9">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="H248" s="2">
         <v>1000</v>
@@ -8335,10 +8376,10 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
-        <v>106403</v>
+        <v>106313</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>10</v>
@@ -8350,10 +8391,10 @@
         <v>999</v>
       </c>
       <c r="F249" s="9">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="H249" s="2">
         <v>1000</v>
@@ -8361,10 +8402,10 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
-        <v>106404</v>
+        <v>106401</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>10</v>
@@ -8376,10 +8417,10 @@
         <v>999</v>
       </c>
       <c r="F250" s="9">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H250" s="2">
         <v>1000</v>
@@ -8387,10 +8428,10 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
-        <v>106405</v>
+        <v>106402</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>10</v>
@@ -8402,10 +8443,10 @@
         <v>999</v>
       </c>
       <c r="F251" s="9">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="H251" s="2">
         <v>1000</v>
@@ -8413,10 +8454,10 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>106406</v>
+        <v>106403</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>10</v>
@@ -8428,10 +8469,10 @@
         <v>999</v>
       </c>
       <c r="F252" s="9">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="H252" s="2">
         <v>1000</v>
@@ -8439,10 +8480,10 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
-        <v>106407</v>
+        <v>106404</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>10</v>
@@ -8454,10 +8495,10 @@
         <v>999</v>
       </c>
       <c r="F253" s="9">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H253" s="2">
         <v>1000</v>
@@ -8465,10 +8506,10 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
-        <v>106408</v>
+        <v>106405</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>10</v>
@@ -8480,10 +8521,10 @@
         <v>999</v>
       </c>
       <c r="F254" s="9">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H254" s="2">
         <v>1000</v>
@@ -8491,10 +8532,10 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
-        <v>106409</v>
+        <v>106406</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>10</v>
@@ -8506,10 +8547,10 @@
         <v>999</v>
       </c>
       <c r="F255" s="9">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H255" s="2">
         <v>1000</v>
@@ -8517,10 +8558,10 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
-        <v>106501</v>
+        <v>106407</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>10</v>
@@ -8532,10 +8573,10 @@
         <v>999</v>
       </c>
       <c r="F256" s="9">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H256" s="2">
         <v>1000</v>
@@ -8543,10 +8584,10 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
-        <v>106502</v>
+        <v>106408</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>10</v>
@@ -8558,10 +8599,10 @@
         <v>999</v>
       </c>
       <c r="F257" s="9">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H257" s="2">
         <v>1000</v>
@@ -8569,10 +8610,10 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>106503</v>
+        <v>106409</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>10</v>
@@ -8584,10 +8625,10 @@
         <v>999</v>
       </c>
       <c r="F258" s="9">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="H258" s="2">
         <v>1000</v>
@@ -8595,10 +8636,10 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
-        <v>106504</v>
+        <v>106501</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>10</v>
@@ -8610,10 +8651,10 @@
         <v>999</v>
       </c>
       <c r="F259" s="9">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H259" s="2">
         <v>1000</v>
@@ -8621,10 +8662,10 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
-        <v>106505</v>
+        <v>106502</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>10</v>
@@ -8636,10 +8677,10 @@
         <v>999</v>
       </c>
       <c r="F260" s="9">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H260" s="2">
         <v>1000</v>
@@ -8647,10 +8688,10 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
-        <v>106506</v>
+        <v>106503</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>10</v>
@@ -8662,10 +8703,10 @@
         <v>999</v>
       </c>
       <c r="F261" s="9">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="H261" s="2">
         <v>1000</v>
@@ -8673,10 +8714,10 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
-        <v>106507</v>
+        <v>106504</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>10</v>
@@ -8688,10 +8729,10 @@
         <v>999</v>
       </c>
       <c r="F262" s="9">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="H262" s="2">
         <v>1000</v>
@@ -8699,10 +8740,10 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
-        <v>106508</v>
+        <v>106505</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>10</v>
@@ -8714,10 +8755,10 @@
         <v>999</v>
       </c>
       <c r="F263" s="9">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="H263" s="2">
         <v>1000</v>
@@ -8725,10 +8766,10 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>106509</v>
+        <v>106506</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>10</v>
@@ -8740,10 +8781,10 @@
         <v>999</v>
       </c>
       <c r="F264" s="9">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H264" s="2">
         <v>1000</v>
@@ -8751,10 +8792,10 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
-        <v>106510</v>
+        <v>106507</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>10</v>
@@ -8766,10 +8807,10 @@
         <v>999</v>
       </c>
       <c r="F265" s="9">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H265" s="2">
         <v>1000</v>
@@ -8777,10 +8818,10 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>106511</v>
+        <v>106508</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>10</v>
@@ -8792,22 +8833,100 @@
         <v>999</v>
       </c>
       <c r="F266" s="9">
+        <v>767</v>
+      </c>
+      <c r="G266" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H266" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>106509</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" s="2">
+        <v>999</v>
+      </c>
+      <c r="F267" s="9">
+        <v>768</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H267" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>106510</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" s="2">
+        <v>999</v>
+      </c>
+      <c r="F268" s="9">
+        <v>769</v>
+      </c>
+      <c r="G268" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H268" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>106511</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="2">
+        <v>999</v>
+      </c>
+      <c r="F269" s="9">
         <v>770</v>
       </c>
-      <c r="G266" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H266" s="2">
+      <c r="G269" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H269" s="2">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C65 C70:C71 C73:C266">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C65 C70:C71 C73:C269">
       <formula1>"装备,消耗品,宝石,礼包,材料,球员碎片"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D390">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D393">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C69 C72">
